--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -242,13 +242,154 @@
   <si>
     <t xml:space="preserve">If CONTRACTING_BODY/JOINT_PROCUREMENT_INVOLVED, jointProcurement with each of the
 CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL </t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>ExpressionOfInterest</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>AccountFormat</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>BuyerCategoryType</t>
+  </si>
+  <si>
+    <t>BuyerRoleType</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>EOGroupCodeType</t>
+  </si>
+  <si>
+    <t>IdentifierProvider</t>
+  </si>
+  <si>
+    <t>LegalForm</t>
+  </si>
+  <si>
+    <t>ProcedureChoiceJustificationCode</t>
+  </si>
+  <si>
+    <t>ProcedureType</t>
+  </si>
+  <si>
+    <t>ProcuringEntityRoleType</t>
+  </si>
+  <si>
+    <t>ProcuringEntityType</t>
+  </si>
+  <si>
+    <t>ReservedContract</t>
+  </si>
+  <si>
+    <t>ReservedContractType</t>
+  </si>
+  <si>
+    <t>SubmissionLanguage</t>
+  </si>
+  <si>
+    <t>TenderingCriterion</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>ProcurementDocument</t>
+  </si>
+  <si>
+    <t>CallForCompetition</t>
+  </si>
+  <si>
+    <t>CallForProposal</t>
+  </si>
+  <si>
+    <t>CallForTenders</t>
+  </si>
+  <si>
+    <t>InvitationToTender</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>ContractAwardNotice</t>
+  </si>
+  <si>
+    <t>ContractNotice</t>
+  </si>
+  <si>
+    <t>PriorInformationNotice</t>
+  </si>
+  <si>
+    <t>TechnicalSpecifications</t>
+  </si>
+  <si>
+    <t>TenderDocument</t>
+  </si>
+  <si>
+    <t>FinancialTender</t>
+  </si>
+  <si>
+    <t>TechnicalTender</t>
+  </si>
+  <si>
+    <t>FundsIdentification</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>ServiceProvider</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
+    <t>TenderingTerms</t>
+  </si>
+  <si>
+    <t>TenderShortList</t>
+  </si>
+  <si>
+    <t>Buyer - org:Organization/Buyer</t>
+  </si>
+  <si>
+    <t>ProcuringEntity - org:Organization/ProcuringEntity</t>
+  </si>
+  <si>
+    <t>EconomicOperator - regorg:RegisteredOrganization/EconomicOperator</t>
+  </si>
+  <si>
+    <t>EconomicOperatorGroup - regorg:RegisteredOrganization/EconomicOperatorGroup</t>
+  </si>
+  <si>
+    <t>RegisteredOrganization - regorg:RegisteredOrganization</t>
+  </si>
+  <si>
+    <t>ProcurementProcedure -  - ProcurementProject/ProcurementProcedure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,14 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +413,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -301,9 +461,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -316,18 +475,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,7 +512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -632,24 +798,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -660,69 +828,282 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B2:B56">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -732,458 +1113,462 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="84.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="84.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="2"/>
+      <c r="F26" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>ProcurementProcedure -  - ProcurementProject/ProcurementProcedure</t>
+  </si>
+  <si>
+    <t>URL_BUYER</t>
   </si>
 </sst>
 </file>
@@ -801,7 +804,7 @@
   <dimension ref="B2:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,6 +852,9 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1394,7 +1400,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -233,9 +233,6 @@
     <t>hasMainActivity</t>
   </si>
   <si>
-    <t>Should be the same code list as TED XSD? (value: DEFENCE, ECONOMIC_AND_FINANCIAL_AFFAIRS, EDUCATION, ENVIRONMENT, GENERAL_PUBLIC_SERVICES, HEALTH, HOUSING_AND_COMMUNITY_AMENITIES, PUBLIC_ORDER_AND_SAFETY, RECREATION_CULTURE_AND_RELIGION, SOCIAL_PROTECTION)</t>
-  </si>
-  <si>
     <t>If CONTRACTING_BODY/JOINT_PROCUREMENT_INVOLVED, then current RoleType = Joint Procurement Lead,
 Other CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL RoleType = Joint Procurement Member.</t>
   </si>
@@ -386,13 +383,31 @@
   </si>
   <si>
     <t>URL_BUYER</t>
+  </si>
+  <si>
+    <t>Comments during the implementation</t>
+  </si>
+  <si>
+    <t>To do once the CM is updated.</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>F20 does not have CA_ACTIVITY nor CE_ACTIVITY defined.</t>
+  </si>
+  <si>
+    <t>Should be the same code list as TED XSD? CONTRACTING_BODY/CE_ACTIVITY or CA_ACTIVITY</t>
+  </si>
+  <si>
+    <t>Joint procurement / Procuring entity, which Procuring Entity type have?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +446,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -464,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,6 +519,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -803,11 +831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
@@ -831,22 +859,22 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -854,72 +882,72 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -927,7 +955,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -935,12 +963,12 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -950,12 +978,12 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -965,32 +993,32 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1000,27 +1028,27 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1030,7 +1058,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
@@ -1038,72 +1066,72 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1117,13 +1145,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F41"/>
+  <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1131,10 +1159,11 @@
     <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="84.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="45.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1173,11 @@
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1190,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1245,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1257,7 +1289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1279,7 +1311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1306,7 +1338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1317,7 +1349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1328,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1361,18 +1393,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1383,10 +1418,13 @@
         <v>47</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1399,20 +1437,24 @@
       <c r="F25" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="F26" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1423,10 +1465,13 @@
         <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +1479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>CONTRACTING_BODY</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR[1..N]</t>
   </si>
   <si>
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
@@ -401,6 +395,36 @@
   </si>
   <si>
     <t>Joint procurement / Procuring entity, which Procuring Entity type have?</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR and NO_AWARDED_TO_GROUP</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR[1..N] and AWARDED_TO_GROUP</t>
+  </si>
+  <si>
+    <t>EOPrepares</t>
+  </si>
+  <si>
+    <t>ePO does not have values for this code list</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>The information about the EO is a Text (INFO_ADD_SUBCONTRACTING)</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/LIKELY_SUBCONTRACTED exists, EO subcontracted might be INFO_ADD_SUBCONTRACTING as text.</t>
+  </si>
+  <si>
+    <t>Each AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR</t>
+  </si>
+  <si>
+    <t>This info does not exist in TED XSD</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR if NO_AWARDED_TO_GROUP</t>
   </si>
 </sst>
 </file>
@@ -831,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,22 +883,22 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -882,93 +906,93 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -978,12 +1002,12 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -993,32 +1017,32 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1028,27 +1052,27 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1082,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
@@ -1066,72 +1090,72 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1145,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1404,7 +1428,7 @@
         <v>37</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1418,10 +1442,10 @@
         <v>47</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -1435,10 +1459,10 @@
         <v>49</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1446,12 +1470,12 @@
         <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1465,10 +1489,10 @@
         <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1520,7 +1544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1530,8 +1554,11 @@
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1541,8 +1568,11 @@
       <c r="D34" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1552,8 +1582,11 @@
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
@@ -1563,8 +1596,11 @@
       <c r="D36" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
@@ -1575,7 +1611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
@@ -1585,8 +1621,14 @@
       <c r="D38" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1597,30 +1639,50 @@
         <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -244,55 +244,10 @@
     <t>ExpressionOfInterest</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>AccountFormat</t>
-  </si>
-  <si>
-    <t>AccountType</t>
-  </si>
-  <si>
-    <t>BuyerCategoryType</t>
-  </si>
-  <si>
-    <t>BuyerRoleType</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>EOGroupCodeType</t>
-  </si>
-  <si>
-    <t>IdentifierProvider</t>
-  </si>
-  <si>
-    <t>LegalForm</t>
-  </si>
-  <si>
-    <t>ProcedureChoiceJustificationCode</t>
-  </si>
-  <si>
-    <t>ProcedureType</t>
-  </si>
-  <si>
     <t>ProcuringEntityRoleType</t>
   </si>
   <si>
     <t>ProcuringEntityType</t>
-  </si>
-  <si>
-    <t>ReservedContract</t>
-  </si>
-  <si>
-    <t>ReservedContractType</t>
-  </si>
-  <si>
-    <t>SubmissionLanguage</t>
   </si>
   <si>
     <t>TenderingCriterion</t>
@@ -853,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D56"/>
+  <dimension ref="B2:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,279 +838,199 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1171,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1428,7 +1303,7 @@
         <v>37</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1445,7 +1320,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -1462,7 +1337,7 @@
         <v>67</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1475,7 +1350,7 @@
       <c r="D26" s="2"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1492,7 +1367,7 @@
         <v>70</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1555,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1569,7 +1444,7 @@
         <v>57</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1583,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1472,7 @@
         <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1622,10 +1497,10 @@
         <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1647,13 +1522,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1668,7 +1543,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1682,7 +1557,7 @@
         <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
     <sheet name="Triples" sheetId="2" r:id="rId2"/>
+    <sheet name="TED XSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="191">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -244,12 +245,6 @@
     <t>ExpressionOfInterest</t>
   </si>
   <si>
-    <t>ProcuringEntityRoleType</t>
-  </si>
-  <si>
-    <t>ProcuringEntityType</t>
-  </si>
-  <si>
     <t>TenderingCriterion</t>
   </si>
   <si>
@@ -307,9 +302,6 @@
     <t>Tender</t>
   </si>
   <si>
-    <t>TenderingTerms</t>
-  </si>
-  <si>
     <t>TenderShortList</t>
   </si>
   <si>
@@ -331,9 +323,6 @@
     <t>ProcurementProcedure -  - ProcurementProject/ProcurementProcedure</t>
   </si>
   <si>
-    <t>URL_BUYER</t>
-  </si>
-  <si>
     <t>Comments during the implementation</t>
   </si>
   <si>
@@ -380,13 +369,252 @@
   </si>
   <si>
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR if NO_AWARDED_TO_GROUP</t>
+  </si>
+  <si>
+    <t>NOTICE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT</t>
+  </si>
+  <si>
+    <t>LEFTI</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO</t>
+  </si>
+  <si>
+    <t>F01_2014</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>F02_2014</t>
+  </si>
+  <si>
+    <t>F03_2014</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT</t>
+  </si>
+  <si>
+    <t>F04_2014</t>
+  </si>
+  <si>
+    <t>F05_2014</t>
+  </si>
+  <si>
+    <t>F06_2014</t>
+  </si>
+  <si>
+    <t>F07_2014</t>
+  </si>
+  <si>
+    <t>F08_2014</t>
+  </si>
+  <si>
+    <t>DIRECTIVE</t>
+  </si>
+  <si>
+    <t>F12_2014</t>
+  </si>
+  <si>
+    <t>F13_2014</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>F14_2014</t>
+  </si>
+  <si>
+    <t>CHANGES</t>
+  </si>
+  <si>
+    <t>F15_2014</t>
+  </si>
+  <si>
+    <t>F20_2014</t>
+  </si>
+  <si>
+    <t>MODIFICATIONS_CONTRACT</t>
+  </si>
+  <si>
+    <t>F21_2014</t>
+  </si>
+  <si>
+    <t>F22_2014</t>
+  </si>
+  <si>
+    <t>F23_2014</t>
+  </si>
+  <si>
+    <t>F24_2014</t>
+  </si>
+  <si>
+    <t>F25_2014</t>
+  </si>
+  <si>
+    <t>Complex element</t>
+  </si>
+  <si>
+    <t>PRI_ONLY</t>
+  </si>
+  <si>
+    <t>PRI_CALL_COMPETITION</t>
+  </si>
+  <si>
+    <t>PRI_REDUCING_TIME_LIMITS</t>
+  </si>
+  <si>
+    <t>PER_ONLY</t>
+  </si>
+  <si>
+    <t>PER_CALL_COMPETITION</t>
+  </si>
+  <si>
+    <t>PER_REDUCING_TIME_LIMITS</t>
+  </si>
+  <si>
+    <t>QSU_CALL_COMPETITION</t>
+  </si>
+  <si>
+    <t>CONTRACT</t>
+  </si>
+  <si>
+    <t>QSU_ONLY</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>CONCESSION_AWARD_CONTRACT</t>
+  </si>
+  <si>
+    <t>PRI = Prior Information Notice</t>
+  </si>
+  <si>
+    <t>PER = Periodic Indicative Notice</t>
+  </si>
+  <si>
+    <t>QSU = Qualification System</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/CENTRAL_PURCHASING available. If so, CONTRACTING_BODY is the BUYER</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/URL_DOCUMENT</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
+  </si>
+  <si>
+    <t>If CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM exists, CONTRACTING_BODY/URL_DOCUMENT is the TenderDocument and ProcurementDocument
+If CONTRACTING_BODY/ADDRESS_PARTICIPATION exists, then CONTRACTING_BODY/ADDRESS_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>ProcurementDocument: CONTRACTING_BODY/URL_DOCUMENT
+TenderDocument:
+If CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM exists, then CONTRACTING_BODY/URL_DOCUMENT
+If CONTRACTING_BODY/ADDRESS_PARTICIPATION exists, then CONTRACTING_BODY/ADDRESS_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/REFERENCE_NUMBER</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>- Title: OBJECT_CONTRACT/TITLE [one per language]
+- Description: OBJECT_CONTRACT/SHORT_DESCR [one per language]</t>
+  </si>
+  <si>
+    <t>No lots if OBJECT_CONTRACT/NO_LOT_DIVISION</t>
+  </si>
+  <si>
+    <t>Not found in ePO</t>
+  </si>
+  <si>
+    <t>Place of performance: OBJECT_CONTRACT/OBJECT_DESCR/n2016:NUTS/@CODE and OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE</t>
+  </si>
+  <si>
+    <t>- Description: OBJECT_CONTRACT/OBJECT_DESCR/SHORT_DESCR [one per langauge]</t>
+  </si>
+  <si>
+    <t>Evaluation Criterion</t>
+  </si>
+  <si>
+    <t>FrameworkAgreement</t>
+  </si>
+  <si>
+    <t>- Duration: OBJECT_CONTRACT/OBJECT_DESCR/DURATION</t>
+  </si>
+  <si>
+    <t>Contract -&gt; Contract renewal</t>
+  </si>
+  <si>
+    <t>TenderEvaluationTerms</t>
+  </si>
+  <si>
+    <t>Budget -&gt; FundsIdentification</t>
+  </si>
+  <si>
+    <t>IF OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED then:
+- EUFunds: true()
+- Name: EU_PROGR_RELATED text</t>
+  </si>
+  <si>
+    <t>- TypeCode = OBJECT_CONTRACT/CPV_MAIN and OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE/@CODE
+- ContractNature = OBJECT_CONTRACT/TYPE_CONTRACT/@CTYPE
+- Options: If OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS exists, options value is OPTIONS_DESCR</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>- EstimatedOverallAmount: OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/VAL_OBJECT</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR/NO_RENEWAL exists, then, Contract-&gt; ContractRenewal relationship does not exist
+If OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL exists, then, ContractRenewal</t>
+  </si>
+  <si>
+    <t>- Variants: OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS exist, then false(), if ACCEPTED_VARIANTS then true()</t>
+  </si>
+  <si>
+    <t>LEFTI/SUITABILITY: Suitability to pursue the professional activity, including requirements relating to enrolment on professional or trade registers</t>
+  </si>
+  <si>
+    <t>FinancialTerms</t>
+  </si>
+  <si>
+    <t>- Financial conditions: LEFTI/ECONOMIC_FINANCIAL_INFO and LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <t>- Quality Criterion: OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_CRITERION
+- Weight: OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_WEIGHTING
+- Price: OBJECT_CONTRACT/OBJECT_DESCR/AC_PRICE
+- Technical and professional: LEFTI/TECHNICAL_PROFESSIONAL_INFO and TECHNICAL_PROFESSIONAL_MIN_LEVEL
+- LEFTI/RULES_CRITERIA</t>
+  </si>
+  <si>
+    <t>Preaward Notification Information</t>
+  </si>
+  <si>
+    <t>- Reserved contract depends on: LEFTI/RESTRICTED_SHELTERED_WORKSHOP or RESTRICTED_SHELTERED_PROGRAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +660,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +695,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -461,11 +710,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,18 +755,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -519,6 +787,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:T13" totalsRowShown="0">
+  <autoFilter ref="B2:T13"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Complex element" dataDxfId="0"/>
+    <tableColumn id="2" name="F01_2014"/>
+    <tableColumn id="3" name="F02_2014"/>
+    <tableColumn id="4" name="F03_2014"/>
+    <tableColumn id="5" name="F04_2014"/>
+    <tableColumn id="6" name="F05_2014"/>
+    <tableColumn id="7" name="F06_2014"/>
+    <tableColumn id="8" name="F07_2014"/>
+    <tableColumn id="9" name="F08_2014"/>
+    <tableColumn id="10" name="F12_2014"/>
+    <tableColumn id="11" name="F13_2014"/>
+    <tableColumn id="12" name="F14_2014"/>
+    <tableColumn id="13" name="F15_2014"/>
+    <tableColumn id="14" name="F20_2014"/>
+    <tableColumn id="15" name="F21_2014"/>
+    <tableColumn id="16" name="F22_2014"/>
+    <tableColumn id="17" name="F23_2014"/>
+    <tableColumn id="18" name="F24_2014"/>
+    <tableColumn id="19" name="F25_2014"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,229 +1104,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="87.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D15" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="37" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D37" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>96</v>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1072,8 +1474,8 @@
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>104</v>
+      <c r="G2" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1296,14 +1698,14 @@
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1320,7 +1722,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
@@ -1337,20 +1739,20 @@
         <v>67</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -1367,7 +1769,7 @@
         <v>70</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1430,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1444,7 +1846,7 @@
         <v>57</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1458,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1472,7 +1874,7 @@
         <v>54</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -1497,10 +1899,10 @@
         <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
@@ -1522,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -1543,7 +1945,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -1557,11 +1959,597 @@
         <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R9" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="P21" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="P22" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="F25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="Q27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="R28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="R29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="193">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -608,6 +608,12 @@
   </si>
   <si>
     <t>- Reserved contract depends on: LEFTI/RESTRICTED_SHELTERED_WORKSHOP or RESTRICTED_SHELTERED_PROGRAM</t>
+  </si>
+  <si>
+    <t>PRI_CALL_COMPETITION (PIN type)/D_PROC_NEGOTIATED_PRIOR_CALL_COMPETITION (common xsd)</t>
+  </si>
+  <si>
+    <t>Not found in TED</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,6 +772,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,7 +825,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1106,16 +1113,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="87.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -1151,19 +1158,29 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>79</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1448,11 +1465,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1976,7 +1993,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
     <sheet name="Triples" sheetId="2" r:id="rId2"/>
     <sheet name="TED XSD" sheetId="3" r:id="rId3"/>
+    <sheet name="TED to ePO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="216">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -39,9 +40,6 @@
     <t>org:Organization</t>
   </si>
   <si>
-    <t>org:Organization/Buyer</t>
-  </si>
-  <si>
     <t>org:Organization/ProcuringEntity</t>
   </si>
   <si>
@@ -51,9 +49,6 @@
     <t>ProcurementProject/ProcurementProcedure</t>
   </si>
   <si>
-    <t>regorg:RegisteredOrganization</t>
-  </si>
-  <si>
     <t>regorg:RegisteredOrganization/EconomicOperator</t>
   </si>
   <si>
@@ -126,9 +121,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>buysOnBehalfOf</t>
-  </si>
-  <si>
     <t>Buyer</t>
   </si>
   <si>
@@ -138,30 +130,15 @@
     <t>hasAccessTool</t>
   </si>
   <si>
-    <t>hasBuyerCategoryType</t>
-  </si>
-  <si>
-    <t>BuyerCategory code</t>
-  </si>
-  <si>
     <t>hasBuyerProfile</t>
   </si>
   <si>
-    <t>hasBuyerRoleType</t>
-  </si>
-  <si>
     <t>hasProcuringEntityRoleType</t>
   </si>
   <si>
-    <t>BuyerRole code</t>
-  </si>
-  <si>
     <t>buysTrough</t>
   </si>
   <si>
-    <t>Procuring Entity Role code</t>
-  </si>
-  <si>
     <t>has ProcuringEntityType</t>
   </si>
   <si>
@@ -217,15 +194,6 @@
   </si>
   <si>
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
-  </si>
-  <si>
-    <t>- CA roots element: F01, F02, F03, F14, F21, F23, F24, F25
-- CE root elements: F04, F05, F06, F07, F22
-- Both, root elements: F08, F12, F13, F15
-F20?</t>
-  </si>
-  <si>
-    <t>hasMainActivity</t>
   </si>
   <si>
     <t>If CONTRACTING_BODY/JOINT_PROCUREMENT_INVOLVED, then current RoleType = Joint Procurement Lead,
@@ -305,9 +273,6 @@
     <t>TenderShortList</t>
   </si>
   <si>
-    <t>Buyer - org:Organization/Buyer</t>
-  </si>
-  <si>
     <t>ProcuringEntity - org:Organization/ProcuringEntity</t>
   </si>
   <si>
@@ -329,15 +294,6 @@
     <t>To do once the CM is updated.</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>F20 does not have CA_ACTIVITY nor CE_ACTIVITY defined.</t>
-  </si>
-  <si>
-    <t>Should be the same code list as TED XSD? CONTRACTING_BODY/CE_ACTIVITY or CA_ACTIVITY</t>
-  </si>
-  <si>
     <t>Joint procurement / Procuring entity, which Procuring Entity type have?</t>
   </si>
   <si>
@@ -501,9 +457,6 @@
   </si>
   <si>
     <t>QSU = Qualification System</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/CENTRAL_PURCHASING available. If so, CONTRACTING_BODY is the BUYER</t>
   </si>
   <si>
     <t>CONTRACTING_BODY/URL_DOCUMENT</t>
@@ -615,12 +568,142 @@
   <si>
     <t>Not found in TED</t>
   </si>
+  <si>
+    <t>Joint Procurement Entity Role code</t>
+  </si>
+  <si>
+    <t>Procuring Entity Activity Taxonomy</t>
+  </si>
+  <si>
+    <t>If CONTRACTING_BODY/CE_ACTIVITY exists, mapping to CE.{CE_ACTIVITY value}
+CONTRACTING_BODY/CA_ACTIVITY exists, mapping to CA.{CA_ACTIVITY value}</t>
+  </si>
+  <si>
+    <t>hasJurisdictionalCompetenceLevelCode</t>
+  </si>
+  <si>
+    <t>Jurisdictional Competence Level Code</t>
+  </si>
+  <si>
+    <t>- :CA roots element: F01, F02, F03, F14, F21, F23, F24, F25
+- CE root elements: F04, F05, F06, F07, F22
+- Both, root elements: F08, F12, F13, F15
+F20?</t>
+  </si>
+  <si>
+    <t>F20 does not have CA_ACTIVITY nor CE_ACTIVITY defined.
+Procuring Entity type values has changed -&gt; CE mapping not possible</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>hasProcuringEntityActivityTaxonomy</t>
+  </si>
+  <si>
+    <t>When the activity in TED is expresed as other (CA_ACTIVITY_OTHER or CE_ACTIVITY_OTHER). We are not mapping it into ePO</t>
+  </si>
+  <si>
+    <t>Done. Except comment</t>
+  </si>
+  <si>
+    <t>Blocked. See comment</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/CA_TYPE:
+- BODY_PUBLIC is :BGPL
+- EU_INSTITUTION is
+- MINISTRY is :CGA
+- NATIONAL_AGENCY is
+- REGIONAL_AGENCY is 
+- REGIONAL_AUTHORITY is :RA</t>
+  </si>
+  <si>
+    <t>No mapping when CA_TYPE_OTHER.
+Mapping between code lists need a revision.</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_BUYER
+Does it also have a BuyerProfile?</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/OFFICIALNAME</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/ADDRESS</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/TOWN</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/COUNTRY</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/PHONE</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/E_MAIL</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/NATIONALID</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/CONTACT_POINT</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/FAX</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/2016:NUTS or NUTS</t>
+  </si>
+  <si>
+    <t>org:identifier</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
+    <t>ePO Ontology</t>
+  </si>
+  <si>
+    <t>:ProcuringEntity</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/TITLE</t>
+  </si>
+  <si>
+    <t>:ProcurementProject/Title</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/CPV_MAIN</t>
+  </si>
+  <si>
+    <t>:Purpose/Type</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/SHORT_DESCR</t>
+  </si>
+  <si>
+    <t>:ProcurementProject/Descr</t>
+  </si>
+  <si>
+    <t>ProcurementDocument: CONTRACTING_BODY/URL_DOCUMENT
+TenderDocument:
+If CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM exists, then CONTRACTING_BODY/URL_DOCUMENT
+If CONTRACTING_BODY/ADDRESS_PARTICIPATION_IDEM not exist, then CONTRACTING_BODY/URL_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>Not in TED XSD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +764,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -708,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -725,11 +835,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -773,11 +904,134 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -800,7 +1054,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:T13" totalsRowShown="0">
   <autoFilter ref="B2:T13"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Complex element" dataDxfId="0"/>
+    <tableColumn id="1" name="Complex element" dataDxfId="5"/>
     <tableColumn id="2" name="F01_2014"/>
     <tableColumn id="3" name="F02_2014"/>
     <tableColumn id="4" name="F03_2014"/>
@@ -824,8 +1078,19 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C17" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" headerRowCellStyle="Total">
+  <autoFilter ref="B2:C17"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="TED XSD" dataDxfId="2"/>
+    <tableColumn id="2" name="ePO Ontology" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1111,13 +1376,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D58"/>
+  <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1135,321 +1400,316 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>94</v>
+      <c r="B4" s="30" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>65</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="3" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="D53" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="3" t="s">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D56" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1463,13 +1723,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:H56"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1477,11 +1737,12 @@
     <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="84.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1491,492 +1752,682 @@
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+      <c r="H2" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="F49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="E55" s="4"/>
+      <c r="F55" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>114</v>
+      <c r="F56" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1989,11 +2440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -2001,427 +2452,427 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>126</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>127</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>128</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>129</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>130</v>
-      </c>
-      <c r="K2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R3" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="S5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="T5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="T6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="S7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="S8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="T8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="T9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="Q11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="R11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="T11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2444,101 +2895,101 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="Q21" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="Q22" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Q23" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Q24" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="Q26" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="Q27" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="R28" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="R29" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -2569,4 +3020,132 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="229">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -697,6 +697,45 @@
   </si>
   <si>
     <t>Not in TED XSD</t>
+  </si>
+  <si>
+    <t>foaf:mbox</t>
+  </si>
+  <si>
+    <t>skos:prefLabel</t>
+  </si>
+  <si>
+    <t>org:hasSite</t>
+  </si>
+  <si>
+    <t>vCard:Location</t>
+  </si>
+  <si>
+    <t>vCard:hasAddress</t>
+  </si>
+  <si>
+    <t>vCard:street-address</t>
+  </si>
+  <si>
+    <t>vCard:Locality</t>
+  </si>
+  <si>
+    <t>vCard:postal-code</t>
+  </si>
+  <si>
+    <t>vCard:country-name</t>
+  </si>
+  <si>
+    <t>vCard:hasTelephone</t>
+  </si>
+  <si>
+    <t>vCard:region</t>
+  </si>
+  <si>
+    <t>Cell/vCard:hasValue</t>
+  </si>
+  <si>
+    <t>Fax/vCard:hasValue</t>
   </si>
 </sst>
 </file>
@@ -993,6 +1032,16 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1018,16 +1067,6 @@
     <dxf>
       <border outline="0">
         <bottom style="double">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
           <color theme="4"/>
         </bottom>
       </border>
@@ -1079,11 +1118,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C17" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" headerRowCellStyle="Total">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C17" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" headerRowCellStyle="Total">
   <autoFilter ref="B2:C17"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="TED XSD" dataDxfId="2"/>
-    <tableColumn id="2" name="ePO Ontology" dataDxfId="1"/>
+    <tableColumn id="1" name="TED XSD" dataDxfId="1"/>
+    <tableColumn id="2" name="ePO Ontology" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1723,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H56"/>
+  <dimension ref="B2:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B38" sqref="B38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,7 +2138,12 @@
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="C31" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>193</v>
       </c>
@@ -2126,10 +2170,14 @@
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="20"/>
@@ -2138,11 +2186,13 @@
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="4"/>
-      <c r="F34" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="C34" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="20"/>
     </row>
@@ -2150,10 +2200,14 @@
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="F35" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="20"/>
@@ -2162,10 +2216,14 @@
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="F36" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="20"/>
@@ -2174,10 +2232,14 @@
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="20"/>
@@ -2189,7 +2251,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="20"/>
@@ -2198,10 +2260,14 @@
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="20"/>
@@ -2210,10 +2276,14 @@
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="20"/>
@@ -2222,47 +2292,56 @@
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="F41" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="20"/>
     </row>
-    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="22" t="s">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -2270,51 +2349,48 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="22" t="s">
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="24"/>
-    </row>
-    <row r="47" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2322,13 +2398,13 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -2336,13 +2412,13 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2350,41 +2426,41 @@
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -2392,28 +2468,27 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -2421,12 +2496,27 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>100</v>
       </c>
     </row>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -12,12 +12,15 @@
     <sheet name="TED XSD" sheetId="3" r:id="rId3"/>
     <sheet name="TED to ePO" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$B$2:$D$57</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="249">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -52,9 +55,6 @@
     <t>regorg:RegisteredOrganization/EconomicOperator</t>
   </si>
   <si>
-    <t>regorg:RegisteredOrganization/EconomicOperatorGroup</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -172,22 +172,10 @@
     <t>hasQualifyingParty</t>
   </si>
   <si>
-    <t>isMemberOf</t>
-  </si>
-  <si>
     <t>isSubcontractedBy</t>
   </si>
   <si>
     <t>subcontracts</t>
-  </si>
-  <si>
-    <t>groupsEconomicOperators</t>
-  </si>
-  <si>
-    <t>hasEOGroupCodeType</t>
-  </si>
-  <si>
-    <t>EO Group code</t>
   </si>
   <si>
     <t>CONTRACTING_BODY</t>
@@ -276,12 +264,6 @@
     <t>ProcuringEntity - org:Organization/ProcuringEntity</t>
   </si>
   <si>
-    <t>EconomicOperator - regorg:RegisteredOrganization/EconomicOperator</t>
-  </si>
-  <si>
-    <t>EconomicOperatorGroup - regorg:RegisteredOrganization/EconomicOperatorGroup</t>
-  </si>
-  <si>
     <t>RegisteredOrganization - regorg:RegisteredOrganization</t>
   </si>
   <si>
@@ -303,9 +285,6 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR[1..N] and AWARDED_TO_GROUP</t>
   </si>
   <si>
-    <t>EOPrepares</t>
-  </si>
-  <si>
     <t>ePO does not have values for this code list</t>
   </si>
   <si>
@@ -318,13 +297,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/LIKELY_SUBCONTRACTED exists, EO subcontracted might be INFO_ADD_SUBCONTRACTING as text.</t>
   </si>
   <si>
-    <t>Each AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR</t>
-  </si>
-  <si>
     <t>This info does not exist in TED XSD</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR if NO_AWARDED_TO_GROUP</t>
   </si>
   <si>
     <t>NOTICE</t>
@@ -736,6 +709,96 @@
   </si>
   <si>
     <t>Fax/vCard:hasValue</t>
+  </si>
+  <si>
+    <t>Tenderer</t>
+  </si>
+  <si>
+    <t>Winner / EconomicOperator - regorg:RegisteredOrganization/EconomicOperator</t>
+  </si>
+  <si>
+    <t>group of</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR if AWARDED_TO_GROUP</t>
+  </si>
+  <si>
+    <t>hasEOIndustryClassification</t>
+  </si>
+  <si>
+    <t>EO Industry Classification</t>
+  </si>
+  <si>
+    <t>SME if AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/SME, LARGE if AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/NO_SME</t>
+  </si>
+  <si>
+    <t>regorg:RegisteredOrganization/EconomicOperator as Winner</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>hasWinnerRank</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>regorg:RegisteredOrganization</t>
+  </si>
+  <si>
+    <t>hasLegalName</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
+  </si>
+  <si>
+    <t>adms:Identifier</t>
+  </si>
+  <si>
+    <t>rov:registration</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
+  </si>
+  <si>
+    <t>org:hasRegisteredSite</t>
+  </si>
+  <si>
+    <t>vCard</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/…</t>
+  </si>
+  <si>
+    <t>hasEORole</t>
+  </si>
+  <si>
+    <t>EO Role Code</t>
+  </si>
+  <si>
+    <t>If AWARD_CONTRACT/AWARDED_CONTRACT/NO_AWARDED_TO_GROUP, then SC (Sole Contractor)</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/@ITEM and LOT_NO (?)</t>
+  </si>
+  <si>
+    <t>regorg:RegisteredOrganization/EconomicOperator as Group</t>
+  </si>
+  <si>
+    <t>hasEOGroupCode</t>
+  </si>
+  <si>
+    <t>EO Group Code</t>
+  </si>
+  <si>
+    <t>If AWARD_CONTRACT/AWARDED_CONTRACT/AWARDED_TO_GROUP, then ?</t>
+  </si>
+  <si>
+    <t>TED does not carry information about the type of EO group</t>
+  </si>
+  <si>
+    <t>TED does not carry information about the type of EO role in the group</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,129 +1506,145 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>177</v>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>150</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>220</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>147</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>161</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>148</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -1575,183 +1654,181 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>164</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>141</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D43" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+    </row>
+    <row r="57" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D55" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>175</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:D57">
+    <sortState ref="B3:D57">
+      <sortCondition ref="B2:B57"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="B2:B56">
     <sortCondition ref="B1"/>
   </sortState>
@@ -1762,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H57"/>
+  <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,18 +1870,18 @@
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1815,10 +1892,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1826,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1837,10 +1914,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1848,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1859,10 +1936,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1870,10 +1947,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1881,10 +1958,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1892,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1903,10 +1980,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1914,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>5</v>
@@ -1925,10 +2002,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -1936,10 +2013,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -1947,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1989,13 +2066,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -2003,16 +2080,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H24" s="25"/>
     </row>
@@ -2021,19 +2098,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -2041,19 +2118,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -2061,19 +2138,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -2081,19 +2158,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -2101,19 +2178,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -2121,16 +2198,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H30" s="20"/>
     </row>
@@ -2139,13 +2216,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="20"/>
@@ -2155,13 +2232,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="20"/>
@@ -2171,13 +2248,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="20"/>
@@ -2187,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2201,13 +2278,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="20"/>
@@ -2217,13 +2294,13 @@
         <v>7</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="20"/>
@@ -2233,13 +2310,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="20"/>
@@ -2251,7 +2328,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="20"/>
@@ -2261,13 +2338,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="20"/>
@@ -2277,13 +2354,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="20"/>
@@ -2293,13 +2370,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="20"/>
@@ -2309,13 +2386,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="20"/>
@@ -2325,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -2338,10 +2415,10 @@
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -2349,10 +2426,10 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -2360,18 +2437,18 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="22" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -2381,16 +2458,16 @@
     </row>
     <row r="48" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>100</v>
+        <v>229</v>
+      </c>
+      <c r="F48" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2398,13 +2475,13 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -2412,13 +2489,13 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2426,24 +2503,27 @@
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>44</v>
+        <v>223</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -2451,16 +2531,13 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>97</v>
+        <v>239</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -2468,56 +2545,131 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>56</v>
+        <v>231</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>100</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33:C44"/>
     </sheetView>
   </sheetViews>
@@ -2542,427 +2694,427 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" t="s">
         <v>113</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>114</v>
       </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>116</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" t="s">
         <v>118</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
         <v>119</v>
       </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S2" t="s">
-        <v>129</v>
-      </c>
       <c r="T2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="T6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="T9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="T11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2985,101 +3137,101 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="Q22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q23" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Q26" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="Q27" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="R28" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="R29" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -3131,104 +3283,104 @@
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C17" s="28"/>
     </row>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -1842,7 +1842,7 @@
   <dimension ref="B2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="250">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>TED does not carry information about the type of EO role in the group</t>
+  </si>
+  <si>
+    <t>Currently, country list does not have values</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1041,6 +1044,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1841,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
@@ -1852,20 +1861,20 @@
     <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="84.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="84.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="45.5703125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="9"/>
@@ -1884,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -2034,7 +2043,7 @@
       <c r="C17" s="23"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="22"/>
       <c r="H17" s="24"/>
     </row>
@@ -2057,7 +2066,7 @@
       <c r="C22" s="23"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="22"/>
       <c r="H22" s="24"/>
     </row>
@@ -2269,7 +2278,6 @@
       <c r="D34" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="20"/>
     </row>
@@ -2406,7 +2414,7 @@
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="24"/>
       <c r="G43" s="22"/>
       <c r="H43" s="24"/>
     </row>
@@ -2452,7 +2460,7 @@
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="22"/>
       <c r="H47" s="24"/>
     </row>
@@ -2466,8 +2474,11 @@
       <c r="D48" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="34" t="s">
         <v>242</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2480,11 +2491,14 @@
       <c r="D49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
@@ -2493,6 +2507,9 @@
       </c>
       <c r="D50" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>87</v>
@@ -2508,7 +2525,7 @@
       <c r="D51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2525,6 +2542,9 @@
       <c r="F52" s="3" t="s">
         <v>225</v>
       </c>
+      <c r="G52" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -2539,12 +2559,15 @@
       <c r="F53" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="G53" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2555,20 +2578,20 @@
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
@@ -2578,11 +2601,17 @@
       <c r="D56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>230</v>
       </c>
@@ -2592,11 +2621,14 @@
       <c r="D57" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>230</v>
       </c>
@@ -2606,7 +2638,7 @@
       <c r="D58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2620,7 +2652,7 @@
       <c r="D59" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="3" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2634,7 +2666,7 @@
       <c r="D60" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2665,7 +2697,7 @@
       <c r="D62" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="3" t="s">
         <v>246</v>
       </c>
       <c r="H62" s="3" t="s">

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="250">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -1851,7 +1851,7 @@
   <dimension ref="B2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,6 +2641,9 @@
       <c r="F58" s="3" t="s">
         <v>235</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -2655,6 +2658,9 @@
       <c r="F59" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -2668,6 +2674,9 @@
       </c>
       <c r="F60" s="3" t="s">
         <v>222</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="251">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>Currently, country list does not have values</t>
+  </si>
+  <si>
+    <t>ProcurementProject (not yet)</t>
   </si>
 </sst>
 </file>
@@ -1489,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1605,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="30" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1610,7 +1613,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="30" t="s">
         <v>220</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1850,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,7 +2410,7 @@
     </row>
     <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>32</v>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="260">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -805,6 +805,33 @@
   </si>
   <si>
     <t>ProcurementProject (not yet)</t>
+  </si>
+  <si>
+    <t>Accelerated Procedure</t>
+  </si>
+  <si>
+    <t>Procurement Procedure</t>
+  </si>
+  <si>
+    <t>has accelerated procedure further justification</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>PROCEDURE/ACCELERATED_PROC</t>
+  </si>
+  <si>
+    <t>has accelerated procedure justification type</t>
+  </si>
+  <si>
+    <t>Accelerated Procedure Justification Type</t>
+  </si>
+  <si>
+    <t>If PROCEDURE/ACCELERATED_PROC exists, then ?</t>
+  </si>
+  <si>
+    <t>Accelerated procedure is text, and we do not know which type of accelerated proecudre justification type is. As the accelerated procedure is only in forms 02 (contract notice) and 03 (contract award notice), I supposed the justification type is STATE_OF_EMERGENCY for all cases.</t>
   </si>
 </sst>
 </file>
@@ -1492,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H62"/>
+  <dimension ref="B2:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2541,7 @@
       <c r="G50" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2590,7 +2617,7 @@
       <c r="F55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="20" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2610,7 +2637,7 @@
       <c r="G56" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="20" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2695,7 +2722,7 @@
       <c r="F61" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="20" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2712,8 +2739,52 @@
       <c r="F62" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="20" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="24"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
     <sheet name="Triples" sheetId="2" r:id="rId2"/>
-    <sheet name="TED XSD" sheetId="3" r:id="rId3"/>
-    <sheet name="TED to ePO" sheetId="4" r:id="rId4"/>
+    <sheet name="Selection Criterion" sheetId="5" r:id="rId3"/>
+    <sheet name="TED XSD" sheetId="3" r:id="rId4"/>
+    <sheet name="TED to ePO" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$B$2:$D$57</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="372">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -833,12 +834,356 @@
   <si>
     <t>Accelerated procedure is text, and we do not know which type of accelerated proecudre justification type is. As the accelerated procedure is only in forms 02 (contract notice) and 03 (contract award notice), I supposed the justification type is STATE_OF_EMERGENCY for all cases.</t>
   </si>
+  <si>
+    <t>Award Criterion</t>
+  </si>
+  <si>
+    <t>applies to</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/LOT_NO</t>
+  </si>
+  <si>
+    <t>This solution depends on how TED XSD works regarding the TED XSD</t>
+  </si>
+  <si>
+    <t>defined as part of</t>
+  </si>
+  <si>
+    <t>Tender Evaluation Terms</t>
+  </si>
+  <si>
+    <t>To implement it when OBJECT_CONTRACT/LOT_DIVISION</t>
+  </si>
+  <si>
+    <t>hasCriteriaTaxonomy</t>
+  </si>
+  <si>
+    <t>Criteria Taxonomy</t>
+  </si>
+  <si>
+    <t>CODED_DATA_SECTION/CODIF_DATA/AC_AWARD_CRIT</t>
+  </si>
+  <si>
+    <t>@CODE = 1: lowest price
+@CODE = 2: most economic
+@CODE = 3: mixed
+@CODE = 8: other</t>
+  </si>
+  <si>
+    <t>hasEvaluationMethod</t>
+  </si>
+  <si>
+    <t>Evaluation Method Type</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/{AC_QUALITY, AC_COST, AC_PRICE}/AC_WEIGHTING</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR/{AC_QUALITY, AC_COST, AC_PRICE}/AC_WEIGHTING exists, then type is WEIGHTED</t>
+  </si>
+  <si>
+    <t>hasWeight</t>
+  </si>
+  <si>
+    <t>hasAwardCriterionPropertyGroup</t>
+  </si>
+  <si>
+    <t>Award Criterion Property Group</t>
+  </si>
+  <si>
+    <t>has award criterion property</t>
+  </si>
+  <si>
+    <t>Award Criterion Property</t>
+  </si>
+  <si>
+    <t>Selection Criterion</t>
+  </si>
+  <si>
+    <t>Selection Criterion Property Group</t>
+  </si>
+  <si>
+    <t>Selection Criterion Property</t>
+  </si>
+  <si>
+    <t>hasSelectionCriterionPropertyGroup</t>
+  </si>
+  <si>
+    <t>has selection criterion property</t>
+  </si>
+  <si>
+    <t>TED XSD /LEFTI</t>
+  </si>
+  <si>
+    <t>SUITABILITY</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.SUITABILITY.*</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.ECONOMIC_FINANCIAL_STANDING.*</t>
+  </si>
+  <si>
+    <t>ECONOMIC_FINANCIAL_INFO
+ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <t>TECHNICAL_PROFESSIONAL_INFO
+TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.*</t>
+  </si>
+  <si>
+    <t>RULES_CRITERIA</t>
+  </si>
+  <si>
+    <t>Contract Terms</t>
+  </si>
+  <si>
+    <t>has reserved contract</t>
+  </si>
+  <si>
+    <t>Reserved Contract Type</t>
+  </si>
+  <si>
+    <t>If LEFTI / RESTRICTED_SHELTERED_WORKSHOP exists, then SW (Sheltered workshops)
+If LEFTI / RESTRICTED_SHELTERED_PROGRAM exists, then SE (sheltered employment)</t>
+  </si>
+  <si>
+    <t>LEFTI / CRITERIA_SELECTION</t>
+  </si>
+  <si>
+    <t>In TED, this is a text, how can we do this mapping?</t>
+  </si>
+  <si>
+    <t>Exclusion grounds</t>
+  </si>
+  <si>
+    <t>??? NOT IN TED??</t>
+  </si>
+  <si>
+    <t>Contract Notice</t>
+  </si>
+  <si>
+    <t>aggregates procurement statistics</t>
+  </si>
+  <si>
+    <t>Procedure Statistics</t>
+  </si>
+  <si>
+    <t>Only if AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS exists</t>
+  </si>
+  <si>
+    <t>There are one AWARDED_CONTRACT/TENDERS per lot. But these information is the same for all lots.</t>
+  </si>
+  <si>
+    <t>has EEA received tenders</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
+  </si>
+  <si>
+    <t>has EU received tenders</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
+  </si>
+  <si>
+    <t>has NON-EU received tenders</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
+  </si>
+  <si>
+    <t>has received requests for participation</t>
+  </si>
+  <si>
+    <t>tender variants awarded</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>has title</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TITLE</t>
+  </si>
+  <si>
+    <t>refers to signatory party Procuring Entity</t>
+  </si>
+  <si>
+    <t>Procuring Entity</t>
+  </si>
+  <si>
+    <t>refers to Tender</t>
+  </si>
+  <si>
+    <t>Not in TED</t>
+  </si>
+  <si>
+    <t>attaches document</t>
+  </si>
+  <si>
+    <t>has contract purpose</t>
+  </si>
+  <si>
+    <t>has procurement value</t>
+  </si>
+  <si>
+    <t>Procurement Value</t>
+  </si>
+  <si>
+    <t>refers to award result</t>
+  </si>
+  <si>
+    <t>Award Result</t>
+  </si>
+  <si>
+    <t>refers to signatory party Winner</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR</t>
+  </si>
+  <si>
+    <t>Add the relationship with Winner</t>
+  </si>
+  <si>
+    <t>has options</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>has options description</t>
+  </si>
+  <si>
+    <t>has place performance</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>has subject matter</t>
+  </si>
+  <si>
+    <t>has total magnitude quantity</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS exists: true
+If OBJECT_CONTRACT/OBJECT_DESCR/NO_OPTIONS exists: false</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS_DESCR</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NUTS or n2016:NUTS</t>
+  </si>
+  <si>
+    <t>has calculation method</t>
+  </si>
+  <si>
+    <t>has maximum amount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>has minimum amount</t>
+  </si>
+  <si>
+    <t>has overall amount</t>
+  </si>
+  <si>
+    <t>has tax included indicator</t>
+  </si>
+  <si>
+    <t>has total amount</t>
+  </si>
+  <si>
+    <t>has awarded contract quantity</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL and @CURRENCY</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/HIGH and @CURRENCY</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/LOW and @CURRENCY</t>
+  </si>
+  <si>
+    <t>(for each AWARD_CONTRACT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need to understand: how many contracts per Procurement procedure may I have?? As many as Lots? </t>
+  </si>
+  <si>
+    <t>has concession revenue amount</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/DATE_CONCLUSION_CONTRACT</t>
+  </si>
+  <si>
+    <t>has date of conclusion</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>under procurement regime</t>
+  </si>
+  <si>
+    <t>Procurement Regime Type</t>
+  </si>
+  <si>
+    <t>If F12_2014 then: DESIGN_CONTEST
+If F21_2014, F22_2014, F23_2014 then: SOCIAL_SPECIFIC_SERVICES</t>
+  </si>
+  <si>
+    <t>has winner</t>
+  </si>
+  <si>
+    <t>Evaluation Result</t>
+  </si>
+  <si>
+    <t>is abnormally low</t>
+  </si>
+  <si>
+    <t>is abnormally low justification</t>
+  </si>
+  <si>
+    <t>No result reason</t>
+  </si>
+  <si>
+    <t>Number awarded contract</t>
+  </si>
+  <si>
+    <t>award result</t>
+  </si>
+  <si>
+    <t>is evaluated by</t>
+  </si>
+  <si>
+    <t>Evaluation Board</t>
+  </si>
+  <si>
+    <t>ADD ITS RELATIONSHIP (PURPOSE CHANGE)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,8 +1271,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +1303,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -995,12 +1354,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1027,9 +1383,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1051,9 +1404,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1063,9 +1413,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1080,6 +1427,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1519,57 +1884,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:4" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1583,282 +1948,282 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1878,62 +2243,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H66"/>
+  <dimension ref="B2:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="84.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="84.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1941,10 +2306,10 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1952,10 +2317,10 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1963,10 +2328,10 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1974,10 +2339,10 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1985,10 +2350,10 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1996,10 +2361,10 @@
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2007,10 +2372,10 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2018,10 +2383,10 @@
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2029,10 +2394,10 @@
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2040,10 +2405,10 @@
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2051,10 +2416,10 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2067,15 +2432,15 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
@@ -2090,27 +2455,27 @@
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="24"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2118,37 +2483,37 @@
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2156,19 +2521,19 @@
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="19" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2176,19 +2541,19 @@
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2196,19 +2561,19 @@
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2216,19 +2581,19 @@
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="18" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2236,275 +2601,275 @@
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="20"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="20"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="20"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="20"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="20"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="20"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="20"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="3" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="34"/>
+      <c r="F38" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="20"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="20"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="20"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="20"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="20"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="24"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="24"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="30" t="s">
         <v>242</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2515,16 +2880,16 @@
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2532,16 +2897,16 @@
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="18" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2549,13 +2914,13 @@
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2563,13 +2928,13 @@
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2580,13 +2945,13 @@
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -2597,10 +2962,10 @@
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2608,16 +2973,16 @@
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2625,19 +2990,19 @@
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="18" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2645,13 +3010,13 @@
       <c r="B57" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -2662,13 +3027,13 @@
       <c r="B58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>235</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -2679,13 +3044,13 @@
       <c r="B59" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>238</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -2696,13 +3061,13 @@
       <c r="B60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -2713,16 +3078,16 @@
       <c r="B61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="18" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2730,43 +3095,43 @@
       <c r="B62" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="18" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="24"/>
-    </row>
-    <row r="65" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="21"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2774,17 +3139,843 @@
       <c r="B66" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="18" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="21"/>
+    </row>
+    <row r="97" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="21"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="35"/>
+    </row>
+    <row r="104" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="H117" s="18"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C118" s="18"/>
+      <c r="H118" s="18"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" s="21"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="G131" s="20"/>
+      <c r="H131" s="35"/>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2795,10 +3986,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C44"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,7 +4113,7 @@
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C3" t="s">
@@ -2890,7 +4136,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>107</v>
       </c>
       <c r="J4" t="s">
@@ -2910,7 +4156,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C5" t="s">
@@ -2969,7 +4215,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C6" t="s">
@@ -3028,7 +4274,7 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C7" t="s">
@@ -3063,7 +4309,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C8" t="s">
@@ -3116,7 +4362,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E9" t="s">
@@ -3145,7 +4391,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>110</v>
       </c>
       <c r="L10" t="s">
@@ -3153,7 +4399,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C11" t="s">
@@ -3212,7 +4458,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>112</v>
       </c>
       <c r="M12" t="s">
@@ -3220,7 +4466,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>115</v>
       </c>
       <c r="O13" t="s">
@@ -3228,30 +4474,30 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C18" t="s">
@@ -3262,7 +4508,7 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
+      <c r="B19" s="15"/>
       <c r="C19" t="s">
         <v>123</v>
       </c>
@@ -3271,13 +4517,13 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="15"/>
       <c r="C20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="P21" t="s">
         <v>129</v>
       </c>
@@ -3286,7 +4532,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
+      <c r="B22" s="15"/>
       <c r="P22" t="s">
         <v>101</v>
       </c>
@@ -3295,7 +4541,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>134</v>
       </c>
       <c r="F23" t="s">
@@ -3306,7 +4552,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
+      <c r="B24" s="15"/>
       <c r="F24" t="s">
         <v>126</v>
       </c>
@@ -3315,13 +4561,13 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="F25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>135</v>
       </c>
       <c r="I26" t="s">
@@ -3332,43 +4578,43 @@
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
+      <c r="B27" s="15"/>
       <c r="Q27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
+      <c r="B28" s="15"/>
       <c r="R28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
+      <c r="B29" s="15"/>
       <c r="R29" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3379,7 +4625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C17"/>
   <sheetViews>
@@ -3394,110 +4640,110 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="24" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="462">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ProcurementProject</t>
   </si>
   <si>
-    <t>ProcurementProject/ProcurementProcedure</t>
-  </si>
-  <si>
     <t>regorg:RegisteredOrganization/EconomicOperator</t>
   </si>
   <si>
@@ -149,16 +146,7 @@
     <t>jointProcurement</t>
   </si>
   <si>
-    <t>hasEconomicOperator</t>
-  </si>
-  <si>
     <t>EconomicOperator</t>
-  </si>
-  <si>
-    <t>hasEconomicOperatorGroup</t>
-  </si>
-  <si>
-    <t>EconomicOperatorGroup</t>
   </si>
   <si>
     <t>hasFinancialAccount</t>
@@ -805,9 +793,6 @@
     <t>Currently, country list does not have values</t>
   </si>
   <si>
-    <t>ProcurementProject (not yet)</t>
-  </si>
-  <si>
     <t>Accelerated Procedure</t>
   </si>
   <si>
@@ -1176,14 +1161,309 @@
     <t>Evaluation Board</t>
   </si>
   <si>
-    <t>ADD ITS RELATIONSHIP (PURPOSE CHANGE)</t>
+    <t>If AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_UNSUCCESSFUL exists: No tenders or requests to participate were received or all were rejected
+If AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED exists: Discontinuation of procedure</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/CONTRACT_NO</t>
+  </si>
+  <si>
+    <t>One per AWARD_CONTRACT/AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>Add the relationship to Award Result ?</t>
+  </si>
+  <si>
+    <t>Add relationship with Evaluation Board</t>
+  </si>
+  <si>
+    <t>Evaluation Board Type</t>
+  </si>
+  <si>
+    <t>evaluates tender</t>
+  </si>
+  <si>
+    <t>contract estimated duration</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>CPV Type</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>refers to</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/LOT_NO</t>
+  </si>
+  <si>
+    <t>Add the relationship with Lot</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR[LOT_NO = AWARD_CONTRACT/LOT_NO]/CPV_ADDITIONAL exists: CVP_ADDITIONAL/CPV_CODE
+Otherwise OBJECT_CONTRACT/CPV_MAIN/CPV_CODE</t>
+  </si>
+  <si>
+    <t>contract nature</t>
+  </si>
+  <si>
+    <t>Contract Nature Type</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/TYPE_CONTRACT/@CTYPE</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR[LOT_NO = AWARD_CONTRACT/LOT_NO]/OPTIONS exists: true
+If OBJECT_CONTRACT/OBJECT_DESCR[LOT_NO = AWARD_CONTRACT/LOT_NO]/NO_OPTIONS exists: false</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR[LOT_NO = AWARD_CONTRACT/LOT_NO]/OPTIONS_DESCR</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR[LOT_NO = AWARD_CONTRACT/LOT_NO]/NUTS or n2016:NUTS</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>foaf:name</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFORMATION/ADDRESS_REVIEW_BODY/OFFICIALNAME</t>
+  </si>
+  <si>
+    <t>Address??</t>
+  </si>
+  <si>
+    <t>foaf:Group does not allow to include physical address</t>
+  </si>
+  <si>
+    <t>AWARD CONTRACT</t>
+  </si>
+  <si>
+    <t>(for each AWARD_CONTRACT) (SURE??)</t>
+  </si>
+  <si>
+    <t>jury decision binding</t>
+  </si>
+  <si>
+    <t>max allowed lots</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>max lots awarded</t>
+  </si>
+  <si>
+    <t>performing staff qualification</t>
+  </si>
+  <si>
+    <t>successive reduction</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>defines</t>
+  </si>
+  <si>
+    <t>[only design contest: F13_2014]</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_ONE_TENDERER</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_NUMBER
+or
+If OBJECT_CONTRACT/LOT_DIVISION/LOT_ONE_ONLY: 1</t>
+  </si>
+  <si>
+    <t>If PROCEDURE/REDUCTION_RECOURSE exists: true</t>
+  </si>
+  <si>
+    <t>If LEFTI/PERFORMANCE_STAFF_QUALIFICATION exists: true</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR[LOT_NO = AWARD_CONTRACT/LOT_NO]/DATE_START and DATE_END</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS exists: true
+If OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS exists: false</t>
+  </si>
+  <si>
+    <t>Add the relationship to Criterion</t>
+  </si>
+  <si>
+    <t>DESIGN CONTEST</t>
+  </si>
+  <si>
+    <t>RESULTS/AWARDED_PRIZE/WINNER (for each winner)</t>
+  </si>
+  <si>
+    <t>Design contest does not have awards</t>
+  </si>
+  <si>
+    <t>Not in design contest</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/CVP_ADDITIONAL/CPV_CODE and 
+OBJECT_CONTRACT/CPV_MAIN/CPV_CODE</t>
+  </si>
+  <si>
+    <t>RESULTS/AWARDED_PRIZE/VAL_PRIZE</t>
+  </si>
+  <si>
+    <t>DESIGN_CONTEST</t>
+  </si>
+  <si>
+    <t>(only F12_2014 F13_2014)</t>
+  </si>
+  <si>
+    <t>If RESULTS/NO_AWARDED_PRIZE/PROCUREMENT_UNSUCCESSFUL exists: No tenders or requests to participate were received or all were rejected
+If RESULTS/NO_AWARDED_PRIZE/PROCUREMENT_DISCONTINUED exists: Discontinuation of procedure</t>
+  </si>
+  <si>
+    <t>RESULTS/AWARDED_PRIZE/DATE_DECISION_JURY</t>
+  </si>
+  <si>
+    <t>If RESULTS/AWARDED_PRIZE exists</t>
+  </si>
+  <si>
+    <t>JURY</t>
+  </si>
+  <si>
+    <t>If PROCEDURE/DECISION_BINDING_CONTRACTING exists: true
+If PROCEDURE/NO_DECISION_BINDING_CONTRACTING exists: false</t>
+  </si>
+  <si>
+    <t>foaf:member</t>
+  </si>
+  <si>
+    <t>foaf:Person</t>
+  </si>
+  <si>
+    <t>One foaf:Person per PROCEDURE/MEMBER_NAME</t>
+  </si>
+  <si>
+    <t>PROCEDURE/CRITERIA_EVALUATION</t>
+  </si>
+  <si>
+    <t>Lot (inherited from Procurement Project)</t>
+  </si>
+  <si>
+    <t>has description</t>
+  </si>
+  <si>
+    <t>has identifier</t>
+  </si>
+  <si>
+    <t>has purpose</t>
+  </si>
+  <si>
+    <t>has estimated procurement value</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>has funds</t>
+  </si>
+  <si>
+    <t>Funds Identification</t>
+  </si>
+  <si>
+    <t>belongs to</t>
+  </si>
+  <si>
+    <t>groups of lots</t>
+  </si>
+  <si>
+    <t>groups as a</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/TITLE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/SHORT_DESCR</t>
+  </si>
+  <si>
+    <t>Is it the same as OBJECT_CONTRACT/LOT_DIVISION/LOT_COMBINING_CONTRACT_RIGHT???</t>
+  </si>
+  <si>
+    <t>Each OBJECT_CONTRACT/OBJECT_DESCR</t>
+  </si>
+  <si>
+    <t>Link to Purpose</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE and
+Otherwise OBJECT_CONTRACT/CPV_MAIN/CPV_CODE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE ?</t>
+  </si>
+  <si>
+    <t>Maximum amount</t>
+  </si>
+  <si>
+    <t>Minimum amount</t>
+  </si>
+  <si>
+    <t>Overall amount</t>
+  </si>
+  <si>
+    <t>Tax included indicator</t>
+  </si>
+  <si>
+    <t>Total amount</t>
+  </si>
+  <si>
+    <t>Calculation method</t>
+  </si>
+  <si>
+    <t>additional information</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>EU funds</t>
+  </si>
+  <si>
+    <t>Funds identifier</t>
+  </si>
+  <si>
+    <t>Identifier provider</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/DATE_START and DATE_END or DURATION</t>
+  </si>
+  <si>
+    <t>has maximum number of renewals</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,8 +1559,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,12 +1591,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1354,7 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1443,7 +1725,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1910,24 +2193,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1935,94 +2218,94 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2032,28 +2315,28 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -2063,28 +2346,28 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -2094,31 +2377,31 @@
     </row>
     <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2126,105 +2409,105 @@
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2243,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H137"/>
+  <dimension ref="B2:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,18 +2557,18 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="29"/>
@@ -2296,10 +2579,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2307,10 +2590,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2318,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -2329,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2340,10 +2623,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -2351,10 +2634,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2362,10 +2645,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -2373,10 +2656,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -2384,10 +2667,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -2395,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>5</v>
@@ -2406,10 +2689,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2417,10 +2700,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2428,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2470,13 +2753,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -2484,16 +2767,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H24" s="22"/>
     </row>
@@ -2502,19 +2785,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -2522,19 +2805,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -2542,19 +2825,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -2562,19 +2845,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -2582,19 +2865,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G29" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -2602,16 +2885,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30" s="18"/>
     </row>
@@ -2620,13 +2903,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="18"/>
@@ -2636,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="18"/>
@@ -2652,13 +2935,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="18"/>
@@ -2668,10 +2951,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="18"/>
@@ -2681,13 +2964,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="18"/>
@@ -2697,13 +2980,13 @@
         <v>7</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="18"/>
@@ -2713,13 +2996,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="18"/>
@@ -2731,7 +3014,7 @@
       <c r="C38" s="18"/>
       <c r="D38" s="34"/>
       <c r="F38" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="18"/>
@@ -2741,13 +3024,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="34" t="s">
-        <v>214</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="18"/>
@@ -2757,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="18"/>
@@ -2773,13 +3056,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="18"/>
@@ -2789,1195 +3072,2497 @@
         <v>7</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>4</v>
+        <v>219</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>32</v>
+        <v>221</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>87</v>
+        <v>235</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>224</v>
+        <v>9</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>175</v>
+        <v>86</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>240</v>
+        <v>22</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>43</v>
+        <v>226</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>51</v>
+        <v>226</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>31</v>
+        <v>232</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>195</v>
+        <v>217</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H59" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" s="2" t="s">
+    </row>
+    <row r="61" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="C61" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>245</v>
+      <c r="D62" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H62" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="F63" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="H63" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="2" t="s">
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="C65" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="H66" s="18" t="s">
+    </row>
+    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="20" t="s">
+      <c r="D67" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21"/>
-    </row>
-    <row r="69" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>75</v>
+        <v>266</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>274</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="18" t="s">
+    </row>
+    <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="21"/>
-    </row>
-    <row r="79" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>32</v>
+        <v>266</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C88" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>307</v>
+        <v>225</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>308</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F91" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H91" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C92" s="18" t="s">
+    <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="21"/>
+    </row>
+    <row r="94" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="21"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="G101" s="20"/>
+      <c r="H101" s="35"/>
+    </row>
+    <row r="102" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="D102" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C93" s="18" t="s">
+    <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H93" s="18" t="s">
+      <c r="D103" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="21"/>
-    </row>
-    <row r="97" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="20" t="s">
+      <c r="D104" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="35"/>
-    </row>
-    <row r="104" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="18" t="s">
+      <c r="H105" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>320</v>
+        <v>52</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>320</v>
+        <v>52</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C108" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C109" s="18" t="s">
+      <c r="D109" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="H109" s="18" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C110" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D111" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>227</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H111" s="18" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>340</v>
+        <v>249</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H116" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="C117" s="18"/>
+        <v>374</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="H117" s="18"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C118" s="18"/>
+      <c r="B118" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F118" s="36" t="s">
+        <v>383</v>
+      </c>
       <c r="H118" s="18"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="20" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="20"/>
       <c r="F131" s="21" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="35"/>
     </row>
     <row r="132" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C134" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C135" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>229</v>
+      <c r="H135" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C136" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="D136" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>326</v>
+      <c r="H136" s="18" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" s="32"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="35"/>
+    </row>
+    <row r="144" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B153" s="37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154" s="21"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="G154" s="20"/>
+      <c r="H154" s="35"/>
+    </row>
+    <row r="155" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H169" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H170" s="18"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F171" s="36"/>
+      <c r="H171" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H178" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H179" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H180" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H182" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C184" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D184" s="21"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="G184" s="20"/>
+      <c r="H184" s="35"/>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C187" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H188" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C189" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="D189" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H189" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="D137" s="2" t="s">
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H190" s="2" t="s">
         <v>370</v>
       </c>
     </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="H194" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H195" s="18"/>
+    </row>
+    <row r="197" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C197" s="32"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="35"/>
+    </row>
+    <row r="198" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D204" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C206" s="32"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="G206" s="20"/>
+      <c r="H206" s="35"/>
+    </row>
+    <row r="207" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C209" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D210" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D211" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D212" s="34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D213" s="34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D215" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C216" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D216" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C218" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C219" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F224" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H225" s="18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C238" s="32"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="20"/>
+      <c r="F238" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="G238" s="20"/>
+      <c r="H238" s="35"/>
+    </row>
+    <row r="239" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3999,39 +5584,39 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4055,427 +5640,427 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" t="s">
         <v>109</v>
       </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>114</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" t="s">
         <v>116</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -4498,101 +6083,101 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="P22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="Q27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="R28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="R29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -4644,104 +6229,104 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" s="23"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" s="23"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C17" s="25"/>
     </row>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="492">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -1457,6 +1457,128 @@
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
+  </si>
+  <si>
+    <t>F02_2014 and F03_2014</t>
+  </si>
+  <si>
+    <t>See ACCELERATED PROCEDURE</t>
+  </si>
+  <si>
+    <t>has award data scheduled</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DATE_AWARD_SCHEDULED</t>
+  </si>
+  <si>
+    <t>has GPA usage</t>
+  </si>
+  <si>
+    <t>If PROCEDURE/CONTRACT_COVERED_GPA exists: true
+If PROCEDURE/NO_CONTRACT_COVERED_GPA exists: false</t>
+  </si>
+  <si>
+    <t>has procedure choice justification</t>
+  </si>
+  <si>
+    <t>has procedure main features</t>
+  </si>
+  <si>
+    <t>recurrency indicator</t>
+  </si>
+  <si>
+    <t>recurrency description</t>
+  </si>
+  <si>
+    <t>Social and other specific services (F21, F22, F23, F25)
+PROCEDURE/MAIN_FEATURES_AWARD (one per language)</t>
+  </si>
+  <si>
+    <t>If COMPLEMENTARY_INFO/RECURRENT_PROCUREMENT exists: true
+If COMPLEMENTARY_INFO/NO_RECURRENT_PROCUREMENT exists: false</t>
+  </si>
+  <si>
+    <t>"Estimated timing for further notices to be published: " + COMPLEMENTARY_INO/ESTIMATED_TIMING</t>
+  </si>
+  <si>
+    <t>Procurement Procedure Type</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_OPEN = :OPEN
+PROCEDURE/PT_RESTRICTED = :RESTRICTED
+PROCEDURE/PT_COMPETITIVE_NEGOTIATION = :NEGOTIATED
+PROCEDURE/PT_COMPETITIVE_DIALOGUE = :COMP_DIALOGUE
+PROCEDURE/PT_INNOVATION_PARTNERSHIP = :INNOVATION
+PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL = :AWARD_WO_PUB
+PROCEDURE/PT_NEGOTIATED_WITH_PRIOR_CALL = ?
+PROCEDURE/PT_AWARD_CONTRACT_WITH_PRIOR_PUBLICATION = ?
+PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_PUBLICATION = :AWARD_WO_PUB</t>
+  </si>
+  <si>
+    <t>has legal basis</t>
+  </si>
+  <si>
+    <t>Legislation</t>
+  </si>
+  <si>
+    <t>divided into lots</t>
+  </si>
+  <si>
+    <t>has procurement document</t>
+  </si>
+  <si>
+    <t>Procurement Document</t>
+  </si>
+  <si>
+    <t>has procuring entity</t>
+  </si>
+  <si>
+    <t>has environmental party</t>
+  </si>
+  <si>
+    <t>has tax party</t>
+  </si>
+  <si>
+    <t>has review party</t>
+  </si>
+  <si>
+    <t>has short list terms</t>
+  </si>
+  <si>
+    <t>Tender Short List</t>
+  </si>
+  <si>
+    <t>Do we add D_ACCORDANCE_ARTICLE and D_OUTSIDE¨_SCOPE?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL/D_ACCORDANCE_ARTICLE exists: 'Justification for the choice of the negotiated procedure without prior publication (Art.32, Dir. 2014/24/EU)'
+If PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL/D_OUTSIDE_SCOPE exists: 'Other justification for the award of the award of the contract without prior publication'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL/D_JUSTIFICATION</t>
+    </r>
+  </si>
+  <si>
+    <t>has procurement procedure type</t>
   </si>
 </sst>
 </file>
@@ -2526,10 +2648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H239"/>
+  <dimension ref="B2:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3475,7 @@
         <v>246</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>31</v>
+        <v>462</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="20"/>
@@ -3365,7 +3487,7 @@
       <c r="B62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="22" t="s">
         <v>248</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -3373,6 +3495,9 @@
       </c>
       <c r="F62" s="2" t="s">
         <v>250</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -5562,7 +5687,247 @@
       <c r="G238" s="20"/>
       <c r="H238" s="35"/>
     </row>
-    <row r="239" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C239" s="19"/>
+      <c r="F239" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C241" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C242" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H243" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C247" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C249" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D249" s="34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="D250" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C251" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="D251" s="34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D252" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C253" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D253" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C254" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D254" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C255" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="D255" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C256" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D256" s="34" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="498">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -1368,9 +1368,6 @@
     <t>has estimated procurement value</t>
   </si>
   <si>
-    <t>uses</t>
-  </si>
-  <si>
     <t>Technique</t>
   </si>
   <si>
@@ -1499,9 +1496,6 @@
   <si>
     <t>If COMPLEMENTARY_INFO/RECURRENT_PROCUREMENT exists: true
 If COMPLEMENTARY_INFO/NO_RECURRENT_PROCUREMENT exists: false</t>
-  </si>
-  <si>
-    <t>"Estimated timing for further notices to be published: " + COMPLEMENTARY_INO/ESTIMATED_TIMING</t>
   </si>
   <si>
     <t>Procurement Procedure Type</t>
@@ -1522,9 +1516,6 @@
   </si>
   <si>
     <t>Legislation</t>
-  </si>
-  <si>
-    <t>divided into lots</t>
   </si>
   <si>
     <t>has procurement document</t>
@@ -1579,6 +1570,35 @@
   </si>
   <si>
     <t>has procurement procedure type</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_NEGOTIATED_WITH_PRIOR_CALL = ?
+PROCEDURE/PT_AWARD_CONTRACT_WITH_PRIOR_PUBLICATION = ?
+How to match them??</t>
+  </si>
+  <si>
+    <t>Done, except comments</t>
+  </si>
+  <si>
+    <t>"Estimated timing for further notices to be published: " + COMPLEMENTARY_INFO/ESTIMATED_TIMING</t>
+  </si>
+  <si>
+    <t>CODED_DATA_SECTION/CODIF_DATA/DIRECTIVE/@VALUE</t>
+  </si>
+  <si>
+    <t>To do it after ELI</t>
+  </si>
+  <si>
+    <t>refered by</t>
+  </si>
+  <si>
+    <t>referred to in</t>
+  </si>
+  <si>
+    <t>include lots</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR</t>
   </si>
 </sst>
 </file>
@@ -2648,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H256"/>
+  <dimension ref="B2:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,7 +3495,7 @@
         <v>246</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="20"/>
@@ -3892,13 +3912,13 @@
         <v>288</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5297,7 +5317,7 @@
       <c r="D206" s="21"/>
       <c r="E206" s="20"/>
       <c r="F206" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="35"/>
@@ -5313,7 +5333,7 @@
         <v>191</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
@@ -5341,7 +5361,7 @@
         <v>191</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
@@ -5355,7 +5375,7 @@
         <v>137</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5374,35 +5394,38 @@
         <v>427</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D212" s="34" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>427</v>
+        <v>71</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D213" s="34" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D213" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D214" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H214" s="18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,9 +5434,6 @@
       </c>
       <c r="D215" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="H215" s="18" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
@@ -5421,74 +5441,68 @@
         <v>71</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="D216" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="217" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C217" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="D217" s="34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>334</v>
+        <v>495</v>
+      </c>
+      <c r="D218" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C219" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>335</v>
+        <v>495</v>
+      </c>
+      <c r="D219" s="34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="D220" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
@@ -5496,27 +5510,27 @@
         <v>137</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
@@ -5524,60 +5538,63 @@
         <v>137</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F224" s="36" t="s">
-        <v>383</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>451</v>
+        <v>137</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>331</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H225" s="18" t="s">
-        <v>445</v>
+        <v>332</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>446</v>
+        <v>137</v>
+      </c>
+      <c r="C226" s="18" t="s">
+        <v>373</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>447</v>
+        <v>137</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>338</v>
+        <v>375</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>448</v>
+        <v>137</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>381</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>338</v>
+        <v>382</v>
+      </c>
+      <c r="F228" s="36" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
@@ -5585,13 +5602,13 @@
         <v>319</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>344</v>
+        <v>191</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
@@ -5599,228 +5616,216 @@
         <v>319</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F230" s="2" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>433</v>
+        <v>319</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>433</v>
+        <v>319</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="F233" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>5</v>
+        <v>338</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>457</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C238" s="32"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="20"/>
-      <c r="F238" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="G238" s="20"/>
-      <c r="H238" s="35"/>
-    </row>
-    <row r="239" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C239" s="19"/>
-      <c r="F239" s="2" t="s">
-        <v>463</v>
+        <v>434</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C240" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B241" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C241" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F241" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C242" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="C242" s="32"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="G242" s="20"/>
+      <c r="H242" s="35"/>
+    </row>
+    <row r="243" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C243" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C243" s="19"/>
       <c r="F243" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H243" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>16</v>
+        <v>464</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C245" s="18" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>474</v>
+        <v>16</v>
+      </c>
+      <c r="F245" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="246" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C246" s="18" t="s">
-        <v>472</v>
+      <c r="C246" s="22" t="s">
+        <v>466</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>191</v>
+        <v>326</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="247" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C247" s="18" t="s">
-        <v>491</v>
+      <c r="C247" s="22" t="s">
+        <v>468</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>476</v>
+        <v>16</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>477</v>
+        <v>487</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H247" s="18" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5828,60 +5833,87 @@
         <v>247</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>354</v>
+        <v>469</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>355</v>
+        <v>16</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>356</v>
+        <v>472</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C249" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="D249" s="34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C249" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C250" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="D250" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C250" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C251" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="D251" s="34" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C252" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="D252" s="34" t="s">
-        <v>313</v>
+      <c r="C252" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
@@ -5889,21 +5921,33 @@
         <v>247</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D253" s="34" t="s">
-        <v>6</v>
+        <v>477</v>
+      </c>
+      <c r="F253" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="H253" s="18" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C254" s="18" t="s">
-        <v>485</v>
+      <c r="C254" s="22" t="s">
+        <v>496</v>
       </c>
       <c r="D254" s="34" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
@@ -5911,10 +5955,10 @@
         <v>247</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
@@ -5922,10 +5966,59 @@
         <v>247</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D256" s="34" t="s">
-        <v>488</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C257" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="D257" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C258" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="D258" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="D259" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C260" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D260" s="34" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="588">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -1272,9 +1272,6 @@
     <t>defines</t>
   </si>
   <si>
-    <t>[only design contest: F13_2014]</t>
-  </si>
-  <si>
     <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_ONE_TENDERER</t>
   </si>
   <si>
@@ -1448,9 +1445,6 @@
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/DATE_START and DATE_END or DURATION</t>
-  </si>
-  <si>
-    <t>has maximum number of renewals</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
@@ -1531,9 +1525,6 @@
   </si>
   <si>
     <t>has tax party</t>
-  </si>
-  <si>
-    <t>has review party</t>
   </si>
   <si>
     <t>has short list terms</t>
@@ -1598,7 +1589,296 @@
     <t>include lots</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR</t>
+    <t>has e-Auction</t>
+  </si>
+  <si>
+    <t>has dyanmic purchase system</t>
+  </si>
+  <si>
+    <t>e-Auction</t>
+  </si>
+  <si>
+    <t>Dynamic Purchase System</t>
+  </si>
+  <si>
+    <t>Pending discussion with OP</t>
+  </si>
+  <si>
+    <t>1 ProcurementProcedure has 1 ProcuringEntity</t>
+  </si>
+  <si>
+    <t>1 ProcurementProcedure has N Lots (OBJECT_CONTRACT/OBJECT_DESCR)</t>
+  </si>
+  <si>
+    <t>In TED: Each Lots has its own short list terms.
+In ePO: one short list term per procedure</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MIN_LIMIT_CANDIDATE and NB_MAX_LIMIT_CANDIDATE and NB_ENVISABED_CANDIDATE</t>
+  </si>
+  <si>
+    <t>Procedure Terms</t>
+  </si>
+  <si>
+    <t>has financial terms</t>
+  </si>
+  <si>
+    <t>Financial Terms</t>
+  </si>
+  <si>
+    <t>defines subcontract terms</t>
+  </si>
+  <si>
+    <t>Subcontract Terms</t>
+  </si>
+  <si>
+    <t>has submission terms</t>
+  </si>
+  <si>
+    <t>Tender Submission Terms</t>
+  </si>
+  <si>
+    <t>has notification terms</t>
+  </si>
+  <si>
+    <t>Notification Terms</t>
+  </si>
+  <si>
+    <t>has contract terms</t>
+  </si>
+  <si>
+    <t>has post-award implementation terms</t>
+  </si>
+  <si>
+    <t>Post-Award Implementation Terms</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/REVIEW_PROCEDURE</t>
+  </si>
+  <si>
+    <t>Security clearance not found</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_FINANCIAL_INFO</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_FINANCIAL_INFO LEFTI/DEPOSIT_GUARANTEE_REQUIRED</t>
+  </si>
+  <si>
+    <t>LEFTI/DEPOSIT_GUARANTEE_REQUIRED is a text and in ePO is an indicator</t>
+  </si>
+  <si>
+    <t>Once there is an award contract, the subconctract terms are defined. Not before.</t>
+  </si>
+  <si>
+    <t>PROCEDURE/LANGUAGES/LANGUAGE</t>
+  </si>
+  <si>
+    <t>PROCEDURE/LANGUAGES/LANGUAGE, PROCEDURE/{DATE_TENDER_VALID or DURATION_TENDER_VALID}</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/DATE_PUBLICATION_NOTICE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/DATE_PUBLICATION_NOTICE, PROCEDURE/DATE_DISPATCH_INVITATIONS</t>
+  </si>
+  <si>
+    <t>LEFTI/{RESTRICTED_SHELTERED_WORKSHOP, RESTRICTED_SHELTERED_PROGRAM}, OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL, CODED_DATA_SECTION/CODIF_DATA/{n2016:PERFORMANCE_NUTS, PERFORMANCE_NUTS}</t>
+  </si>
+  <si>
+    <t>has tender evaluation terms</t>
+  </si>
+  <si>
+    <t>See Tender Evaluation Terms</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/EORDERING, COMPLEMENTARY_INFO/EPAYMENT</t>
+  </si>
+  <si>
+    <t>has procedure terms</t>
+  </si>
+  <si>
+    <t>reviewDeadlineDescription</t>
+  </si>
+  <si>
+    <t>xsd:String</t>
+  </si>
+  <si>
+    <t>hasSecurityClearanceDeadline</t>
+  </si>
+  <si>
+    <t>ccts:Date</t>
+  </si>
+  <si>
+    <t>hasReviewParty</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>hasMediationBody</t>
+  </si>
+  <si>
+    <t>Security clearance deadline not found</t>
+  </si>
+  <si>
+    <t>Pending dicussion with OP</t>
+  </si>
+  <si>
+    <t>hasFinancialConditions</t>
+  </si>
+  <si>
+    <t>hasGuaranteeRequired</t>
+  </si>
+  <si>
+    <t>hasTaxParty</t>
+  </si>
+  <si>
+    <t>LEFTI/DEPOSIT_GUARANTEE_REQUIRED</t>
+  </si>
+  <si>
+    <t>In TED is a Text and ePO an indicator</t>
+  </si>
+  <si>
+    <t>hasSubmissionLanguage</t>
+  </si>
+  <si>
+    <t>Language Type</t>
+  </si>
+  <si>
+    <t>hasValidityDeadline</t>
+  </si>
+  <si>
+    <t>PROCEDURE/{DATE_TENDER_VALID or DURATION_TENDER_VALID}</t>
+  </si>
+  <si>
+    <t>hasAdditionalInformationDeadline</t>
+  </si>
+  <si>
+    <t>hasContractNoticePublicationDate</t>
+  </si>
+  <si>
+    <t>hasInvitationDispatchDate</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DATE_DISPATCH_INVITATIONS</t>
+  </si>
+  <si>
+    <t>hasMaximumNumberRenewals</t>
+  </si>
+  <si>
+    <t>hasPerformanceConditions</t>
+  </si>
+  <si>
+    <t>xsd:Decimal</t>
+  </si>
+  <si>
+    <t>hasFollowUpContracts</t>
+  </si>
+  <si>
+    <t>xsd:Boolean</t>
+  </si>
+  <si>
+    <t>hasDeliveryCountry</t>
+  </si>
+  <si>
+    <t>Country Type</t>
+  </si>
+  <si>
+    <t>hasJuryDecisionBinding</t>
+  </si>
+  <si>
+    <t>hasMaximumAllowedLots</t>
+  </si>
+  <si>
+    <t>hasMaximumLotsAwarded</t>
+  </si>
+  <si>
+    <t>hasPerformingStaffQualification</t>
+  </si>
+  <si>
+    <t>hasSuccessiveReduction</t>
+  </si>
+  <si>
+    <t>hasVariants</t>
+  </si>
+  <si>
+    <t>[only design contest: F12_2014]
+If PROCEDURE/DECISION_BINDING_CONTRACTING exists: true
+If PROCEDURE/NO_DECISION_BINDING_CONTRACTING exists: false</t>
+  </si>
+  <si>
+    <t>hasEOrdering</t>
+  </si>
+  <si>
+    <t>hasEPayment</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/EPAYMENT</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/EORDERING</t>
+  </si>
+  <si>
+    <t>definesCriterion</t>
+  </si>
+  <si>
+    <t>About DURATION_TENDER_VALID. In this case we should change to amount??</t>
+  </si>
+  <si>
+    <t>Partially done. See comment</t>
+  </si>
+  <si>
+    <t>CODED_DATA_SECTION/NOTICE_DATA/{n2016:PERFORMANCE_NUTS, PERFORMANCE_NUTS}</t>
+  </si>
+  <si>
+    <t>Renewal is an empty value. Renewal_descr is a text. And then NO_RENEWAL, which means 0</t>
+  </si>
+  <si>
+    <t>Procurement Procedure (inherits Procurement Project)</t>
+  </si>
+  <si>
+    <t>hasProcurementProjectIdentifier</t>
+  </si>
+  <si>
+    <t>ccts:Identifier</t>
+  </si>
+  <si>
+    <t>@DOC_ID</t>
+  </si>
+  <si>
+    <t>hasProcurementProjectTitle</t>
+  </si>
+  <si>
+    <t>hasProcurementProjectDescription</t>
+  </si>
+  <si>
+    <t>hasPurpose</t>
+  </si>
+  <si>
+    <t>hasEstimatedProcurementValue</t>
+  </si>
+  <si>
+    <t>ProcurementValue</t>
+  </si>
+  <si>
+    <t>hasFundsIdentification</t>
+  </si>
+  <si>
+    <t>- Options: this is per lot
+- Subject matter: -
+- Total magniture: -
+- Contract estimated duration: this is per lot
+- CPV Type: OBJECT_CONTRACT/CPV_MAIN/CPV_CODE and CPV_SUPPLEMENTARY_CODE
+- Contract nature: OBJECT_CONTRACT/TYPE_CONTRACT/CTYPE
+- Place performance: this is per lot</t>
+  </si>
+  <si>
+    <t>- hasTotalAmount: OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL
+The other values does no exist in TED</t>
+  </si>
+  <si>
+    <t>EU funds depends is per each Lot</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +2058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1869,6 +2149,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2668,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H261"/>
+  <dimension ref="B2:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView tabSelected="1" topLeftCell="B253" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,7 +3778,7 @@
         <v>246</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="20"/>
@@ -3882,7 +4165,7 @@
     </row>
     <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="20" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C93" s="32" t="s">
         <v>31</v>
@@ -3891,126 +4174,135 @@
       <c r="E93" s="20"/>
       <c r="F93" s="21"/>
       <c r="G93" s="20"/>
-      <c r="H93" s="21"/>
-    </row>
-    <row r="94" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>460</v>
+      <c r="H93" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="37" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="20" t="s">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="C97" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D97" s="21"/>
       <c r="E97" s="20"/>
-      <c r="F97" s="21"/>
+      <c r="F97" s="21" t="s">
+        <v>348</v>
+      </c>
       <c r="G97" s="20"/>
-      <c r="H97" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="37" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="20" t="s">
+      <c r="H97" s="35"/>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="21"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="G101" s="20"/>
-      <c r="H101" s="35"/>
-    </row>
-    <row r="102" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>48</v>
+        <v>318</v>
+      </c>
+      <c r="D103" s="34" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>315</v>
+      <c r="C105" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
@@ -4018,80 +4310,86 @@
         <v>52</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="D106" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C107" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="D107" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>223</v>
+        <v>328</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H109" s="18" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>378</v>
+        <v>330</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>384</v>
+        <v>332</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4099,114 +4397,114 @@
         <v>137</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>386</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H113" s="18"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H114" s="18" t="s">
-        <v>309</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="F114" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="H114" s="18"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>331</v>
+        <v>319</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H115" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H116" s="18"/>
-    </row>
-    <row r="117" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H117" s="18"/>
+        <v>347</v>
+      </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>381</v>
+        <v>319</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F118" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="H118" s="18"/>
+        <v>338</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>336</v>
+      <c r="C119" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>315</v>
+        <v>326</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -4214,482 +4512,509 @@
         <v>319</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="H121" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>340</v>
+        <v>321</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H122" s="2" t="s">
-        <v>315</v>
+      <c r="H122" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="G127" s="20"/>
+      <c r="H127" s="35"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H125" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H126" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H129" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D131" s="21"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="G131" s="20"/>
-      <c r="H131" s="35"/>
-    </row>
-    <row r="132" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H131" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>249</v>
+        <v>371</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>362</v>
+        <v>365</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H135" s="18" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D139" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="37" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140" s="21"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G140" s="20"/>
+      <c r="H140" s="35"/>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="H141" s="18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C143" s="32"/>
-      <c r="D143" s="21"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="35"/>
-    </row>
-    <row r="144" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>404</v>
+        <v>317</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>403</v>
+        <v>318</v>
+      </c>
+      <c r="D146" s="34" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="D147" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+      <c r="D148" s="34" t="s">
+        <v>223</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>408</v>
+        <v>52</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>53</v>
+        <v>325</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="37" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C154" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D154" s="21"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="G154" s="20"/>
-      <c r="H154" s="35"/>
-    </row>
-    <row r="155" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H153" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H154" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>194</v>
+        <v>373</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>313</v>
+        <v>376</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="H156" s="18"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>315</v>
+        <v>137</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F157" s="36"/>
+      <c r="H157" s="22" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>56</v>
+        <v>319</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>315</v>
@@ -4697,188 +5022,179 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D159" s="34" t="s">
-        <v>137</v>
+        <v>337</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="D160" s="34" t="s">
-        <v>319</v>
+        <v>339</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="D161" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>223</v>
+        <v>341</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H162" s="18" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D163" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="H164" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>413</v>
+        <v>338</v>
+      </c>
+      <c r="H165" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>413</v>
+        <v>353</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H166" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H167" s="18" t="s">
-        <v>309</v>
+        <v>355</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>332</v>
+        <v>223</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H169" s="22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H170" s="18"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D170" s="21"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="G170" s="20"/>
+      <c r="H170" s="35"/>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F171" s="36"/>
-      <c r="H171" s="22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>336</v>
+        <v>358</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>249</v>
@@ -4887,894 +5203,943 @@
         <v>315</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>338</v>
+        <v>249</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>338</v>
+        <v>225</v>
+      </c>
+      <c r="H174" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>340</v>
+        <v>358</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H175" s="18" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>344</v>
+        <v>365</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>343</v>
+        <v>365</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H178" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H179" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H182" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D184" s="21"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="G184" s="20"/>
-      <c r="H184" s="35"/>
-    </row>
-    <row r="185" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="H181" s="18"/>
+    </row>
+    <row r="183" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C183" s="32"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="35"/>
+    </row>
+    <row r="184" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H185" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="H186" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H188" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H189" s="18" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>365</v>
+        <v>401</v>
+      </c>
+      <c r="D190" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C192" s="32"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="G192" s="20"/>
+      <c r="H192" s="35"/>
+    </row>
+    <row r="193" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="H194" s="18" t="s">
-        <v>391</v>
+        <v>428</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>423</v>
+        <v>310</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>424</v>
+        <v>191</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="H195" s="18"/>
-    </row>
-    <row r="197" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C197" s="32"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="20"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="35"/>
-    </row>
-    <row r="198" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D196" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D197" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>395</v>
+        <v>71</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>413</v>
+        <v>435</v>
+      </c>
+      <c r="D200" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H200" s="18" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>406</v>
+        <v>436</v>
+      </c>
+      <c r="D201" s="34" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="D202" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D202" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D203" s="34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D204" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D205" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D206" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B203" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="D204" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C206" s="32"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="G206" s="20"/>
-      <c r="H206" s="35"/>
-    </row>
-    <row r="207" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F207" s="2" t="s">
-        <v>439</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>427</v>
+        <v>137</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>429</v>
+        <v>327</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>427</v>
+        <v>137</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D210" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="H210" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C210" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D211" s="34" t="s">
-        <v>319</v>
+        <v>137</v>
+      </c>
+      <c r="C211" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D212" s="34" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>435</v>
+        <v>137</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="D214" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H214" s="18" t="s">
-        <v>440</v>
+        <v>381</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F214" s="36" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C215" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="D215" s="34" t="s">
-        <v>71</v>
+        <v>319</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H215" s="18" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D216" s="34" t="s">
-        <v>52</v>
+        <v>319</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C217" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D217" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C218" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D218" s="34" t="s">
-        <v>277</v>
+        <v>319</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D219" s="34" t="s">
-        <v>255</v>
+        <v>319</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C220" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D220" s="34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C221" s="18" t="s">
-        <v>325</v>
+        <v>431</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>333</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>327</v>
+        <v>431</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>328</v>
+        <v>433</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C224" s="18" t="s">
-        <v>330</v>
+        <v>433</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>331</v>
+        <v>433</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>373</v>
+        <v>433</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C227" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C228" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F228" s="36" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C228" s="32"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="G228" s="20"/>
+      <c r="H228" s="35"/>
+    </row>
+    <row r="229" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H229" s="18" t="s">
-        <v>444</v>
+        <v>247</v>
+      </c>
+      <c r="C229" s="19"/>
+      <c r="F229" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>445</v>
+        <v>247</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>461</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>446</v>
+        <v>247</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>464</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>447</v>
+        <v>247</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>466</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H232" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>448</v>
+        <v>247</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>467</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C234" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F233" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B234" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="F234" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>451</v>
+        <v>247</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>469</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F235" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>452</v>
+        <v>247</v>
+      </c>
+      <c r="C236" s="18" t="s">
+        <v>485</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H236" s="18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>453</v>
+        <v>247</v>
+      </c>
+      <c r="C237" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>326</v>
+        <v>355</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>5</v>
+        <v>247</v>
+      </c>
+      <c r="C238" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="D238" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="F238" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="H238" s="18" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>456</v>
+        <v>247</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C242" s="32"/>
-      <c r="D242" s="21"/>
-      <c r="E242" s="20"/>
-      <c r="F242" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="G242" s="20"/>
-      <c r="H242" s="35"/>
-    </row>
-    <row r="243" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C240" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D240" s="34" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C241" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D241" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C242" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D242" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H242" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C243" s="19"/>
-      <c r="F243" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C243" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="D243" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H243" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C244" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>464</v>
+      <c r="C244" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="D244" s="34" t="s">
+        <v>482</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>171</v>
+        <v>502</v>
+      </c>
+      <c r="H244" s="18" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
@@ -5782,50 +6147,47 @@
         <v>247</v>
       </c>
       <c r="C245" s="18" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F245" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="H245" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C246" s="22" t="s">
-        <v>466</v>
+      <c r="C246" s="18" t="s">
+        <v>495</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="247" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="H246" s="18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H247" s="18" t="s">
-        <v>486</v>
+      <c r="H247" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5833,33 +6195,33 @@
         <v>247</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>171</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="249" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C249" s="22" t="s">
-        <v>470</v>
+      <c r="C249" s="18" t="s">
+        <v>506</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>171</v>
+        <v>507</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="250" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5867,50 +6229,47 @@
         <v>247</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>191</v>
+        <v>509</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C251" s="18" t="s">
-        <v>488</v>
+      <c r="C251" s="22" t="s">
+        <v>510</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H251" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>354</v>
+        <v>512</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>356</v>
+        <v>525</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>171</v>
@@ -5920,105 +6279,605 @@
       <c r="B253" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C253" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="D253" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="F253" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="H253" s="18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C253" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="D254" s="34" t="s">
-        <v>71</v>
+        <v>513</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>247</v>
+        <v>575</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="D255" s="34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F255" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>247</v>
+        <v>575</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="D256" s="34" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>247</v>
+        <v>575</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="D257" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>247</v>
+        <v>575</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="D258" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>247</v>
+        <v>575</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="D259" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C260" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="D260" s="34" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
-        <v>247</v>
+        <v>575</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C262" s="32"/>
+      <c r="D262" s="21"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="35"/>
+    </row>
+    <row r="263" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C264" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H264" s="18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C265" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H265" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C266" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H266" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C268" s="32"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="35"/>
+    </row>
+    <row r="269" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C270" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H270" s="18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C271" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H271" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="C273" s="32"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="35"/>
+    </row>
+    <row r="274" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C275" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H275" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="C277" s="32"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="35"/>
+    </row>
+    <row r="278" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C282" s="32"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="20"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="20"/>
+      <c r="H282" s="21"/>
+    </row>
+    <row r="283" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C284" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="H284" s="18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C289" s="32"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="20"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="20"/>
+      <c r="H289" s="35"/>
+    </row>
+    <row r="290" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C291" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="D296" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C297" s="18"/>
+      <c r="D297" s="34"/>
+    </row>
+    <row r="298" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="C298" s="32"/>
+      <c r="D298" s="21"/>
+      <c r="E298" s="20"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="20"/>
+      <c r="H298" s="35"/>
+    </row>
+    <row r="299" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="587">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -1365,9 +1365,6 @@
     <t>has estimated procurement value</t>
   </si>
   <si>
-    <t>Technique</t>
-  </si>
-  <si>
     <t>has funds</t>
   </si>
   <si>
@@ -1398,10 +1395,6 @@
     <t>Link to Purpose</t>
   </si>
   <si>
-    <t>If OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE and
-Otherwise OBJECT_CONTRACT/CPV_MAIN/CPV_CODE</t>
-  </si>
-  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE ?</t>
   </si>
   <si>
@@ -1421,12 +1414,6 @@
   </si>
   <si>
     <t>Calculation method</t>
-  </si>
-  <si>
-    <t>additional information</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>EU funds</t>
@@ -1626,12 +1613,6 @@
     <t>Financial Terms</t>
   </si>
   <si>
-    <t>defines subcontract terms</t>
-  </si>
-  <si>
-    <t>Subcontract Terms</t>
-  </si>
-  <si>
     <t>has submission terms</t>
   </si>
   <si>
@@ -1662,13 +1643,7 @@
     <t>LEFTI/ECONOMIC_FINANCIAL_INFO</t>
   </si>
   <si>
-    <t>LEFTI/ECONOMIC_FINANCIAL_INFO LEFTI/DEPOSIT_GUARANTEE_REQUIRED</t>
-  </si>
-  <si>
     <t>LEFTI/DEPOSIT_GUARANTEE_REQUIRED is a text and in ePO is an indicator</t>
-  </si>
-  <si>
-    <t>Once there is an award contract, the subconctract terms are defined. Not before.</t>
   </si>
   <si>
     <t>PROCEDURE/LANGUAGES/LANGUAGE</t>
@@ -1879,6 +1854,28 @@
   </si>
   <si>
     <t>EU funds depends is per each Lot</t>
+  </si>
+  <si>
+    <t>What about the currency?</t>
+  </si>
+  <si>
+    <t>has guarantee required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFTI/ECONOMIC_FINANCIAL_INFO </t>
+  </si>
+  <si>
+    <t>This is when ProcurementProcedure</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_CODE</t>
+  </si>
+  <si>
+    <t>If OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED exists: true
+If OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED exists: false</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED</t>
   </si>
 </sst>
 </file>
@@ -2951,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H300"/>
+  <dimension ref="B2:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B253" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,22 +3302,20 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>2</v>
+      <c r="C30" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -3328,13 +3323,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>191</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="18"/>
@@ -3344,13 +3339,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>191</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="18"/>
@@ -3360,13 +3355,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>185</v>
+        <v>204</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="18"/>
@@ -3376,10 +3368,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="18"/>
@@ -3392,10 +3387,10 @@
         <v>206</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="18"/>
@@ -3408,10 +3403,10 @@
         <v>206</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="18"/>
@@ -3420,14 +3415,10 @@
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>209</v>
-      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="34"/>
       <c r="F37" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="18"/>
@@ -3436,10 +3427,14 @@
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="34"/>
+      <c r="C38" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>210</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="18"/>
@@ -3449,13 +3444,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="18"/>
@@ -3465,13 +3460,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="18"/>
@@ -3481,112 +3476,113 @@
         <v>7</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="34"/>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="20" t="s">
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C43" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>6</v>
+        <v>219</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>84</v>
+        <v>221</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3594,81 +3590,81 @@
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>41</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>41</v>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>30</v>
+        <v>227</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>245</v>
+        <v>228</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3676,30 +3672,30 @@
         <v>226</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>171</v>
@@ -3707,36 +3703,36 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>41</v>
+        <v>235</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>171</v>
+        <v>242</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3744,266 +3740,260 @@
         <v>239</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>242</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H59" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="20" t="s">
+    <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
-    </row>
-    <row r="62" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>249</v>
+      <c r="C62" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F63" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H62" s="18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="20" t="s">
+    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C64" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-    </row>
-    <row r="66" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="21"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>225</v>
+        <v>271</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>272</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>272</v>
+      <c r="B72" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>274</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="18" t="s">
+    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="D75" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C75" s="32" t="s">
+      <c r="F75" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="21"/>
-    </row>
-    <row r="76" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -4011,86 +4001,89 @@
         <v>275</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D83" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>298</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -4098,13 +4091,13 @@
         <v>298</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -4112,35 +4105,35 @@
         <v>298</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H89" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>225</v>
@@ -4149,82 +4142,82 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="20" t="s">
+    <row r="92" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="C92" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="35" t="s">
+      <c r="D92" s="21"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="35" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="37" t="s">
+    <row r="93" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="37" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="20" t="s">
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C97" s="32" t="s">
+      <c r="C96" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="21" t="s">
+      <c r="D96" s="21"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="G97" s="20"/>
-      <c r="H97" s="35"/>
-    </row>
-    <row r="98" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="20"/>
+      <c r="H96" s="35"/>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>249</v>
+        <v>312</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>312</v>
+      <c r="C99" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -4232,10 +4225,10 @@
         <v>52</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>315</v>
@@ -4245,14 +4238,11 @@
       <c r="B101" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>315</v>
+      <c r="C101" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -4260,10 +4250,10 @@
         <v>52</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -4271,69 +4261,72 @@
         <v>52</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="D106" s="34" t="s">
-        <v>71</v>
+        <v>325</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H106" s="18" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4341,27 +4334,27 @@
         <v>137</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>386</v>
+        <v>249</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -4369,86 +4362,86 @@
         <v>137</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="H110" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H111" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H112" s="18"/>
     </row>
-    <row r="113" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="F113" s="36" t="s">
+        <v>383</v>
       </c>
       <c r="H113" s="18"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>381</v>
+        <v>319</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F114" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="H114" s="18"/>
+        <v>249</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>336</v>
+      <c r="C115" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>315</v>
+        <v>338</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
@@ -4456,41 +4449,41 @@
         <v>319</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C117" s="18" t="s">
-        <v>339</v>
+      <c r="C117" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>347</v>
+      <c r="H117" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>340</v>
+      <c r="C118" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>315</v>
+        <v>326</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
@@ -4498,157 +4491,160 @@
         <v>319</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H122" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>355</v>
+        <v>223</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F125" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H125" s="18" t="s">
+      <c r="H124" s="18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="20" t="s">
+    <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C126" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="21" t="s">
+      <c r="D126" s="21"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="G127" s="20"/>
-      <c r="H127" s="35"/>
-    </row>
-    <row r="128" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="20"/>
+      <c r="H126" s="35"/>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H129" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F129" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
@@ -4656,16 +4652,16 @@
         <v>358</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
@@ -4673,131 +4669,128 @@
         <v>358</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H132" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C133" s="18" t="s">
         <v>364</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C134" s="18" t="s">
-        <v>364</v>
+      <c r="C134" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>387</v>
+        <v>73</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>372</v>
+      <c r="C135" s="18" t="s">
+        <v>388</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C137" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="H137" s="18" t="s">
+      <c r="H136" s="18" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="37" t="s">
+    <row r="138" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B138" s="37" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="20" t="s">
+    <row r="139" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C140" s="32" t="s">
+      <c r="C139" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D140" s="21"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="21" t="s">
+      <c r="D139" s="21"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="G140" s="20"/>
-      <c r="H140" s="35"/>
-    </row>
-    <row r="141" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="20"/>
+      <c r="H139" s="35"/>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>249</v>
+        <v>312</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="18" t="s">
-        <v>312</v>
+      <c r="C142" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -4805,10 +4798,10 @@
         <v>52</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>315</v>
@@ -4818,14 +4811,11 @@
       <c r="B144" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C144" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>315</v>
+      <c r="C144" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -4833,10 +4823,10 @@
         <v>52</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -4844,52 +4834,55 @@
         <v>52</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="18" t="s">
-        <v>322</v>
+      <c r="C148" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>410</v>
+        <v>71</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D149" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H149" s="18" t="s">
-        <v>411</v>
+        <v>137</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -4897,10 +4890,10 @@
         <v>137</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>412</v>
@@ -4911,10 +4904,10 @@
         <v>137</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>412</v>
@@ -4925,13 +4918,13 @@
         <v>137</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>412</v>
+        <v>249</v>
+      </c>
+      <c r="H152" s="18" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -4939,10 +4932,10 @@
         <v>137</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="H153" s="18" t="s">
         <v>309</v>
@@ -4953,71 +4946,68 @@
         <v>137</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H154" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="H154" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H155" s="22" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H155" s="18"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H156" s="18"/>
+        <v>382</v>
+      </c>
+      <c r="F156" s="36"/>
+      <c r="H156" s="22" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>381</v>
+        <v>319</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F157" s="36"/>
-      <c r="H157" s="22" t="s">
-        <v>412</v>
+        <v>249</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>336</v>
+      <c r="C158" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
@@ -5025,7 +5015,7 @@
         <v>319</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>338</v>
@@ -5035,25 +5025,28 @@
       <c r="B160" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C160" s="18" t="s">
-        <v>339</v>
+      <c r="C160" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>338</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>340</v>
+      <c r="C161" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>315</v>
+        <v>326</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -5061,27 +5054,27 @@
         <v>319</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>414</v>
+        <v>225</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5089,27 +5082,30 @@
         <v>321</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>338</v>
+        <v>353</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
@@ -5117,16 +5113,13 @@
         <v>321</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H166" s="18" t="s">
-        <v>84</v>
+        <v>415</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
@@ -5134,87 +5127,87 @@
         <v>321</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>355</v>
+        <v>223</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F168" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H168" s="18" t="s">
+      <c r="H167" s="18" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="20" t="s">
+    <row r="169" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C170" s="32" t="s">
+      <c r="C169" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D170" s="21"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="21" t="s">
+      <c r="D169" s="21"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="G170" s="20"/>
-      <c r="H170" s="35"/>
-    </row>
-    <row r="171" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="20"/>
+      <c r="H169" s="35"/>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H172" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F172" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>417</v>
+        <v>225</v>
+      </c>
+      <c r="H173" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -5222,13 +5215,16 @@
         <v>358</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>225</v>
+        <v>321</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>84</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
@@ -5236,123 +5232,120 @@
         <v>358</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H175" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>364</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C177" s="18" t="s">
-        <v>364</v>
+      <c r="C177" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>420</v>
+        <v>73</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>372</v>
+      <c r="C178" s="18" t="s">
+        <v>388</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="H179" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="H180" s="18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C181" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H181" s="18"/>
-    </row>
-    <row r="183" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="20" t="s">
+      <c r="H180" s="18"/>
+    </row>
+    <row r="182" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C183" s="32"/>
-      <c r="D183" s="21"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="21"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="35"/>
-    </row>
-    <row r="184" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="32"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="35"/>
+    </row>
+    <row r="183" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>421</v>
+        <v>396</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
@@ -5360,10 +5353,10 @@
         <v>260</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>412</v>
@@ -5374,13 +5367,13 @@
         <v>260</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H186" s="2" t="s">
-        <v>412</v>
+      <c r="F186" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
@@ -5388,163 +5381,184 @@
         <v>260</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>326</v>
+        <v>401</v>
+      </c>
+      <c r="D189" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="D190" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F190" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H190" s="2" t="s">
+      <c r="H189" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="192" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="20" t="s">
+    <row r="191" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C192" s="32"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="G192" s="20"/>
-      <c r="H192" s="35"/>
-    </row>
-    <row r="193" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="32"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G191" s="20"/>
+      <c r="H191" s="35"/>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C193" s="18" t="s">
-        <v>427</v>
+      <c r="C193" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>438</v>
+        <v>257</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C194" s="18" t="s">
-        <v>428</v>
+      <c r="C194" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>257</v>
+        <v>436</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C195" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C195" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D195" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>429</v>
+      <c r="C196" s="22" t="s">
+        <v>430</v>
       </c>
       <c r="D196" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>430</v>
+      <c r="C197" s="22" t="s">
+        <v>431</v>
       </c>
       <c r="D197" s="34" t="s">
-        <v>319</v>
+        <v>432</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D198" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C198" s="22" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D198" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D199" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H199" s="18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>71</v>
       </c>
@@ -5553,9 +5567,6 @@
       </c>
       <c r="D200" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="H200" s="18" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
@@ -5563,10 +5574,10 @@
         <v>71</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="D201" s="34" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
@@ -5574,32 +5585,32 @@
         <v>71</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D202" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D203" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D204" s="34" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
@@ -5607,35 +5618,44 @@
         <v>71</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D206" s="34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C207" s="18" t="s">
-        <v>325</v>
+      <c r="C207" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
@@ -5643,13 +5663,13 @@
         <v>137</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
@@ -5657,13 +5677,10 @@
         <v>137</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
@@ -5671,10 +5688,10 @@
         <v>137</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
@@ -5682,10 +5699,13 @@
         <v>137</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>332</v>
+        <v>374</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
@@ -5693,41 +5713,42 @@
         <v>137</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C213" s="18" t="s">
-        <v>376</v>
+      <c r="C213" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>442</v>
+        <v>382</v>
+      </c>
+      <c r="F213" s="36"/>
+      <c r="H213" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C214" s="18" t="s">
-        <v>381</v>
+        <v>319</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F214" s="36" t="s">
-        <v>383</v>
+        <v>191</v>
+      </c>
+      <c r="H214" s="18" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
@@ -5735,13 +5756,10 @@
         <v>319</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H215" s="18" t="s">
-        <v>443</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
@@ -5749,7 +5767,7 @@
         <v>319</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>338</v>
@@ -5760,7 +5778,7 @@
         <v>319</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>338</v>
@@ -5770,141 +5788,168 @@
       <c r="B218" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>446</v>
+      <c r="C218" s="18" t="s">
+        <v>445</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>447</v>
+      <c r="C219" s="18" t="s">
+        <v>446</v>
       </c>
       <c r="D219" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C220" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="F220" s="2" t="s">
-        <v>153</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C223" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C223" s="18" t="s">
         <v>452</v>
       </c>
       <c r="D223" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C225" s="32"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G225" s="20"/>
+      <c r="H225" s="35"/>
+    </row>
+    <row r="226" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C226" s="19"/>
+      <c r="F226" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B224" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B225" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B226" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C228" s="32"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="20"/>
-      <c r="F228" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="G228" s="20"/>
-      <c r="H228" s="35"/>
-    </row>
-    <row r="229" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F228" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C229" s="19"/>
+      <c r="C229" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F229" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>462</v>
+        <v>16</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>171</v>
@@ -5921,21 +5966,21 @@
         <v>326</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="232" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>484</v>
@@ -5943,25 +5988,25 @@
       <c r="G232" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H232" s="18" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C233" s="22" t="s">
-        <v>467</v>
+      <c r="C233" s="18" t="s">
+        <v>481</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>171</v>
+        <v>469</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H233" s="18" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="234" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5969,13 +6014,13 @@
         <v>247</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>468</v>
+        <v>354</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>471</v>
+        <v>356</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>171</v>
@@ -5986,115 +6031,108 @@
         <v>247</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>469</v>
+        <v>581</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>191</v>
+        <v>548</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C236" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>472</v>
+        <v>34</v>
+      </c>
+      <c r="D236" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="H236" s="18" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="G236" s="2"/>
+      <c r="H236" s="18"/>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C237" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>171</v>
+      <c r="C237" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D237" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="F237" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="H237" s="18" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C238" s="18" t="s">
-        <v>474</v>
+      <c r="C238" s="22" t="s">
+        <v>489</v>
       </c>
       <c r="D238" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="F238" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="H238" s="18" t="s">
-        <v>490</v>
+        <v>71</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C239" s="22" t="s">
-        <v>493</v>
+      <c r="C239" s="18" t="s">
+        <v>472</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>171</v>
+        <v>473</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C240" s="18" t="s">
-        <v>476</v>
+      <c r="C240" s="22" t="s">
+        <v>474</v>
       </c>
       <c r="D240" s="34" t="s">
-        <v>477</v>
+        <v>313</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C241" s="22" t="s">
-        <v>478</v>
+      <c r="C241" s="18" t="s">
+        <v>475</v>
       </c>
       <c r="D241" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
+      </c>
+      <c r="H241" s="18" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
@@ -6102,44 +6140,44 @@
         <v>247</v>
       </c>
       <c r="C242" s="18" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D242" s="34" t="s">
         <v>6</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C243" s="18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>6</v>
+        <v>478</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C244" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="D244" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
@@ -6147,27 +6185,33 @@
         <v>247</v>
       </c>
       <c r="C245" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H245" s="18" t="s">
         <v>494</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H245" s="18" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C246" s="18" t="s">
-        <v>495</v>
+      <c r="C246" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="H246" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
@@ -6175,118 +6219,116 @@
         <v>247</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H247" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="H247" s="1"/>
     </row>
     <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="249" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C249" s="18" t="s">
-        <v>506</v>
+      <c r="C249" s="22" t="s">
+        <v>504</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H249" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>511</v>
+        <v>260</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="252" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>288</v>
+        <v>508</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>247</v>
+        <v>567</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>527</v>
+        <v>16</v>
+      </c>
+      <c r="F253" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>171</v>
@@ -6294,459 +6336,477 @@
     </row>
     <row r="254" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>247</v>
+        <v>567</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="255" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C255" s="18" t="s">
+      <c r="F257" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H257" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F255" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B256" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C256" s="18" t="s">
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C258" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C257" s="18" t="s">
+      <c r="D258" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H258" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D257" s="2" t="s">
+    </row>
+    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C260" s="32"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="35"/>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C262" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H262" s="18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C263" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H263" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C264" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H264" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C266" s="32"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="35"/>
+    </row>
+    <row r="267" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C267" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B258" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C258" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B259" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C259" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B260" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C260" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H260" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="20" t="s">
+      <c r="D267" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C268" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H268" s="18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C269" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H269" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="C262" s="32"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="20"/>
-      <c r="F262" s="21"/>
-      <c r="G262" s="20"/>
-      <c r="H262" s="35"/>
-    </row>
-    <row r="263" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="1" t="s">
+      <c r="C271" s="32"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="35"/>
+    </row>
+    <row r="272" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C263" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F263" s="2" t="s">
+      <c r="C272" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C273" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H273" s="18" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C275" s="32"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="35"/>
+    </row>
+    <row r="276" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F277" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="G277" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="264" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B264" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C264" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H264" s="18" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B265" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C265" s="18" t="s">
-        <v>534</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H265" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B266" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C266" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H266" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="268" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="20" t="s">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C268" s="32"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="20"/>
-      <c r="F268" s="21"/>
-      <c r="G268" s="20"/>
-      <c r="H268" s="35"/>
-    </row>
-    <row r="269" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C269" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G269" s="1" t="s">
+      <c r="C278" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G278" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B270" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C270" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H270" s="18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B271" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C271" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H271" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="273" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="C273" s="32"/>
-      <c r="D273" s="21"/>
-      <c r="E273" s="20"/>
-      <c r="F273" s="21"/>
-      <c r="G273" s="20"/>
-      <c r="H273" s="35"/>
-    </row>
-    <row r="274" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C274" s="22" t="s">
+    <row r="280" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C280" s="32"/>
+      <c r="D280" s="21"/>
+      <c r="E280" s="20"/>
+      <c r="F280" s="21"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="21"/>
+    </row>
+    <row r="281" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C282" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="275" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B275" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C275" s="18" t="s">
+      <c r="D282" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="H275" s="18" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="277" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="C277" s="32"/>
-      <c r="D277" s="21"/>
-      <c r="E277" s="20"/>
-      <c r="F277" s="21"/>
-      <c r="G277" s="20"/>
-      <c r="H277" s="35"/>
-    </row>
-    <row r="278" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C278" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B279" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B280" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C280" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="282" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C282" s="32"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="20"/>
-      <c r="F282" s="21"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="21"/>
-    </row>
-    <row r="283" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F282" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H282" s="18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>289</v>
+        <v>549</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="284" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="H284" s="18" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C285" s="22" t="s">
+      <c r="C285" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C287" s="32"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="20"/>
+      <c r="F287" s="21"/>
+      <c r="G287" s="20"/>
+      <c r="H287" s="35"/>
+    </row>
+    <row r="288" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F288" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B286" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B287" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C287" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="289" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="20" t="s">
+      <c r="G288" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C289" s="32"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="20"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="20"/>
-      <c r="H289" s="35"/>
-    </row>
-    <row r="290" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C289" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>565</v>
+        <v>402</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="291" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>171</v>
@@ -6757,13 +6817,13 @@
         <v>260</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>171</v>
@@ -6774,13 +6834,13 @@
         <v>260</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>171</v>
@@ -6790,93 +6850,59 @@
       <c r="B294" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C294" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G294" s="1" t="s">
+      <c r="C294" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D294" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C295" s="18"/>
+      <c r="D295" s="34"/>
+    </row>
+    <row r="296" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="C296" s="32"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="20"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="20"/>
+      <c r="H296" s="35"/>
+    </row>
+    <row r="297" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="295" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B295" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C295" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B296" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="D296" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C297" s="18"/>
-      <c r="D297" s="34"/>
-    </row>
-    <row r="298" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="C298" s="32"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="20"/>
-      <c r="F298" s="21"/>
-      <c r="G298" s="20"/>
-      <c r="H298" s="35"/>
-    </row>
-    <row r="299" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C299" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B300" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C300" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G300" s="1" t="s">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G298" s="1" t="s">
         <v>171</v>
       </c>
     </row>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="595">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -992,9 +992,6 @@
   </si>
   <si>
     <t>has title</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TITLE</t>
   </si>
   <si>
     <t>refers to signatory party Procuring Entity</t>
@@ -1876,6 +1873,33 @@
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED</t>
+  </si>
+  <si>
+    <t>hasContractEstimatedDuration</t>
+  </si>
+  <si>
+    <t>Attribute @TYPE (month or Date) not implemented</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/TITLE</t>
+  </si>
+  <si>
+    <t>refersToLot</t>
+  </si>
+  <si>
+    <t>refersToAwardResult</t>
+  </si>
+  <si>
+    <t>Does it refer to the same Purpose as in Lot -&gt; Purpose?</t>
+  </si>
+  <si>
+    <t>Currency is pending</t>
+  </si>
+  <si>
+    <t>hasMinimumAmount</t>
+  </si>
+  <si>
+    <t>hasMaximumAmount</t>
   </si>
 </sst>
 </file>
@@ -2950,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3757,7 +3781,7 @@
         <v>246</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="20"/>
@@ -4160,7 +4184,7 @@
     <row r="93" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4173,7 +4197,7 @@
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="35"/>
@@ -4182,28 +4206,34 @@
       <c r="B97" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="22" t="s">
         <v>310</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>311</v>
+        <v>588</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
@@ -4211,13 +4241,13 @@
         <v>52</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
@@ -4225,35 +4255,41 @@
         <v>52</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D101" s="34" t="s">
         <v>137</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="D102" s="34" t="s">
-        <v>319</v>
+      <c r="G102" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -4261,44 +4297,50 @@
         <v>52</v>
       </c>
       <c r="C103" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="D103" s="34" t="s">
         <v>320</v>
-      </c>
-      <c r="D103" s="34" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="18" t="s">
-        <v>322</v>
+      <c r="C104" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>223</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H104" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="H104" s="18" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C105" s="18" t="s">
-        <v>377</v>
+      <c r="C105" s="22" t="s">
+        <v>589</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H105" s="22" t="s">
         <v>378</v>
-      </c>
-      <c r="H105" s="18" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -4306,13 +4348,13 @@
         <v>137</v>
       </c>
       <c r="C106" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4320,13 +4362,13 @@
         <v>137</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4334,13 +4376,13 @@
         <v>137</v>
       </c>
       <c r="C108" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -4348,7 +4390,7 @@
         <v>137</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>249</v>
@@ -4362,10 +4404,10 @@
         <v>137</v>
       </c>
       <c r="C110" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="H110" s="18" t="s">
         <v>309</v>
@@ -4376,13 +4418,13 @@
         <v>137</v>
       </c>
       <c r="C111" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H111" s="18"/>
     </row>
@@ -4391,13 +4433,13 @@
         <v>137</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H112" s="18"/>
     </row>
@@ -4406,123 +4448,144 @@
         <v>137</v>
       </c>
       <c r="C113" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="F113" s="36" t="s">
         <v>382</v>
-      </c>
-      <c r="F113" s="36" t="s">
-        <v>383</v>
       </c>
       <c r="H113" s="18"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C115" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>339</v>
+        <v>318</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>593</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>341</v>
+        <v>318</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>342</v>
+        <v>318</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>225</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H121" s="18" t="s">
         <v>309</v>
@@ -4530,52 +4593,52 @@
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C122" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C123" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H124" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>31</v>
@@ -4583,65 +4646,65 @@
       <c r="D126" s="21"/>
       <c r="E126" s="20"/>
       <c r="F126" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G126" s="20"/>
       <c r="H126" s="35"/>
     </row>
     <row r="127" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="D127" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H130" s="18" t="s">
         <v>84</v>
@@ -4649,91 +4712,91 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H131" s="18" t="s">
         <v>368</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C132" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="H132" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="136" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C136" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="H136" s="18" t="s">
         <v>390</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="138" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B138" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4746,7 +4809,7 @@
       <c r="D139" s="21"/>
       <c r="E139" s="20"/>
       <c r="F139" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="35"/>
@@ -4770,10 +4833,10 @@
         <v>52</v>
       </c>
       <c r="C141" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>48</v>
@@ -4784,13 +4847,13 @@
         <v>52</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -4798,13 +4861,13 @@
         <v>52</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
@@ -4812,7 +4875,7 @@
         <v>52</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D144" s="34" t="s">
         <v>137</v>
@@ -4823,10 +4886,10 @@
         <v>52</v>
       </c>
       <c r="C145" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" s="34" t="s">
         <v>318</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -4834,10 +4897,10 @@
         <v>52</v>
       </c>
       <c r="C146" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D146" s="34" t="s">
         <v>320</v>
-      </c>
-      <c r="D146" s="34" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="147" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4845,16 +4908,16 @@
         <v>52</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>223</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -4862,13 +4925,13 @@
         <v>52</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>71</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
@@ -4876,13 +4939,13 @@
         <v>137</v>
       </c>
       <c r="C149" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="H149" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -4890,13 +4953,13 @@
         <v>137</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
@@ -4904,13 +4967,13 @@
         <v>137</v>
       </c>
       <c r="C151" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="H151" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -4918,7 +4981,7 @@
         <v>137</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>249</v>
@@ -4932,10 +4995,10 @@
         <v>137</v>
       </c>
       <c r="C153" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="H153" s="18" t="s">
         <v>309</v>
@@ -4946,13 +5009,13 @@
         <v>137</v>
       </c>
       <c r="C154" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="H154" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4960,13 +5023,13 @@
         <v>137</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H155" s="18"/>
     </row>
@@ -4975,100 +5038,100 @@
         <v>137</v>
       </c>
       <c r="C156" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="F156" s="36"/>
       <c r="H156" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C158" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="163" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>225</v>
@@ -5079,13 +5142,13 @@
     </row>
     <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H164" s="18" t="s">
         <v>309</v>
@@ -5093,16 +5156,16 @@
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C165" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H165" s="18" t="s">
         <v>84</v>
@@ -5110,38 +5173,38 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C166" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C169" s="32" t="s">
         <v>31</v>
@@ -5149,59 +5212,59 @@
       <c r="D169" s="21"/>
       <c r="E169" s="20"/>
       <c r="F169" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="35"/>
     </row>
     <row r="170" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C170" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C170" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="D170" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>225</v>
@@ -5212,100 +5275,100 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C175" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="H175" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C179" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="H179" s="18" t="s">
         <v>390</v>
-      </c>
-      <c r="H179" s="18" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C180" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="H180" s="18"/>
     </row>
@@ -5325,13 +5388,13 @@
         <v>260</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
@@ -5339,13 +5402,13 @@
         <v>260</v>
       </c>
       <c r="C184" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="H184" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
@@ -5353,13 +5416,13 @@
         <v>260</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
@@ -5367,13 +5430,13 @@
         <v>260</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
@@ -5381,13 +5444,13 @@
         <v>260</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5395,13 +5458,13 @@
         <v>260</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -5409,16 +5472,16 @@
         <v>260</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D189" s="34" t="s">
         <v>53</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5429,23 +5492,23 @@
       <c r="D191" s="21"/>
       <c r="E191" s="20"/>
       <c r="F191" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G191" s="20"/>
       <c r="H191" s="35"/>
     </row>
     <row r="192" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C192" s="22" t="s">
         <v>426</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>427</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>171</v>
@@ -5453,10 +5516,10 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>191</v>
@@ -5470,7 +5533,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C194" s="22" t="s">
         <v>310</v>
@@ -5479,7 +5542,7 @@
         <v>191</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>171</v>
@@ -5487,10 +5550,10 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D195" s="34" t="s">
         <v>137</v>
@@ -5499,18 +5562,18 @@
         <v>171</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D196" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>171</v>
@@ -5518,13 +5581,13 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C197" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D197" s="34" t="s">
         <v>431</v>
-      </c>
-      <c r="D197" s="34" t="s">
-        <v>432</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>171</v>
@@ -5535,7 +5598,7 @@
         <v>71</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>247</v>
@@ -5549,13 +5612,13 @@
         <v>71</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D199" s="34" t="s">
         <v>71</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
@@ -5563,7 +5626,7 @@
         <v>71</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D200" s="34" t="s">
         <v>71</v>
@@ -5574,7 +5637,7 @@
         <v>71</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D201" s="34" t="s">
         <v>52</v>
@@ -5585,7 +5648,7 @@
         <v>71</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D202" s="34" t="s">
         <v>275</v>
@@ -5596,7 +5659,7 @@
         <v>71</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D203" s="34" t="s">
         <v>277</v>
@@ -5607,7 +5670,7 @@
         <v>71</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D204" s="34" t="s">
         <v>255</v>
@@ -5618,7 +5681,7 @@
         <v>71</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D205" s="34" t="s">
         <v>274</v>
@@ -5629,13 +5692,13 @@
         <v>137</v>
       </c>
       <c r="C206" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="F206" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>171</v>
@@ -5646,13 +5709,13 @@
         <v>137</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>171</v>
@@ -5662,64 +5725,82 @@
       <c r="B208" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="F208" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C209" s="18" t="s">
-        <v>330</v>
+      <c r="C209" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>249</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H210" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="F211" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C212" s="18" t="s">
-        <v>376</v>
+      <c r="C212" s="22" t="s">
+        <v>375</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
@@ -5727,111 +5808,120 @@
         <v>137</v>
       </c>
       <c r="C213" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="F213" s="36"/>
       <c r="H213" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>191</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C218" s="18" t="s">
-        <v>445</v>
+        <v>318</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>446</v>
+        <v>318</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>445</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="G219" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="220" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C220" s="18" t="s">
-        <v>448</v>
+        <v>431</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>447</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>449</v>
+        <v>431</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>448</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>5</v>
@@ -5839,27 +5929,30 @@
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C222" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>452</v>
+        <v>431</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>451</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5870,7 +5963,7 @@
       <c r="D225" s="21"/>
       <c r="E225" s="20"/>
       <c r="F225" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="35"/>
@@ -5881,7 +5974,7 @@
       </c>
       <c r="C226" s="19"/>
       <c r="F226" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
@@ -5889,13 +5982,13 @@
         <v>247</v>
       </c>
       <c r="C227" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="F227" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>171</v>
@@ -5906,13 +5999,13 @@
         <v>247</v>
       </c>
       <c r="C228" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F228" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>171</v>
@@ -5923,19 +6016,19 @@
         <v>247</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5943,13 +6036,13 @@
         <v>247</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>171</v>
@@ -5960,13 +6053,13 @@
         <v>247</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>171</v>
@@ -5977,13 +6070,13 @@
         <v>247</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>171</v>
@@ -5994,19 +6087,19 @@
         <v>247</v>
       </c>
       <c r="C233" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H233" s="18" t="s">
         <v>481</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H233" s="18" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="234" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -6014,13 +6107,13 @@
         <v>247</v>
       </c>
       <c r="C234" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="F234" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>171</v>
@@ -6031,16 +6124,16 @@
         <v>247</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -6064,16 +6157,16 @@
         <v>247</v>
       </c>
       <c r="C237" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D237" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D237" s="34" t="s">
-        <v>471</v>
-      </c>
       <c r="F237" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="H237" s="18" t="s">
         <v>485</v>
-      </c>
-      <c r="H237" s="18" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
@@ -6081,13 +6174,13 @@
         <v>247</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D238" s="34" t="s">
         <v>71</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>171</v>
@@ -6098,10 +6191,10 @@
         <v>247</v>
       </c>
       <c r="C239" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="D239" s="34" t="s">
         <v>472</v>
-      </c>
-      <c r="D239" s="34" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
@@ -6109,13 +6202,13 @@
         <v>247</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D240" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>171</v>
@@ -6126,13 +6219,13 @@
         <v>247</v>
       </c>
       <c r="C241" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D241" s="34" t="s">
         <v>6</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
@@ -6140,13 +6233,13 @@
         <v>247</v>
       </c>
       <c r="C242" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D242" s="34" t="s">
         <v>6</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -6154,16 +6247,16 @@
         <v>247</v>
       </c>
       <c r="C243" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D243" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="D243" s="34" t="s">
-        <v>478</v>
-      </c>
       <c r="F243" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
@@ -6171,13 +6264,13 @@
         <v>247</v>
       </c>
       <c r="C244" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
@@ -6185,13 +6278,13 @@
         <v>247</v>
       </c>
       <c r="C245" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D245" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H245" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="H245" s="18" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
@@ -6199,19 +6292,19 @@
         <v>247</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.25">
@@ -6219,13 +6312,13 @@
         <v>247</v>
       </c>
       <c r="C247" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="F247" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>171</v>
@@ -6237,13 +6330,13 @@
         <v>247</v>
       </c>
       <c r="C248" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="F248" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>171</v>
@@ -6254,13 +6347,13 @@
         <v>247</v>
       </c>
       <c r="C249" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="F249" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>171</v>
@@ -6271,13 +6364,13 @@
         <v>247</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>171</v>
@@ -6288,13 +6381,13 @@
         <v>247</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>260</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>171</v>
@@ -6305,13 +6398,13 @@
         <v>247</v>
       </c>
       <c r="C252" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="F252" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>171</v>
@@ -6319,10 +6412,10 @@
     </row>
     <row r="253" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>16</v>
@@ -6336,16 +6429,16 @@
     </row>
     <row r="254" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C254" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="C254" s="22" t="s">
+      <c r="D254" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="F254" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>171</v>
@@ -6353,13 +6446,13 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>194</v>
@@ -6370,16 +6463,16 @@
     </row>
     <row r="256" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>171</v>
@@ -6387,41 +6480,41 @@
     </row>
     <row r="257" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C257" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="F257" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>174</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B260" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C260" s="32"/>
       <c r="D260" s="21"/>
@@ -6432,16 +6525,16 @@
     </row>
     <row r="261" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C261" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="F261" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>171</v>
@@ -6449,49 +6542,49 @@
     </row>
     <row r="262" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C262" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="H262" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C263" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="H263" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H264" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C266" s="32"/>
       <c r="D266" s="21"/>
@@ -6502,16 +6595,16 @@
     </row>
     <row r="267" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>171</v>
@@ -6519,38 +6612,38 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F268" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H268" s="18" t="s">
         <v>534</v>
-      </c>
-      <c r="H268" s="18" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C269" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H269" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B271" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C271" s="32"/>
       <c r="D271" s="21"/>
@@ -6561,16 +6654,16 @@
     </row>
     <row r="272" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C272" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="F272" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>171</v>
@@ -6578,27 +6671,27 @@
     </row>
     <row r="273" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C273" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F273" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="G273" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H273" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="275" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C275" s="32"/>
       <c r="D275" s="21"/>
@@ -6609,27 +6702,27 @@
     </row>
     <row r="276" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>171</v>
@@ -6637,16 +6730,16 @@
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C278" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F278" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>171</v>
@@ -6682,19 +6775,19 @@
         <v>288</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H282" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
@@ -6702,13 +6795,13 @@
         <v>288</v>
       </c>
       <c r="C283" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="F283" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
@@ -6716,10 +6809,10 @@
         <v>288</v>
       </c>
       <c r="C284" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="D284" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
@@ -6727,10 +6820,10 @@
         <v>288</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6749,13 +6842,13 @@
         <v>260</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>171</v>
@@ -6766,13 +6859,13 @@
         <v>260</v>
       </c>
       <c r="C289" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>171</v>
@@ -6783,13 +6876,13 @@
         <v>260</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>171</v>
@@ -6800,13 +6893,13 @@
         <v>260</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>171</v>
@@ -6817,13 +6910,13 @@
         <v>260</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>171</v>
@@ -6834,13 +6927,13 @@
         <v>260</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>171</v>
@@ -6851,7 +6944,7 @@
         <v>260</v>
       </c>
       <c r="C294" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D294" s="34" t="s">
         <v>53</v>
@@ -6863,7 +6956,7 @@
     </row>
     <row r="296" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C296" s="32"/>
       <c r="D296" s="21"/>
@@ -6874,16 +6967,16 @@
     </row>
     <row r="297" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>171</v>
@@ -6891,16 +6984,16 @@
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C298" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F298" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>171</v>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Selection Criterion" sheetId="5" r:id="rId3"/>
     <sheet name="TED XSD" sheetId="3" r:id="rId4"/>
     <sheet name="TED to ePO" sheetId="4" r:id="rId5"/>
+    <sheet name="TED elements" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$B$2:$D$57</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="663">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -1018,9 +1019,6 @@
     <t>Procurement Value</t>
   </si>
   <si>
-    <t>refers to award result</t>
-  </si>
-  <si>
     <t>Award Result</t>
   </si>
   <si>
@@ -1243,30 +1241,6 @@
   </si>
   <si>
     <t>(for each AWARD_CONTRACT) (SURE??)</t>
-  </si>
-  <si>
-    <t>jury decision binding</t>
-  </si>
-  <si>
-    <t>max allowed lots</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>max lots awarded</t>
-  </si>
-  <si>
-    <t>performing staff qualification</t>
-  </si>
-  <si>
-    <t>successive reduction</t>
-  </si>
-  <si>
-    <t>variants</t>
-  </si>
-  <si>
-    <t>defines</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/LOT_DIVISION/LOT_MAX_ONE_TENDERER</t>
@@ -1290,16 +1264,10 @@
 If OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS exists: false</t>
   </si>
   <si>
-    <t>Add the relationship to Criterion</t>
-  </si>
-  <si>
     <t>DESIGN CONTEST</t>
   </si>
   <si>
     <t>RESULTS/AWARDED_PRIZE/WINNER (for each winner)</t>
-  </si>
-  <si>
-    <t>Design contest does not have awards</t>
   </si>
   <si>
     <t>Not in design contest</t>
@@ -1312,9 +1280,6 @@
     <t>RESULTS/AWARDED_PRIZE/VAL_PRIZE</t>
   </si>
   <si>
-    <t>DESIGN_CONTEST</t>
-  </si>
-  <si>
     <t>(only F12_2014 F13_2014)</t>
   </si>
   <si>
@@ -1331,10 +1296,6 @@
     <t>JURY</t>
   </si>
   <si>
-    <t>If PROCEDURE/DECISION_BINDING_CONTRACTING exists: true
-If PROCEDURE/NO_DECISION_BINDING_CONTRACTING exists: false</t>
-  </si>
-  <si>
     <t>foaf:member</t>
   </si>
   <si>
@@ -1342,9 +1303,6 @@
   </si>
   <si>
     <t>One foaf:Person per PROCEDURE/MEMBER_NAME</t>
-  </si>
-  <si>
-    <t>PROCEDURE/CRITERIA_EVALUATION</t>
   </si>
   <si>
     <t>Lot (inherited from Procurement Project)</t>
@@ -1515,9 +1473,6 @@
   </si>
   <si>
     <t>Tender Short List</t>
-  </si>
-  <si>
-    <t>Do we add D_ACCORDANCE_ARTICLE and D_OUTSIDE¨_SCOPE?</t>
   </si>
   <si>
     <r>
@@ -1900,6 +1855,255 @@
   </si>
   <si>
     <t>hasMaximumAmount</t>
+  </si>
+  <si>
+    <t>Except currency</t>
+  </si>
+  <si>
+    <t>hasAwardResultDateOfConclusion</t>
+  </si>
+  <si>
+    <t>underProcurementRegime</t>
+  </si>
+  <si>
+    <t>hasWinner</t>
+  </si>
+  <si>
+    <t>:DESIGN_CONTEST</t>
+  </si>
+  <si>
+    <t>isEvaluatedBy</t>
+  </si>
+  <si>
+    <t>Do we add D_ACCORDANCE_ARTICLE and D_OUTSIDE_SCOPE?</t>
+  </si>
+  <si>
+    <t>@LG</t>
+  </si>
+  <si>
+    <t>@CATEGORY</t>
+  </si>
+  <si>
+    <t>@FORM</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Original or translation</t>
+  </si>
+  <si>
+    <t>Form number</t>
+  </si>
+  <si>
+    <t>Notice type</t>
+  </si>
+  <si>
+    <t>NOTICE/@TYPE [1]</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY [1]</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY [1]</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/JOINT_PROCUREMENT_INVOLVED</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/PROCUREMENT_LAW</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/CENTRAL_PURCHASING</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/DOCUMENT_FULL OR DOCUMENT_RESTRICTED</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO OR ADDRESS_FURTHER_INFO_IDEM</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/URL_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION OR ADDRESS_PARTICIPATION_IDEM</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/URL_TOOL</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/CA_TYPE OR CA_TYPE_OTHER</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/CA_ACTIVITY OR CA_ACTIVITY_OTHER</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/@ITEM</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/TITLE[1]</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/CPV_MAIN[1]</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/TYPE_CONTRACT[1]/@CTYPE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/SHORT_DESCR[1]</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/REFERENCE_NUMBERVAL_ESTIMATED_TOTAL</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/LOT_DIVISION OR NO_LOT_DIVISION</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/[at least 1]</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCRLOT_NO</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NUTS</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/MAIN_SITE</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC_PROCUREMENT_DOC OR award criteria</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/award criteria: AC_QUALITY/AC_CRITERION</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/award criteria: AC_QUALITY/AC_WEIGHTING</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/award criteria: AC_COST/AC_CRITERION</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/award criteria: AC_COST/AC_WEIGHTING</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/award criteria: AC_PRICE/AC_WEIGHTING</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/DURATION OR {DATE_START, DATE_END}</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL AND RENEWAL_DESCR</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR//ACCEPTED_VARIANTS</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS AND OPTIONS_DESCR</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROG_RELATED OR NO_EU_PROGR_RELATED</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/INFO_ADD</t>
+  </si>
+  <si>
+    <t>LEFTI/SUITABILITY</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC OR {ECONOMIC_FINANCIAL_INFO and ECONOMIC_FINANCIAL_MIN_LEVEL}</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC OR {TECHNICAL_PROFESSIONAL_INFO AND TECHNICAL_PROFESSIONAL_MIN_LEVEL}</t>
+  </si>
+  <si>
+    <t>LEFTI/RULES_CRITERIA</t>
+  </si>
+  <si>
+    <t>LEFTI/RESTRICTED_SHELTERED_WORKSHOP</t>
+  </si>
+  <si>
+    <t>LEFTI/RESTRICTED_SHELTERED_PROGRAM</t>
+  </si>
+  <si>
+    <t>LEFTI/RESERVED_ORGANISATIONS_SERVICE_MISSION</t>
+  </si>
+  <si>
+    <t>LEFTI/MAIN_FINANCING_CONDITION</t>
+  </si>
+  <si>
+    <t>LEFTI/LEGAL_FORM</t>
+  </si>
+  <si>
+    <t>LEFTI/QUALIFICATION/CONDITIONS</t>
+  </si>
+  <si>
+    <t>LEFTI/QUALIFICATION/METHODS</t>
+  </si>
+  <si>
+    <t>LEFTI/CRITERIA_SELECTION</t>
+  </si>
+  <si>
+    <t>LEFTI/PARTICULAR_PROFESSION OR REFERENCE_TO_LAW</t>
+  </si>
+  <si>
+    <t>LEFTI/PERFORMANCE_CONDITIONS</t>
+  </si>
+  <si>
+    <t>LEFTI/PERFORMANCE_STAFF_QUALIFICATION</t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_RESTRICTED OR PT_COMPETITIVE_NEGOTIATION</t>
+  </si>
+  <si>
+    <t>PROCEDURE/FRAMEWORK/JUSTIFICATION</t>
+  </si>
+  <si>
+    <t>PROCEDURE/FRAMEWORK/SINGLE_OPERATOR OR {SEVERAL_OPERATORS and NB_PARTICIPANTS}</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DPS OR DPS_ADDITIONAL_PURCHASERS</t>
+  </si>
+  <si>
+    <t>PROCEDURE/EAUCTION_USED or INFO_ADD_EAUCTION</t>
+  </si>
+  <si>
+    <t>PROCEDURE/CONTRACT_COVERED_GPA OR NO_CONTRACT_COVERED_GPA</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DATE_RECEIPT_TENDERS</t>
+  </si>
+  <si>
+    <t>PROCEDURE/TIME_RECEIPT_TENDERS</t>
+  </si>
+  <si>
+    <t>PROCEDURE/LANGUAGES</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/NO_RECURRENT_PROCUREMENT or {RECURRENT_PROCUREMENT and ESTIMATED_TIMING}</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/EINVOICING</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/INFO_ADD</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_MEDIATION_BODY</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_INFO</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2174,6 +2378,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2972,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H298"/>
+  <dimension ref="B2:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,7 +3994,7 @@
         <v>246</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D60" s="21"/>
       <c r="E60" s="20"/>
@@ -4184,7 +4397,7 @@
     <row r="93" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4197,7 +4410,7 @@
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
       <c r="F96" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="35"/>
@@ -4213,7 +4426,7 @@
         <v>249</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>171</v>
@@ -4275,7 +4488,7 @@
         <v>137</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -4297,10 +4510,10 @@
         <v>52</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4308,19 +4521,19 @@
         <v>52</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>223</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
@@ -4328,19 +4541,19 @@
         <v>52</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -4348,13 +4561,13 @@
         <v>137</v>
       </c>
       <c r="C106" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4362,13 +4575,13 @@
         <v>137</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4376,13 +4589,13 @@
         <v>137</v>
       </c>
       <c r="C108" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
@@ -4390,7 +4603,7 @@
         <v>137</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>249</v>
@@ -4404,10 +4617,10 @@
         <v>137</v>
       </c>
       <c r="C110" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="H110" s="18" t="s">
         <v>309</v>
@@ -4418,13 +4631,13 @@
         <v>137</v>
       </c>
       <c r="C111" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H111" s="18"/>
     </row>
@@ -4433,13 +4646,13 @@
         <v>137</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H112" s="18"/>
     </row>
@@ -4448,13 +4661,13 @@
         <v>137</v>
       </c>
       <c r="C113" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="F113" s="36" t="s">
         <v>381</v>
-      </c>
-      <c r="F113" s="36" t="s">
-        <v>382</v>
       </c>
       <c r="H113" s="18"/>
     </row>
@@ -4463,7 +4676,7 @@
         <v>318</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>249</v>
@@ -4477,19 +4690,19 @@
         <v>318</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
@@ -4497,19 +4710,19 @@
         <v>318</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
@@ -4517,10 +4730,10 @@
         <v>318</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>314</v>
@@ -4531,13 +4744,13 @@
         <v>318</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>171</v>
@@ -4548,44 +4761,44 @@
         <v>318</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>225</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H121" s="18" t="s">
         <v>309</v>
@@ -4593,52 +4806,52 @@
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C122" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C123" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H124" s="18" t="s">
         <v>322</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>31</v>
@@ -4646,20 +4859,20 @@
       <c r="D126" s="21"/>
       <c r="E126" s="20"/>
       <c r="F126" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G126" s="20"/>
       <c r="H126" s="35"/>
     </row>
     <row r="127" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>358</v>
-      </c>
       <c r="D127" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>314</v>
@@ -4667,10 +4880,10 @@
     </row>
     <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>249</v>
@@ -4681,30 +4894,30 @@
     </row>
     <row r="129" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H130" s="18" t="s">
         <v>84</v>
@@ -4712,55 +4925,55 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H131" s="18" t="s">
         <v>367</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C132" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="H132" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>73</v>
@@ -4771,32 +4984,32 @@
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C136" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="H136" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="138" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B138" s="37" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="139" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4809,7 +5022,7 @@
       <c r="D139" s="21"/>
       <c r="E139" s="20"/>
       <c r="F139" s="21" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="35"/>
@@ -4818,21 +5031,21 @@
       <c r="B140" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="22" t="s">
         <v>310</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>194</v>
+      <c r="H140" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="22" t="s">
         <v>311</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -4840,6 +5053,9 @@
       </c>
       <c r="F141" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
@@ -4885,39 +5101,48 @@
       <c r="B145" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="22" t="s">
         <v>317</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>318</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="D146" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="D146" s="34" t="s">
-        <v>320</v>
+      <c r="G146" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C147" s="18" t="s">
-        <v>321</v>
+      <c r="C147" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>223</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H147" s="18" t="s">
-        <v>323</v>
+        <v>399</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H147" s="22" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
@@ -4925,27 +5150,28 @@
         <v>52</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D148" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H148" s="18" t="s">
-        <v>410</v>
-      </c>
+      <c r="G148" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H148" s="22"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C149" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="H149" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -4953,13 +5179,13 @@
         <v>137</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
@@ -4967,13 +5193,13 @@
         <v>137</v>
       </c>
       <c r="C151" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="H151" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
@@ -4981,7 +5207,7 @@
         <v>137</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>249</v>
@@ -4995,10 +5221,10 @@
         <v>137</v>
       </c>
       <c r="C153" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="H153" s="18" t="s">
         <v>309</v>
@@ -5009,13 +5235,13 @@
         <v>137</v>
       </c>
       <c r="C154" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="H154" s="22" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5023,13 +5249,13 @@
         <v>137</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H155" s="18"/>
     </row>
@@ -5038,22 +5264,22 @@
         <v>137</v>
       </c>
       <c r="C156" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F156" s="36"/>
       <c r="H156" s="22" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>335</v>
+      <c r="C157" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>249</v>
@@ -5066,33 +5292,33 @@
       <c r="B158" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C159" s="18" t="s">
-        <v>338</v>
+      <c r="C159" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>339</v>
+      <c r="C160" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>314</v>
@@ -5102,36 +5328,45 @@
       <c r="B161" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C161" s="18" t="s">
-        <v>340</v>
+      <c r="C161" s="22" t="s">
+        <v>339</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C162" s="18" t="s">
-        <v>341</v>
+      <c r="C162" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>413</v>
+        <v>402</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H162" s="38" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="163" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>225</v>
@@ -5142,30 +5377,33 @@
     </row>
     <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H164" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C165" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>417</v>
+        <v>405</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H165" s="18" t="s">
         <v>84</v>
@@ -5173,38 +5411,44 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C166" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>414</v>
+        <v>584</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>356</v>
+        <v>319</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>583</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H167" s="18" t="s">
-        <v>323</v>
+        <v>399</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H167" s="22" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C169" s="32" t="s">
         <v>31</v>
@@ -5212,20 +5456,20 @@
       <c r="D169" s="21"/>
       <c r="E169" s="20"/>
       <c r="F169" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="35"/>
     </row>
     <row r="170" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C170" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="C170" s="18" t="s">
-        <v>358</v>
-      </c>
       <c r="D170" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>314</v>
@@ -5233,10 +5477,10 @@
     </row>
     <row r="171" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>249</v>
@@ -5247,24 +5491,27 @@
     </row>
     <row r="172" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>225</v>
@@ -5275,55 +5522,61 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C175" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>364</v>
+      <c r="G175" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C176" s="18" t="s">
         <v>363</v>
       </c>
+      <c r="C176" s="22" t="s">
+        <v>362</v>
+      </c>
       <c r="D176" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>73</v>
@@ -5334,246 +5587,248 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>387</v>
+        <v>363</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="H179" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="D180" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H179" s="18"/>
+    </row>
+    <row r="181" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181" s="32"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="G181" s="20"/>
+      <c r="H181" s="35"/>
+    </row>
+    <row r="182" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H180" s="18"/>
-    </row>
-    <row r="182" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C182" s="32"/>
-      <c r="D182" s="21"/>
-      <c r="E182" s="20"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="35"/>
-    </row>
-    <row r="183" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>393</v>
+        <v>411</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>420</v>
+        <v>257</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>394</v>
+        <v>411</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>411</v>
+        <v>191</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>325</v>
+        <v>411</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="D185" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="H185" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>404</v>
+      <c r="C186" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D186" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D187" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>399</v>
+        <v>71</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>418</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C191" s="32"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="G191" s="20"/>
-      <c r="H191" s="35"/>
-    </row>
-    <row r="192" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H189" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C190" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D190" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="D191" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D192" s="34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C193" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>171</v>
+        <v>71</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D193" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C194" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>171</v>
+        <v>71</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D194" s="34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C195" s="22" t="s">
-        <v>428</v>
+        <v>71</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>472</v>
       </c>
       <c r="D195" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>439</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>425</v>
+        <v>137</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="D196" s="34" t="s">
-        <v>318</v>
+        <v>323</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>171</v>
@@ -5581,13 +5836,16 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>425</v>
+        <v>137</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D197" s="34" t="s">
-        <v>431</v>
+        <v>325</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>171</v>
@@ -5595,144 +5853,160 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>247</v>
+        <v>327</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="D199" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H199" s="18" t="s">
-        <v>437</v>
+        <v>137</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D200" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="D201" s="34" t="s">
-        <v>52</v>
+        <v>137</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D202" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D203" s="34" t="s">
-        <v>277</v>
+        <v>137</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F203" s="36"/>
+      <c r="H203" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D204" s="34" t="s">
-        <v>255</v>
+        <v>318</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H204" s="18" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D205" s="34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>324</v>
+        <v>318</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>326</v>
+        <v>318</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>171</v>
@@ -5740,475 +6014,493 @@
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="C210" s="22" t="s">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>586</v>
+        <v>434</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>587</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>171</v>
+        <v>436</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F213" s="36"/>
-      <c r="H213" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H214" s="18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B215" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C215" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C215" s="32"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="G215" s="20"/>
+      <c r="H215" s="35"/>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C216" s="19"/>
+      <c r="F216" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C217" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F217" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>337</v>
+        <v>16</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>153</v>
+        <v>464</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="H219" s="18" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="220" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>431</v>
+        <v>247</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>584</v>
+        <v>451</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>431</v>
+        <v>247</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>431</v>
+        <v>247</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>451</v>
+        <v>247</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>465</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>249</v>
+        <v>453</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="G223" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H223" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="225" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="20" t="s">
+    <row r="225" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C225" s="32"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="20"/>
-      <c r="F225" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="G225" s="20"/>
-      <c r="H225" s="35"/>
-    </row>
-    <row r="226" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C225" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C226" s="19"/>
+      <c r="C226" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D226" s="34" t="s">
+        <v>2</v>
+      </c>
       <c r="F226" s="2" t="s">
-        <v>455</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" s="18"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C227" s="22" t="s">
+      <c r="C227" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="D227" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F227" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="H227" s="18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>325</v>
+        <v>473</v>
+      </c>
+      <c r="D228" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C229" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H229" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C229" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D229" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>16</v>
+        <v>459</v>
+      </c>
+      <c r="D230" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C231" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C231" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D231" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H231" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C232" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="C232" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D232" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H232" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="D233" s="34" t="s">
+        <v>463</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G233" s="2" t="s">
         <v>482</v>
       </c>
       <c r="H233" s="18" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="234" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C234" s="22" t="s">
-        <v>353</v>
+      <c r="C234" s="18" t="s">
+        <v>474</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="H234" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C235" s="22" t="s">
-        <v>580</v>
+      <c r="C235" s="18" t="s">
+        <v>475</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H235" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C236" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D236" s="34" t="s">
-        <v>2</v>
+      <c r="C236" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G236" s="2"/>
-      <c r="H236" s="18"/>
+        <v>493</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C237" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="D237" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="F237" s="36" t="s">
+      <c r="C237" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="H237" s="18" t="s">
+      <c r="D237" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F237" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="D238" s="34" t="s">
-        <v>71</v>
+        <v>486</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C239" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="D239" s="34" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C239" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="D240" s="34" t="s">
-        <v>312</v>
+        <v>490</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>171</v>
@@ -6218,176 +6510,161 @@
       <c r="B241" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C241" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="D241" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H241" s="18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C241" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C242" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="D242" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H242" s="18" t="s">
-        <v>493</v>
+      <c r="C242" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C243" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="D243" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="H243" s="18" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C244" s="18" t="s">
-        <v>489</v>
+        <v>551</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>552</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="H244" s="18" t="s">
-        <v>493</v>
+        <v>553</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C245" s="18" t="s">
-        <v>490</v>
+        <v>551</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>555</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H245" s="18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>247</v>
+        <v>551</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>508</v>
+        <v>137</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H246" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>247</v>
+        <v>551</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H247" s="18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>247</v>
+        <v>551</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C249" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B250" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C250" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C250" s="32"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="35"/>
+    </row>
+    <row r="251" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>247</v>
+        <v>483</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>260</v>
+        <v>507</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>171</v>
@@ -6395,216 +6672,187 @@
     </row>
     <row r="252" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C252" s="22" t="s">
-        <v>506</v>
+        <v>483</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>508</v>
       </c>
       <c r="D252" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H252" s="18" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C253" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H253" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C254" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H254" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C256" s="32"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="20"/>
+      <c r="H256" s="35"/>
+    </row>
+    <row r="257" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F252" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G252" s="1" t="s">
+      <c r="F257" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C253" s="22" t="s">
-        <v>571</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B254" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C254" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B255" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C255" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B256" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C257" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H257" s="18" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>575</v>
+        <v>485</v>
+      </c>
+      <c r="C258" s="38" t="s">
+        <v>516</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="C260" s="32"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="20"/>
-      <c r="F260" s="21"/>
-      <c r="G260" s="20"/>
-      <c r="H260" s="35"/>
-    </row>
-    <row r="261" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C261" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H258" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H259" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C261" s="32"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="35"/>
+    </row>
+    <row r="262" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="F262" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C263" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="F261" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B262" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C262" s="18" t="s">
+      <c r="D263" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F263" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="G263" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H263" s="18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C265" s="32"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="35"/>
+    </row>
+    <row r="266" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C266" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="H262" s="18" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B263" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C263" s="18" t="s">
+      <c r="D266" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C267" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H263" s="18" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B264" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C264" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H264" s="18" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="C266" s="32"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="20"/>
-      <c r="F266" s="21"/>
-      <c r="G266" s="20"/>
-      <c r="H266" s="35"/>
-    </row>
-    <row r="267" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C267" s="22" t="s">
-        <v>530</v>
-      </c>
       <c r="D267" s="2" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>171</v>
@@ -6612,390 +6860,272 @@
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C268" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C270" s="32"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="21"/>
+    </row>
+    <row r="271" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C272" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H272" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C274" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H268" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B269" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C269" s="18" t="s">
+      <c r="D274" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H269" s="18" t="s">
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C275" s="18" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="C271" s="32"/>
-      <c r="D271" s="21"/>
-      <c r="E271" s="20"/>
-      <c r="F271" s="21"/>
-      <c r="G271" s="20"/>
-      <c r="H271" s="35"/>
-    </row>
-    <row r="272" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C272" s="22" t="s">
+      <c r="D275" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C277" s="32"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="35"/>
+    </row>
+    <row r="278" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C278" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="273" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B273" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C273" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H273" s="18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="275" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="C275" s="32"/>
-      <c r="D275" s="21"/>
-      <c r="E275" s="20"/>
-      <c r="F275" s="21"/>
-      <c r="G275" s="20"/>
-      <c r="H275" s="35"/>
-    </row>
-    <row r="276" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="277" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B277" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C277" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B278" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C278" s="22" t="s">
+      <c r="D278" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F278" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C280" s="32"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="20"/>
-      <c r="F280" s="21"/>
-      <c r="G280" s="20"/>
-      <c r="H280" s="21"/>
-    </row>
-    <row r="281" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>289</v>
+        <v>538</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>290</v>
+        <v>532</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="282" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>543</v>
+        <v>260</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>539</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H282" s="18" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>564</v>
+        <v>397</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="C284" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>547</v>
+      <c r="D284" s="34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B285" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C285" s="18" t="s">
+      <c r="C285" s="18"/>
+      <c r="D285" s="34"/>
+    </row>
+    <row r="286" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C286" s="32"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="20"/>
+      <c r="F286" s="21"/>
+      <c r="G286" s="20"/>
+      <c r="H286" s="35"/>
+    </row>
+    <row r="287" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F288" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="287" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C287" s="32"/>
-      <c r="D287" s="21"/>
-      <c r="E287" s="20"/>
-      <c r="F287" s="21"/>
-      <c r="G287" s="20"/>
-      <c r="H287" s="35"/>
-    </row>
-    <row r="288" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C288" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="G288" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="289" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B289" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C289" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B290" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="291" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B291" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C291" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B292" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C292" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="293" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C293" s="22" t="s">
-        <v>555</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="D294" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C295" s="18"/>
-      <c r="D295" s="34"/>
-    </row>
-    <row r="296" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="C296" s="32"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="20"/>
-      <c r="F296" s="21"/>
-      <c r="G296" s="20"/>
-      <c r="H296" s="35"/>
-    </row>
-    <row r="297" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C297" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B298" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C298" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="G298" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7065,7 +7195,7 @@
   <dimension ref="B2:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7651,7 +7781,7 @@
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7772,4 +7902,461 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="30" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="30" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="30" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="30" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="30" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="30" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="30" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="30" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="30" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="30" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="30" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="30" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="30" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="30" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="30" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="30" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="30" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="30" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="30" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="30" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="30" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="30" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="30" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="30" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="30" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="30" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="30" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="30" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="30" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="30" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C53" s="30" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C54" s="30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="30" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="30" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="30" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="30" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="30" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="30" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="30" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="30" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C72" s="30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="30" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="30" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="30" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="30" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="30" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="30" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C82" s="30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="30" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="30" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="30" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="30" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="30" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="30" t="s">
+        <v>662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="675">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>hasProcuringEntityRoleType</t>
-  </si>
-  <si>
-    <t>buysTrough</t>
   </si>
   <si>
     <t>has ProcuringEntityType</t>
@@ -660,9 +657,6 @@
   </si>
   <si>
     <t>Not in TED XSD</t>
-  </si>
-  <si>
-    <t>foaf:mbox</t>
   </si>
   <si>
     <t>skos:prefLabel</t>
@@ -1528,12 +1522,6 @@
     <t>include lots</t>
   </si>
   <si>
-    <t>has e-Auction</t>
-  </si>
-  <si>
-    <t>has dyanmic purchase system</t>
-  </si>
-  <si>
     <t>e-Auction</t>
   </si>
   <si>
@@ -1956,18 +1944,12 @@
     <t>OBJECT_CONTRACT/SHORT_DESCR[1]</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/REFERENCE_NUMBERVAL_ESTIMATED_TOTAL</t>
-  </si>
-  <si>
     <t>OBJECT_CONTRACT/LOT_DIVISION OR NO_LOT_DIVISION</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/[at least 1]</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCRLOT_NO</t>
-  </si>
-  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL</t>
   </si>
   <si>
@@ -2001,9 +1983,6 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL AND RENEWAL_DESCR</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR//ACCEPTED_VARIANTS</t>
-  </si>
-  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS AND OPTIONS_DESCR</t>
   </si>
   <si>
@@ -2104,6 +2083,68 @@
   </si>
   <si>
     <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>In the case of joint procurement involving different countries, state applicable national procurement law</t>
+  </si>
+  <si>
+    <t>hasJointProcurementEntityRoleType</t>
+  </si>
+  <si>
+    <t>ProcuringEntityRoleType</t>
+  </si>
+  <si>
+    <t>If CONTRACTING_BODY/CENTRAL_PURCHASING exists, then :CPB</t>
+  </si>
+  <si>
+    <t>buysTrough / buysOnBehalfOf</t>
+  </si>
+  <si>
+    <t>procurintEntityPrepares</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/VAL_ESTIMATED_TOTAL</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS</t>
+  </si>
+  <si>
+    <t>hasFrameworkContract</t>
+  </si>
+  <si>
+    <t>Framework Agreement</t>
+  </si>
+  <si>
+    <t>- hasExtensionJustification: PROCEDURE/JUSTIFICATION
+- hasFrameworkAgreementDuration:
+- hasFrameworkAgreementType:
+- hasMaximumNumberParticipants:  PROCEDURE/SINGLE_OPERATOR = 1 or PROCEDURE/NB_PARTICIPANTS
+- hasMaximumTotalValue: 
+- hasMaximumValueAllLots:</t>
+  </si>
+  <si>
+    <t>hasDynamicPurchaseSystem</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DPS or PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+  </si>
+  <si>
+    <t>hasEAuction</t>
+  </si>
+  <si>
+    <t>hasSubmissionDeadline</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DATE_RECEIPT_TENDERS, TIME_RECEIPT_TENDERS</t>
+  </si>
+  <si>
+    <t>has mediation party</t>
+  </si>
+  <si>
+    <t>vcard:hasEmail</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2388,12 +2429,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2502,7 +2554,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:T13" totalsRowShown="0">
   <autoFilter ref="B2:T13"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Complex element" dataDxfId="5"/>
+    <tableColumn id="1" name="Complex element" dataDxfId="6"/>
     <tableColumn id="2" name="F01_2014"/>
     <tableColumn id="3" name="F02_2014"/>
     <tableColumn id="4" name="F03_2014"/>
@@ -2527,11 +2579,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C17" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" headerRowCellStyle="Total">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:C17" totalsRowShown="0" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" headerRowCellStyle="Total">
   <autoFilter ref="B2:C17"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="TED XSD" dataDxfId="1"/>
-    <tableColumn id="2" name="ePO Ontology" dataDxfId="0"/>
+    <tableColumn id="1" name="TED XSD" dataDxfId="2"/>
+    <tableColumn id="2" name="ePO Ontology" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2826,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,24 +2904,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2877,94 +2929,94 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2974,28 +3026,28 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -3005,28 +3057,28 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -3036,31 +3088,31 @@
     </row>
     <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -3068,105 +3120,105 @@
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="30" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3185,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H288"/>
+  <dimension ref="B2:H293"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,7 +3268,7 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -3407,18 +3459,18 @@
       <c r="G22" s="20"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>37</v>
+        <v>661</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -3426,268 +3478,280 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>658</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>172</v>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="H26" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>174</v>
+        <v>33</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>202</v>
+      <c r="C32" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="C33" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>207</v>
+      <c r="C34" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>206</v>
+      <c r="C35" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>206</v>
+      <c r="C36" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>206</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>206</v>
+      <c r="C38" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>184</v>
+      <c r="C39" s="18"/>
+      <c r="D39" s="34"/>
+      <c r="F39" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="18"/>
@@ -3696,99 +3760,105 @@
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>206</v>
+      <c r="C40" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>214</v>
-      </c>
       <c r="F41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="20" t="s">
+      <c r="G42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="D46" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>83</v>
+      <c r="F46" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -3796,13 +3866,16 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -3810,3018 +3883,3035 @@
         <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>236</v>
+        <v>44</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>41</v>
+      <c r="C50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>41</v>
+      <c r="C51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>245</v>
+      <c r="C52" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>191</v>
+        <v>9</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>171</v>
+        <v>85</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="G55" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D54" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="G57" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="F59" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H57" s="18" t="s">
+      <c r="F60" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="20" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="20" t="s">
+      <c r="C62" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="D63" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="F63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="G63" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C62" s="18" t="s">
+      <c r="F64" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="H64" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F62" s="2" t="s">
+    </row>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="C66" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="20" t="s">
+      <c r="D67" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C65" s="18" t="s">
+      <c r="H67" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C70" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D73" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="F73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C74" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D71" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C74" s="32" t="s">
+      <c r="C76" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
-    </row>
-    <row r="75" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="D76" s="21"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="20" t="s">
+      <c r="C84" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="C84" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C85" s="18" t="s">
+      <c r="F87" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="H87" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>309</v>
+        <v>223</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C90" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="21"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G98" s="20"/>
+      <c r="H98" s="35"/>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H90" s="18" t="s">
+      <c r="D99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="21"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="37" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="G96" s="20"/>
-      <c r="H96" s="35"/>
-    </row>
-    <row r="97" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="22" t="s">
+      <c r="D100" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="22" t="s">
+      <c r="F100" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D101" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="D101" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>575</v>
+        <v>314</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H104" s="22" t="s">
-        <v>322</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>574</v>
+        <v>51</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>571</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H112" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H105" s="22" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H109" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H110" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H111" s="18"/>
-    </row>
-    <row r="112" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H112" s="18"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F113" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="H113" s="18"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="H114" s="18"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>579</v>
+        <v>136</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H115" s="18" t="s">
-        <v>577</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="F115" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="H115" s="18"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>578</v>
+        <v>316</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H116" s="18" t="s">
-        <v>577</v>
+        <v>247</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>338</v>
+        <v>316</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>575</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>314</v>
+        <v>334</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H117" s="18" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>339</v>
+        <v>574</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="H118" s="18" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C119" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H119" s="18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C120" s="18" t="s">
+      <c r="G120" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>336</v>
+      <c r="G121" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>349</v>
+        <v>223</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
+      </c>
+      <c r="H123" s="18" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="H126" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128" s="21"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G128" s="20"/>
+      <c r="H128" s="35"/>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H124" s="18" t="s">
+      <c r="D129" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="20" t="s">
+      <c r="H129" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="C126" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D126" s="21"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="G126" s="20"/>
-      <c r="H126" s="35"/>
-    </row>
-    <row r="127" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C127" s="18" t="s">
+      <c r="D130" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H130" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>361</v>
-      </c>
       <c r="D131" s="2" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H132" s="2" t="s">
-        <v>368</v>
+      <c r="H132" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
+      </c>
+      <c r="H133" s="18" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>360</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C135" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F135" s="2" t="s">
+      <c r="H138" s="18" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B138" s="37" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C139" s="32" t="s">
+    <row r="140" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D139" s="21"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="35"/>
-    </row>
-    <row r="140" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C140" s="22" t="s">
+      <c r="D141" s="21"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G141" s="20"/>
+      <c r="H141" s="35"/>
+    </row>
+    <row r="142" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>314</v>
+      <c r="F143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="D144" s="34" t="s">
-        <v>137</v>
+        <v>51</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>171</v>
+        <v>313</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>575</v>
+        <v>51</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>399</v>
+        <v>316</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H147" s="22" t="s">
-        <v>322</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>375</v>
+        <v>571</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H148" s="22"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>400</v>
+        <v>51</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H149" s="22" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H150" s="22"/>
+    </row>
+    <row r="151" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="D151" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="H151" s="22"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H152" s="18" t="s">
-        <v>309</v>
+        <v>322</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H153" s="18" t="s">
-        <v>309</v>
+        <v>247</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H154" s="22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H155" s="18"/>
+        <v>247</v>
+      </c>
+      <c r="H155" s="18" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F156" s="36"/>
-      <c r="H156" s="22" t="s">
-        <v>400</v>
+        <v>328</v>
+      </c>
+      <c r="H156" s="18" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>334</v>
+        <v>136</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="H157" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>335</v>
+        <v>136</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>336</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H158" s="18"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>337</v>
+        <v>136</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>336</v>
+        <v>378</v>
+      </c>
+      <c r="F159" s="36"/>
+      <c r="H159" s="22" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C162" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F162" s="2" t="s">
+      <c r="G164" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H166" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H168" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H170" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C172" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" s="21"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G172" s="20"/>
+      <c r="H172" s="35"/>
+    </row>
+    <row r="173" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F175" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G162" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H162" s="38" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B163" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H164" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H165" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C166" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H167" s="22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C169" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D169" s="21"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="G169" s="20"/>
-      <c r="H169" s="35"/>
-    </row>
-    <row r="170" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H173" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C174" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H174" s="18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="G175" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>368</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C176" s="22" t="s">
-        <v>362</v>
+        <v>354</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>171</v>
+        <v>223</v>
+      </c>
+      <c r="H176" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>359</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H177" s="18" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>386</v>
+        <v>581</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>191</v>
+        <v>361</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C179" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F182" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="G182" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H182" s="18"/>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C184" s="32"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="G184" s="20"/>
+      <c r="H184" s="35"/>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="C185" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H179" s="18"/>
-    </row>
-    <row r="181" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C181" s="32"/>
-      <c r="D181" s="21"/>
-      <c r="E181" s="20"/>
-      <c r="F181" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="G181" s="20"/>
-      <c r="H181" s="35"/>
-    </row>
-    <row r="182" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
+      <c r="D185" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C186" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="C182" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C183" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C184" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="D185" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="D186" s="34" t="s">
-        <v>318</v>
+      <c r="D186" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="D187" s="34" t="s">
-        <v>417</v>
+        <v>308</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>71</v>
+        <v>409</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>247</v>
+        <v>412</v>
+      </c>
+      <c r="D188" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>419</v>
+        <v>409</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H189" s="18" t="s">
-        <v>423</v>
+        <v>316</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>420</v>
+        <v>409</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>414</v>
       </c>
       <c r="D190" s="34" t="s">
-        <v>71</v>
+        <v>415</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="D191" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="D192" s="34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H192" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="D193" s="34" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D194" s="34" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D195" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>171</v>
+        <v>70</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D196" s="34" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C197" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>171</v>
+        <v>70</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D197" s="34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F200" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H200" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G200" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>571</v>
+        <v>324</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>572</v>
+        <v>331</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>171</v>
+        <v>247</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F203" s="36"/>
+        <v>328</v>
+      </c>
       <c r="H203" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C204" s="22" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="D204" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H204" s="18" t="s">
-        <v>426</v>
+        <v>370</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>427</v>
+        <v>136</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>336</v>
+        <v>371</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>428</v>
+        <v>136</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>336</v>
+        <v>378</v>
+      </c>
+      <c r="F206" s="36"/>
+      <c r="H206" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>336</v>
+        <v>190</v>
+      </c>
+      <c r="H207" s="18" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>430</v>
+        <v>316</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C209" s="22" t="s">
-        <v>431</v>
+        <v>316</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>433</v>
+        <v>316</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>5</v>
+        <v>322</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="C212" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C216" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="20" t="s">
+      <c r="D216" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C215" s="32"/>
-      <c r="D215" s="21"/>
-      <c r="E215" s="20"/>
-      <c r="F215" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="G215" s="20"/>
-      <c r="H215" s="35"/>
-    </row>
-    <row r="216" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C216" s="19"/>
       <c r="F216" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C218" s="32"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="G218" s="20"/>
+      <c r="H218" s="35"/>
+    </row>
+    <row r="219" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C219" s="19"/>
+      <c r="F219" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B217" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C217" s="22" t="s">
+      <c r="F220" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B218" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B219" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C219" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H219" s="18" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="G220" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="221" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C221" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H222" s="18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="B223" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H223" s="18" t="s">
-        <v>466</v>
+      <c r="G223" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="224" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="225" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>565</v>
+        <v>448</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>532</v>
+        <v>190</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C226" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H226" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C229" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D226" s="34" t="s">
+      <c r="D229" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F226" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G226" s="2"/>
-      <c r="H226" s="18"/>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C227" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="D227" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="F227" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="H227" s="18" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="D228" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C229" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D229" s="34" t="s">
-        <v>458</v>
-      </c>
+      <c r="F229" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G229" s="2"/>
+      <c r="H229" s="18"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C230" s="22" t="s">
-        <v>459</v>
+        <v>245</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>668</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="G230" s="2"/>
+      <c r="H230" s="18"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>460</v>
+        <v>670</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H231" s="18" t="s">
-        <v>478</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="F231" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="G231" s="2"/>
+      <c r="H231" s="18"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>6</v>
+        <v>454</v>
+      </c>
+      <c r="F232" s="36" t="s">
+        <v>467</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C233" s="18" t="s">
-        <v>462</v>
+        <v>245</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>471</v>
       </c>
       <c r="D233" s="34" t="s">
-        <v>463</v>
+        <v>70</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H233" s="18" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H234" s="18" t="s">
-        <v>478</v>
+        <v>455</v>
+      </c>
+      <c r="D234" s="34" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C235" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D235" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="H235" s="18" t="s">
-        <v>478</v>
+      <c r="G235" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C236" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>494</v>
+        <v>245</v>
+      </c>
+      <c r="C236" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="D236" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="18" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C237" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="C237" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D237" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H237" s="18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C238" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C238" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="D238" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="H238" s="18"/>
     </row>
     <row r="239" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C239" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="D239" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C239" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H239" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F240" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F239" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B240" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C240" s="22" t="s">
+      <c r="G240" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H240" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>260</v>
+        <v>481</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="H241" s="1"/>
     </row>
     <row r="242" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>551</v>
+        <v>245</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F243" s="22" t="s">
-        <v>198</v>
+        <v>485</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>551</v>
+        <v>245</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>553</v>
+        <v>286</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C246" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C247" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F247" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C249" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="D249" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B246" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C246" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="247" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B247" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C247" s="22" t="s">
+      <c r="F251" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="G251" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H252" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F247" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H247" s="18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B248" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C248" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H248" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="C250" s="32"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="20"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="20"/>
-      <c r="H250" s="35"/>
-    </row>
-    <row r="251" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C251" s="22" t="s">
+    </row>
+    <row r="254" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C254" s="32"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="35"/>
+    </row>
+    <row r="255" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C256" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="H256" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>506</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B252" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C252" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H252" s="18" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C253" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H253" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B254" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C254" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H254" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="C256" s="32"/>
-      <c r="D256" s="21"/>
-      <c r="E256" s="20"/>
-      <c r="F256" s="21"/>
-      <c r="G256" s="20"/>
-      <c r="H256" s="35"/>
-    </row>
-    <row r="257" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C257" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>171</v>
+      <c r="H257" s="18" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C258" s="38" t="s">
-        <v>516</v>
+        <v>479</v>
+      </c>
+      <c r="C258" s="18" t="s">
+        <v>508</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B259" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C259" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D259" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C260" s="32"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="35"/>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C261" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="H259" s="18" t="s">
+      <c r="D261" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C262" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F262" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="C261" s="32"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="20"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="20"/>
-      <c r="H261" s="35"/>
-    </row>
-    <row r="262" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C262" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H262" s="18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C263" s="18" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
     </row>
     <row r="265" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B265" s="20" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C265" s="32"/>
       <c r="D265" s="21"/>
@@ -6830,303 +6920,367 @@
       <c r="G265" s="20"/>
       <c r="H265" s="35"/>
     </row>
-    <row r="266" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="267" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C267" s="22" t="s">
-        <v>525</v>
+        <v>483</v>
+      </c>
+      <c r="C267" s="18" t="s">
+        <v>518</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>171</v>
+        <v>519</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H267" s="18" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C268" s="22" t="s">
-        <v>526</v>
+        <v>483</v>
+      </c>
+      <c r="C268" s="42" t="s">
+        <v>671</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="F268" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="G268" s="2"/>
+      <c r="H268" s="18"/>
     </row>
     <row r="270" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B270" s="20" t="s">
-        <v>288</v>
+        <v>485</v>
       </c>
       <c r="C270" s="32"/>
       <c r="D270" s="21"/>
       <c r="E270" s="20"/>
       <c r="F270" s="21"/>
       <c r="G270" s="20"/>
-      <c r="H270" s="21"/>
+      <c r="H270" s="35"/>
     </row>
     <row r="271" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>288</v>
+        <v>485</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>289</v>
+        <v>520</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>291</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C272" s="18" t="s">
-        <v>528</v>
+        <v>485</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>521</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H272" s="18" t="s">
-        <v>550</v>
+        <v>495</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C275" s="32"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="21"/>
+    </row>
+    <row r="276" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C273" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C274" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B275" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C275" s="18" t="s">
+      <c r="F276" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C277" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="H277" s="18" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C278" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="277" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C277" s="32"/>
-      <c r="D277" s="21"/>
-      <c r="E277" s="20"/>
-      <c r="F277" s="21"/>
-      <c r="G277" s="20"/>
-      <c r="H277" s="35"/>
-    </row>
-    <row r="278" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C278" s="22" t="s">
-        <v>535</v>
-      </c>
       <c r="D278" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="279" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>536</v>
+        <v>286</v>
+      </c>
+      <c r="C279" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>171</v>
+        <v>528</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C280" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C280" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C282" s="32"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="20"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="20"/>
+      <c r="H282" s="35"/>
+    </row>
+    <row r="283" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F283" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F280" s="2" t="s">
+      <c r="G283" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F287" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G280" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="281" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B281" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C281" s="22" t="s">
+      <c r="G287" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C289" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D289" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C290" s="18"/>
+      <c r="D290" s="34"/>
+    </row>
+    <row r="291" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C291" s="32"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="20"/>
+      <c r="H291" s="35"/>
+    </row>
+    <row r="292" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C292" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B282" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C282" s="22" t="s">
+      <c r="D292" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C293" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B283" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C283" s="22" t="s">
+      <c r="D293" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F293" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B284" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D284" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C285" s="18"/>
-      <c r="D285" s="34"/>
-    </row>
-    <row r="286" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="C286" s="32"/>
-      <c r="D286" s="21"/>
-      <c r="E286" s="20"/>
-      <c r="F286" s="21"/>
-      <c r="G286" s="20"/>
-      <c r="H286" s="35"/>
-    </row>
-    <row r="287" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C287" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C288" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F288" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>171</v>
+      <c r="G293" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7150,39 +7304,39 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7206,427 +7360,427 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
       <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>101</v>
       </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
       <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
         <v>104</v>
       </c>
-      <c r="L2" t="s">
-        <v>105</v>
-      </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" t="s">
         <v>109</v>
       </c>
-      <c r="O2" t="s">
-        <v>110</v>
-      </c>
       <c r="P2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>113</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>114</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>115</v>
-      </c>
-      <c r="T2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -7649,101 +7803,101 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="P22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="Q27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="R28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="R29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
@@ -7781,7 +7935,7 @@
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,104 +7949,104 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>194</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="23"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="23"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="25"/>
     </row>
@@ -7906,10 +8060,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C91"/>
+  <dimension ref="A2:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7918,444 +8072,631 @@
     <col min="3" max="3" width="76.7109375" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="40" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="30" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B12" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>656</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>656</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="30" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>656</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="30" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="30" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="30" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="30" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="30" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="30" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="30" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="30" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="30" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>656</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="30" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="30" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="30" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>656</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="30" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>656</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="30" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="30" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>656</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="30" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>656</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="30" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>656</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="30" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>656</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="30" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="30" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="30" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="30" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="30" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>656</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="30" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="30" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="30" t="s">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C54" s="30" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="30" t="s">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C55" s="30" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="30" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="30" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="30" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="30" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="30" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="30" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="30" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="30" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="30" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="30" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="30" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="30" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="30" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="30" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="30" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C53" s="30" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="30" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="30" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="30" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="30" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="30" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="30" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="30" t="s">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="30" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="30" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="30" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="30" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="30" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C72" s="30" t="s">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="30" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>656</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="30" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>656</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="30" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="30" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="30" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="30" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="30" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>656</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="30" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="30" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C82" s="30" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="30" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="30" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="30" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="30" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="30" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="30" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="30" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="30" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="30" t="s">
-        <v>662</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="TED XSD" sheetId="3" r:id="rId4"/>
     <sheet name="TED to ePO" sheetId="4" r:id="rId5"/>
     <sheet name="TED elements" sheetId="6" r:id="rId6"/>
+    <sheet name="Criterion" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$B$2:$D$57</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="701">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -935,9 +936,6 @@
     <t>LEFTI / CRITERIA_SELECTION</t>
   </si>
   <si>
-    <t>In TED, this is a text, how can we do this mapping?</t>
-  </si>
-  <si>
     <t>Exclusion grounds</t>
   </si>
   <si>
@@ -1152,12 +1150,6 @@
   <si>
     <t>If AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_UNSUCCESSFUL exists: No tenders or requests to participate were received or all were rejected
 If AWARD_CONTRACT/NO_AWARDED_CONTRACT/PROCUREMENT_DISCONTINUED exists: Discontinuation of procedure</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/CONTRACT_NO</t>
-  </si>
-  <si>
-    <t>One per AWARD_CONTRACT/AWARDED_CONTRACT</t>
   </si>
   <si>
     <t>Add the relationship to Award Result ?</t>
@@ -1799,9 +1791,6 @@
     <t>What about the currency?</t>
   </si>
   <si>
-    <t>has guarantee required</t>
-  </si>
-  <si>
     <t xml:space="preserve">LEFTI/ECONOMIC_FINANCIAL_INFO </t>
   </si>
   <si>
@@ -2145,6 +2134,96 @@
   </si>
   <si>
     <t>vcard:hasEmail</t>
+  </si>
+  <si>
+    <t>TED XML LEFTI</t>
+  </si>
+  <si>
+    <t>CRITERION TAXONOMY</t>
+  </si>
+  <si>
+    <t>ECONOMIC_CRITERIA_DOC OR {ECONOMIC_FINANCIAL_INFO and ECONOMIC_FINANCIAL_MIN_LEVEL}</t>
+  </si>
+  <si>
+    <t>TECHNICAL_CRITERIA_DOC OR {TECHNICAL_PROFESSIONAL_INFO AND TECHNICAL_PROFESSIONAL_MIN_LEVEL}</t>
+  </si>
+  <si>
+    <t>RESTRICTED_SHELTERED_WORKSHOP</t>
+  </si>
+  <si>
+    <t>RESTRICTED_SHELTERED_PROGRAM</t>
+  </si>
+  <si>
+    <t>RESERVED_ORGANISATIONS_SERVICE_MISSION</t>
+  </si>
+  <si>
+    <t>DEPOSIT_GUARANTEE_REQUIRED</t>
+  </si>
+  <si>
+    <t>MAIN_FINANCING_CONDITION</t>
+  </si>
+  <si>
+    <t>LEGAL_FORM</t>
+  </si>
+  <si>
+    <t>QUALIFICATION/CONDITIONS</t>
+  </si>
+  <si>
+    <t>QUALIFICATION/METHODS</t>
+  </si>
+  <si>
+    <t>CRITERIA_SELECTION</t>
+  </si>
+  <si>
+    <t>PARTICULAR_PROFESSION OR REFERENCE_TO_LAW</t>
+  </si>
+  <si>
+    <t>PERFORMANCE_CONDITIONS</t>
+  </si>
+  <si>
+    <t>PERFORMANCE_STAFF_QUALIFICATION</t>
+  </si>
+  <si>
+    <t>CRITERION.EXCLUSION.CONFLICT_OF_INTEREST.PROCEDURE_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>Contract terms -&gt; Reserved Contract type</t>
+  </si>
+  <si>
+    <t>Procurement Procedure -&gt; deposit guarantee</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.REFERENCES.WORKS_PERFORMANCE</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.PROFESSIONAL_QUALIFICATIONS</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.SUITABILITY.PROFESSIONAL_REGISTER_ENROLMENT</t>
+  </si>
+  <si>
+    <t>hasEvaluationResult</t>
+  </si>
+  <si>
+    <t>1 ProcurementProcedure has N Evaluation Results (1 evaluation result per AWARD_CONTRACT)</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>hasAwardResult</t>
+  </si>
+  <si>
+    <t>PARTICULAR_PROFESSION/@CTYPE</t>
+  </si>
+  <si>
+    <t>ECONOMIC_CRITERIA_DOC boolean</t>
+  </si>
+  <si>
+    <t>TECHNICAL_CRITERIA_DOC boolean</t>
+  </si>
+  <si>
+    <t>PERFORMANCE_STAFF_QUALIFICATION boolean</t>
   </si>
 </sst>
 </file>
@@ -2324,7 +2403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2430,6 +2509,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2878,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3237,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H293"/>
+  <dimension ref="B2:H294"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,7 +3546,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>32</v>
@@ -3478,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>163</v>
@@ -3499,10 +3581,10 @@
         <v>36</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="22"/>
@@ -3612,7 +3694,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>56</v>
@@ -3662,7 +3744,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>190</v>
@@ -4098,7 +4180,7 @@
         <v>244</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="20"/>
@@ -4288,7 +4370,7 @@
       <c r="B77" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="22" t="s">
         <v>254</v>
       </c>
       <c r="D77" s="34" t="s">
@@ -4296,6 +4378,9 @@
       </c>
       <c r="F77" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -4309,11 +4394,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="22" t="s">
         <v>260</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -4322,68 +4407,84 @@
       <c r="F79" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H79" s="18" t="s">
-        <v>291</v>
-      </c>
+      <c r="G79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H79" s="18"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="22" t="s">
         <v>264</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>265</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="22" t="s">
         <v>268</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>223</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="22" t="s">
         <v>276</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>274</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="22" t="s">
         <v>277</v>
       </c>
       <c r="D83" s="34" t="s">
         <v>275</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="22" t="s">
         <v>254</v>
       </c>
       <c r="D84" s="34" t="s">
         <v>70</v>
       </c>
+      <c r="H84" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C86" s="32" t="s">
         <v>31</v>
@@ -4393,99 +4494,99 @@
       <c r="F86" s="21"/>
       <c r="G86" s="20"/>
       <c r="H86" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="D87" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="F87" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>31</v>
@@ -4494,14 +4595,12 @@
       <c r="E94" s="20"/>
       <c r="F94" s="21"/>
       <c r="G94" s="20"/>
-      <c r="H94" s="35" t="s">
-        <v>293</v>
-      </c>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B97" s="37" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4514,7 +4613,7 @@
       <c r="D98" s="21"/>
       <c r="E98" s="20"/>
       <c r="F98" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="35"/>
@@ -4524,13 +4623,13 @@
         <v>51</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>170</v>
@@ -4541,10 +4640,10 @@
         <v>51</v>
       </c>
       <c r="C100" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>47</v>
@@ -4558,13 +4657,13 @@
         <v>51</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
@@ -4572,13 +4671,13 @@
         <v>51</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4586,13 +4685,13 @@
         <v>51</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D103" s="34" t="s">
         <v>136</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -4600,10 +4699,10 @@
         <v>51</v>
       </c>
       <c r="C104" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D104" s="34" t="s">
         <v>315</v>
-      </c>
-      <c r="D104" s="34" t="s">
-        <v>316</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>170</v>
@@ -4613,11 +4712,14 @@
       <c r="B105" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C105" s="18" t="s">
-        <v>571</v>
+      <c r="C105" s="22" t="s">
+        <v>567</v>
       </c>
       <c r="D105" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4625,19 +4727,19 @@
         <v>51</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>221</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H106" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H106" s="22" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -4645,19 +4747,19 @@
         <v>51</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D107" s="34" t="s">
         <v>70</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -4665,13 +4767,13 @@
         <v>136</v>
       </c>
       <c r="C108" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4679,13 +4781,13 @@
         <v>136</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4693,13 +4795,13 @@
         <v>136</v>
       </c>
       <c r="C110" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -4707,13 +4809,13 @@
         <v>136</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
@@ -4721,13 +4823,13 @@
         <v>136</v>
       </c>
       <c r="C112" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="H112" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4735,13 +4837,13 @@
         <v>136</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H113" s="18"/>
     </row>
@@ -4750,13 +4852,13 @@
         <v>136</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H114" s="18"/>
     </row>
@@ -4765,96 +4867,96 @@
         <v>136</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F115" s="36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H115" s="18"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>170</v>
@@ -4862,100 +4964,109 @@
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C124" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C125" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>352</v>
+      <c r="G125" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>353</v>
+        <v>316</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H126" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="H126" s="18" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>31</v>
@@ -4963,157 +5074,166 @@
       <c r="D128" s="21"/>
       <c r="E128" s="20"/>
       <c r="F128" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="35"/>
     </row>
     <row r="129" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C129" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="C129" s="18" t="s">
-        <v>355</v>
-      </c>
       <c r="D129" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="H132" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>359</v>
+        <v>353</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>696</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>365</v>
+        <v>695</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C134" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>361</v>
+      <c r="G134" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C135" s="18" t="s">
         <v>360</v>
       </c>
+      <c r="C135" s="22" t="s">
+        <v>359</v>
+      </c>
       <c r="D135" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B140" s="37" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5126,7 +5246,7 @@
       <c r="D141" s="21"/>
       <c r="E141" s="20"/>
       <c r="F141" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="35"/>
@@ -5136,13 +5256,13 @@
         <v>51</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>247</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5150,10 +5270,10 @@
         <v>51</v>
       </c>
       <c r="C143" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>47</v>
@@ -5167,13 +5287,13 @@
         <v>51</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
@@ -5181,13 +5301,13 @@
         <v>51</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
@@ -5195,7 +5315,7 @@
         <v>51</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D146" s="34" t="s">
         <v>136</v>
@@ -5206,10 +5326,10 @@
         <v>51</v>
       </c>
       <c r="C147" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D147" s="34" t="s">
         <v>315</v>
-      </c>
-      <c r="D147" s="34" t="s">
-        <v>316</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>170</v>
@@ -5220,10 +5340,10 @@
         <v>51</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>170</v>
@@ -5234,19 +5354,19 @@
         <v>51</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D149" s="34" t="s">
         <v>221</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H149" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
@@ -5254,7 +5374,7 @@
         <v>51</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D150" s="34" t="s">
         <v>70</v>
@@ -5269,13 +5389,13 @@
         <v>51</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H151" s="22"/>
     </row>
@@ -5284,13 +5404,13 @@
         <v>136</v>
       </c>
       <c r="C152" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="H152" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -5298,13 +5418,13 @@
         <v>136</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -5312,13 +5432,13 @@
         <v>136</v>
       </c>
       <c r="C154" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="H154" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
@@ -5326,13 +5446,13 @@
         <v>136</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -5340,13 +5460,13 @@
         <v>136</v>
       </c>
       <c r="C156" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="H156" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
@@ -5354,13 +5474,13 @@
         <v>136</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H157" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -5368,13 +5488,13 @@
         <v>136</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H158" s="18"/>
     </row>
@@ -5383,78 +5503,78 @@
         <v>136</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F159" s="36"/>
       <c r="H159" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C161" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>170</v>
@@ -5462,30 +5582,30 @@
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>170</v>
       </c>
       <c r="H165" s="38" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>223</v>
@@ -5496,30 +5616,30 @@
     </row>
     <row r="167" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>170</v>
@@ -5530,16 +5650,16 @@
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>170</v>
@@ -5547,27 +5667,27 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H170" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C172" s="32" t="s">
         <v>31</v>
@@ -5575,51 +5695,51 @@
       <c r="D172" s="21"/>
       <c r="E172" s="20"/>
       <c r="F172" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="35"/>
     </row>
     <row r="173" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C173" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="C173" s="18" t="s">
-        <v>355</v>
-      </c>
       <c r="D173" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>170</v>
@@ -5627,10 +5747,10 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>223</v>
@@ -5641,50 +5761,50 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>170</v>
@@ -5692,24 +5812,24 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>190</v>
@@ -5717,16 +5837,16 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>170</v>
@@ -5741,23 +5861,23 @@
       <c r="D184" s="21"/>
       <c r="E184" s="20"/>
       <c r="F184" s="21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="35"/>
     </row>
     <row r="185" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>170</v>
@@ -5765,10 +5885,10 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>190</v>
@@ -5782,16 +5902,16 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>170</v>
@@ -5799,10 +5919,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C188" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="D188" s="34" t="s">
         <v>136</v>
@@ -5811,18 +5931,18 @@
         <v>170</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="189" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>170</v>
@@ -5830,13 +5950,13 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D190" s="34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>170</v>
@@ -5847,7 +5967,7 @@
         <v>70</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>245</v>
@@ -5861,13 +5981,13 @@
         <v>70</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D192" s="34" t="s">
         <v>70</v>
       </c>
       <c r="H192" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
@@ -5875,7 +5995,7 @@
         <v>70</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D193" s="34" t="s">
         <v>70</v>
@@ -5886,7 +6006,7 @@
         <v>70</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D194" s="34" t="s">
         <v>51</v>
@@ -5897,7 +6017,7 @@
         <v>70</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D195" s="34" t="s">
         <v>273</v>
@@ -5908,7 +6028,7 @@
         <v>70</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D196" s="34" t="s">
         <v>275</v>
@@ -5919,7 +6039,7 @@
         <v>70</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D197" s="34" t="s">
         <v>253</v>
@@ -5930,7 +6050,7 @@
         <v>70</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D198" s="34" t="s">
         <v>272</v>
@@ -5941,13 +6061,13 @@
         <v>136</v>
       </c>
       <c r="C199" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>170</v>
@@ -5958,13 +6078,13 @@
         <v>136</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>170</v>
@@ -5975,13 +6095,13 @@
         <v>136</v>
       </c>
       <c r="C201" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="F201" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>170</v>
@@ -5992,13 +6112,13 @@
         <v>136</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
@@ -6006,13 +6126,13 @@
         <v>136</v>
       </c>
       <c r="C203" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="H203" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -6020,19 +6140,19 @@
         <v>136</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
@@ -6040,13 +6160,13 @@
         <v>136</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>170</v>
@@ -6057,75 +6177,75 @@
         <v>136</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F206" s="36"/>
       <c r="H206" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>190</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>170</v>
@@ -6133,13 +6253,13 @@
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>152</v>
@@ -6150,16 +6270,16 @@
     </row>
     <row r="213" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>170</v>
@@ -6167,10 +6287,10 @@
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>5</v>
@@ -6178,27 +6298,27 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>170</v>
@@ -6212,7 +6332,7 @@
       <c r="D218" s="21"/>
       <c r="E218" s="20"/>
       <c r="F218" s="21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="35"/>
@@ -6223,7 +6343,7 @@
       </c>
       <c r="C219" s="19"/>
       <c r="F219" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
@@ -6231,13 +6351,13 @@
         <v>245</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>170</v>
@@ -6248,13 +6368,13 @@
         <v>245</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>170</v>
@@ -6265,19 +6385,19 @@
         <v>245</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H222" s="18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -6285,13 +6405,13 @@
         <v>245</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>170</v>
@@ -6302,13 +6422,13 @@
         <v>245</v>
       </c>
       <c r="C224" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>170</v>
@@ -6319,13 +6439,13 @@
         <v>245</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>170</v>
@@ -6336,19 +6456,19 @@
         <v>245</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H226" s="18" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -6356,13 +6476,13 @@
         <v>245</v>
       </c>
       <c r="C227" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="F227" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="F227" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>170</v>
@@ -6372,17 +6492,17 @@
       <c r="B228" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C228" s="22" t="s">
-        <v>561</v>
+      <c r="C228" s="18" t="s">
+        <v>509</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229" spans="2:8" ht="120" x14ac:dyDescent="0.25">
@@ -6406,13 +6526,13 @@
         <v>245</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="18"/>
@@ -6422,13 +6542,13 @@
         <v>245</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F231" s="30" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G231" s="2"/>
       <c r="H231" s="18"/>
@@ -6438,16 +6558,16 @@
         <v>245</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F232" s="36" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
@@ -6455,58 +6575,61 @@
         <v>245</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D233" s="34" t="s">
         <v>70</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C234" s="18" t="s">
-        <v>455</v>
+      <c r="C234" s="22" t="s">
+        <v>693</v>
       </c>
       <c r="D234" s="34" t="s">
-        <v>456</v>
+        <v>353</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C235" s="22" t="s">
-        <v>457</v>
+      <c r="C235" s="18" t="s">
+        <v>452</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>170</v>
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C236" s="18" t="s">
-        <v>458</v>
+      <c r="C236" s="22" t="s">
+        <v>454</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H236" s="18" t="s">
-        <v>474</v>
+        <v>309</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
@@ -6514,13 +6637,13 @@
         <v>245</v>
       </c>
       <c r="C237" s="18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D237" s="34" t="s">
         <v>6</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
@@ -6528,51 +6651,45 @@
         <v>245</v>
       </c>
       <c r="C238" s="18" t="s">
-        <v>673</v>
+        <v>456</v>
       </c>
       <c r="D238" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F238" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="H238" s="18"/>
-    </row>
-    <row r="239" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H238" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C239" s="18" t="s">
-        <v>460</v>
+        <v>669</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H239" s="18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F239" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="H239" s="18"/>
+    </row>
+    <row r="240" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C240" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>479</v>
+      <c r="C240" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D240" s="34" t="s">
+        <v>458</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
+      </c>
+      <c r="H240" s="18" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
@@ -6580,99 +6697,102 @@
         <v>245</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>562</v>
+        <v>486</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H241" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="H242" s="1"/>
     </row>
     <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="244" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>286</v>
+        <v>482</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="246" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>488</v>
+        <v>258</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>170</v>
@@ -6680,16 +6800,16 @@
     </row>
     <row r="247" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>547</v>
+        <v>245</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F247" s="22" t="s">
-        <v>197</v>
+        <v>485</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>170</v>
@@ -6697,406 +6817,412 @@
     </row>
     <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F248" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F249" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C248" s="22" t="s">
+      <c r="G249" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C250" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F248" s="2" t="s">
+      <c r="D250" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C251" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C249" s="22" t="s">
+      <c r="D251" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C252" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B250" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C250" s="22" t="s">
+      <c r="D252" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H252" s="18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C253" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B251" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C251" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H251" s="18" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B252" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C252" s="22" t="s">
+      <c r="D253" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H253" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H252" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="C254" s="32"/>
-      <c r="D254" s="21"/>
-      <c r="E254" s="20"/>
-      <c r="F254" s="21"/>
-      <c r="G254" s="20"/>
-      <c r="H254" s="35"/>
-    </row>
-    <row r="255" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C255" s="22" t="s">
+    </row>
+    <row r="255" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C255" s="32"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="35"/>
+    </row>
+    <row r="256" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C257" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B256" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C256" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="H256" s="18" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C257" s="18" t="s">
+      <c r="H257" s="18" t="s">
         <v>506</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H257" s="18" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C258" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H258" s="18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C259" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H259" s="18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C261" s="32"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="20"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="20"/>
+      <c r="H261" s="35"/>
+    </row>
+    <row r="262" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C262" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H258" s="18" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="C260" s="32"/>
-      <c r="D260" s="21"/>
-      <c r="E260" s="20"/>
-      <c r="F260" s="21"/>
-      <c r="G260" s="20"/>
-      <c r="H260" s="35"/>
-    </row>
-    <row r="261" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C262" s="38" t="s">
-        <v>512</v>
-      </c>
       <c r="D262" s="2" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H262" s="18" t="s">
-        <v>515</v>
+        <v>488</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C263" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="C263" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H263" s="18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C264" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H264" s="18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C266" s="32"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="20"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="20"/>
+      <c r="H266" s="35"/>
+    </row>
+    <row r="267" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C267" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H263" s="18" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="265" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="C265" s="32"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="20"/>
-      <c r="F265" s="21"/>
-      <c r="G265" s="20"/>
-      <c r="H265" s="35"/>
-    </row>
-    <row r="266" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C266" s="22" t="s">
+      <c r="D267" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="G268" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H268" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C269" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F269" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="G269" s="2"/>
+      <c r="H269" s="18"/>
+    </row>
+    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C271" s="32"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="20"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="35"/>
+    </row>
+    <row r="272" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C272" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="F266" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="267" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B267" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C267" s="18" t="s">
+      <c r="D272" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C273" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F267" s="2" t="s">
+      <c r="D273" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C274" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="G267" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H267" s="18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B268" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C268" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F268" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="G268" s="2"/>
-      <c r="H268" s="18"/>
-    </row>
-    <row r="270" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="C270" s="32"/>
-      <c r="D270" s="21"/>
-      <c r="E270" s="20"/>
-      <c r="F270" s="21"/>
-      <c r="G270" s="20"/>
-      <c r="H270" s="35"/>
-    </row>
-    <row r="271" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C271" s="22" t="s">
+      <c r="D274" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F274" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="272" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B272" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C272" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B273" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C273" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="275" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="20" t="s">
+      <c r="G274" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C275" s="32"/>
-      <c r="D275" s="21"/>
-      <c r="E275" s="20"/>
-      <c r="F275" s="21"/>
-      <c r="G275" s="20"/>
-      <c r="H275" s="21"/>
-    </row>
-    <row r="276" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="277" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C276" s="32"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="20"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="20"/>
+      <c r="H276" s="21"/>
+    </row>
+    <row r="277" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C277" s="18" t="s">
-        <v>524</v>
+      <c r="C277" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>526</v>
+        <v>288</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H277" s="18" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C278" s="22" t="s">
-        <v>529</v>
+      <c r="C278" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>545</v>
+        <v>434</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H278" s="18" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C279" s="18" t="s">
+      <c r="C279" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D279" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>528</v>
+      <c r="F279" s="2" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
@@ -7104,182 +7230,196 @@
         <v>286</v>
       </c>
       <c r="C280" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D280" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="282" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="20" t="s">
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C281" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C282" s="32"/>
-      <c r="D282" s="21"/>
-      <c r="E282" s="20"/>
-      <c r="F282" s="21"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="35"/>
-    </row>
-    <row r="283" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C283" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F283" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="284" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C283" s="32"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="20"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="20"/>
+      <c r="H283" s="35"/>
+    </row>
+    <row r="284" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>391</v>
+        <v>534</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="286" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C289" s="18" t="s">
-        <v>542</v>
-      </c>
-      <c r="D289" s="34" t="s">
+      <c r="C289" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D290" s="34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C290" s="18"/>
-      <c r="D290" s="34"/>
-    </row>
-    <row r="291" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="C291" s="32"/>
-      <c r="D291" s="21"/>
-      <c r="E291" s="20"/>
-      <c r="F291" s="21"/>
-      <c r="G291" s="20"/>
-      <c r="H291" s="35"/>
-    </row>
-    <row r="292" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C292" s="22" t="s">
+      <c r="G290" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C291" s="18"/>
+      <c r="D291" s="34"/>
+    </row>
+    <row r="292" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C292" s="32"/>
+      <c r="D292" s="21"/>
+      <c r="E292" s="20"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="20"/>
+      <c r="H292" s="35"/>
+    </row>
+    <row r="293" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F293" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C293" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="G293" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8060,125 +8200,183 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C92"/>
+  <dimension ref="A2:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" customWidth="1"/>
+    <col min="6" max="7" width="57.28515625" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" s="41" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="C6" s="40" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="30" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>652</v>
+      </c>
+      <c r="B12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C10" s="30" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>656</v>
-      </c>
-      <c r="B12" t="s">
-        <v>657</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>656</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>656</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8186,23 +8384,23 @@
         <v>93</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8210,7 +8408,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8218,12 +8416,12 @@
         <v>93</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="30" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8231,7 +8429,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8239,7 +8437,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8247,7 +8445,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8255,12 +8453,12 @@
         <v>93</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>135</v>
@@ -8271,7 +8469,7 @@
         <v>93</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8279,12 +8477,12 @@
         <v>93</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="30" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,7 +8490,7 @@
         <v>93</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8308,7 +8506,7 @@
         <v>93</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8316,15 +8514,15 @@
         <v>93</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8332,55 +8530,55 @@
         <v>93</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8396,7 +8594,7 @@
         <v>93</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8404,7 +8602,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8412,7 +8610,7 @@
         <v>93</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8420,193 +8618,510 @@
         <v>93</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C52" s="30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>89</v>
+      </c>
+      <c r="R52" t="s">
+        <v>89</v>
+      </c>
+      <c r="S52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C53" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="D53" t="s">
+        <v>621</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="C54" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="C55" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D56" s="30"/>
+      <c r="F56" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="P56" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q56" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="R56" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="S56" s="30"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C57" s="30" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="30" t="s">
+      <c r="D57" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="P57" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q57" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="R57" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="S57" s="30" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C58" s="30" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C55" s="30" t="s">
+      <c r="D58" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="P58" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q58" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="R58" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="S58" s="30" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="P59" s="30" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="30" t="s">
+      <c r="Q59" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="R59" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="S59" s="30"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="30" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="30" t="s">
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="I63" s="30" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="30" t="s">
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="I64" s="30" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="30" t="s">
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="30" t="s">
+      <c r="L65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C66" s="30" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="30" t="s">
+      <c r="D66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="L66" s="30"/>
+      <c r="P66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="R66" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="S66" s="30" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C67" s="30" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="30" t="s">
+      <c r="D67" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="P67" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q67" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="R67" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="S67" s="30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C68" s="30" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="30" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="30" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="30" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="I68" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="P68" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q68" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="R68" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="S68" s="30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C70" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
       <c r="C71" s="30" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="30" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="30" t="s">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="30" t="s">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="30" t="s">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="30" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="30" t="s">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -8619,7 +9134,7 @@
         <v>93</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -8627,15 +9142,15 @@
         <v>93</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -8643,15 +9158,15 @@
         <v>93</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -8659,7 +9174,7 @@
         <v>93</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,7 +9182,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -8675,20 +9190,20 @@
         <v>93</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C92" s="30" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -8700,4 +9215,179 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="D4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="D8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="D10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="D16" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="D17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="D18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="705">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -550,10 +550,6 @@
 - CE root elements: F04, F05, F06, F07, F22
 - Both, root elements: F08, F12, F13, F15
 F20?</t>
-  </si>
-  <si>
-    <t>F20 does not have CA_ACTIVITY nor CE_ACTIVITY defined.
-Procuring Entity type values has changed -&gt; CE mapping not possible</t>
   </si>
   <si>
     <t>Done</t>
@@ -825,16 +821,10 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/LOT_NO</t>
   </si>
   <si>
-    <t>This solution depends on how TED XSD works regarding the TED XSD</t>
-  </si>
-  <si>
     <t>defined as part of</t>
   </si>
   <si>
     <t>Tender Evaluation Terms</t>
-  </si>
-  <si>
-    <t>To implement it when OBJECT_CONTRACT/LOT_DIVISION</t>
   </si>
   <si>
     <t>hasCriteriaTaxonomy</t>
@@ -1751,9 +1741,6 @@
     <t>ccts:Identifier</t>
   </si>
   <si>
-    <t>@DOC_ID</t>
-  </si>
-  <si>
     <t>hasProcurementProjectTitle</t>
   </si>
   <si>
@@ -2107,130 +2094,154 @@
     <t>Framework Agreement</t>
   </si>
   <si>
-    <t>- hasExtensionJustification: PROCEDURE/JUSTIFICATION
+    <t>hasDynamicPurchaseSystem</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DPS or PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+  </si>
+  <si>
+    <t>hasEAuction</t>
+  </si>
+  <si>
+    <t>hasSubmissionDeadline</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DATE_RECEIPT_TENDERS, TIME_RECEIPT_TENDERS</t>
+  </si>
+  <si>
+    <t>has mediation party</t>
+  </si>
+  <si>
+    <t>vcard:hasEmail</t>
+  </si>
+  <si>
+    <t>TED XML LEFTI</t>
+  </si>
+  <si>
+    <t>CRITERION TAXONOMY</t>
+  </si>
+  <si>
+    <t>ECONOMIC_CRITERIA_DOC OR {ECONOMIC_FINANCIAL_INFO and ECONOMIC_FINANCIAL_MIN_LEVEL}</t>
+  </si>
+  <si>
+    <t>TECHNICAL_CRITERIA_DOC OR {TECHNICAL_PROFESSIONAL_INFO AND TECHNICAL_PROFESSIONAL_MIN_LEVEL}</t>
+  </si>
+  <si>
+    <t>RESTRICTED_SHELTERED_WORKSHOP</t>
+  </si>
+  <si>
+    <t>RESTRICTED_SHELTERED_PROGRAM</t>
+  </si>
+  <si>
+    <t>RESERVED_ORGANISATIONS_SERVICE_MISSION</t>
+  </si>
+  <si>
+    <t>DEPOSIT_GUARANTEE_REQUIRED</t>
+  </si>
+  <si>
+    <t>MAIN_FINANCING_CONDITION</t>
+  </si>
+  <si>
+    <t>LEGAL_FORM</t>
+  </si>
+  <si>
+    <t>QUALIFICATION/CONDITIONS</t>
+  </si>
+  <si>
+    <t>QUALIFICATION/METHODS</t>
+  </si>
+  <si>
+    <t>CRITERIA_SELECTION</t>
+  </si>
+  <si>
+    <t>PARTICULAR_PROFESSION OR REFERENCE_TO_LAW</t>
+  </si>
+  <si>
+    <t>PERFORMANCE_CONDITIONS</t>
+  </si>
+  <si>
+    <t>PERFORMANCE_STAFF_QUALIFICATION</t>
+  </si>
+  <si>
+    <t>CRITERION.EXCLUSION.CONFLICT_OF_INTEREST.PROCEDURE_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>Contract terms -&gt; Reserved Contract type</t>
+  </si>
+  <si>
+    <t>Procurement Procedure -&gt; deposit guarantee</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.REFERENCES.WORKS_PERFORMANCE</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.PROFESSIONAL_QUALIFICATIONS</t>
+  </si>
+  <si>
+    <t>CRITERION.SELECTION.SUITABILITY.PROFESSIONAL_REGISTER_ENROLMENT</t>
+  </si>
+  <si>
+    <t>hasEvaluationResult</t>
+  </si>
+  <si>
+    <t>1 ProcurementProcedure has N Evaluation Results (1 evaluation result per AWARD_CONTRACT)</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>hasAwardResult</t>
+  </si>
+  <si>
+    <t>PARTICULAR_PROFESSION/@CTYPE</t>
+  </si>
+  <si>
+    <t>ECONOMIC_CRITERIA_DOC boolean</t>
+  </si>
+  <si>
+    <t>TECHNICAL_CRITERIA_DOC boolean</t>
+  </si>
+  <si>
+    <t>PERFORMANCE_STAFF_QUALIFICATION boolean</t>
+  </si>
+  <si>
+    <t>The contract is awarded by a central purchasing body (only when jointprocurement)</t>
+  </si>
+  <si>
+    <t>Which one is Central purchasing?</t>
+  </si>
+  <si>
+    <t>Procuring Entity Type depends on CE_* or CA_*</t>
+  </si>
+  <si>
+    <t>@DOC_ID, OBJECT_CONTRACT/REFERENCE_NUMBER</t>
+  </si>
+  <si>
+    <t>Same as NUTS but as String</t>
+  </si>
+  <si>
+    <t>No, as it is done in Award Criterion</t>
+  </si>
+  <si>
+    <t>- hasExtensionJustification: PROCEDURE/FRAMEWORK/JUSTIFICATION
 - hasFrameworkAgreementDuration:
 - hasFrameworkAgreementType:
-- hasMaximumNumberParticipants:  PROCEDURE/SINGLE_OPERATOR = 1 or PROCEDURE/NB_PARTICIPANTS
+- hasMaximumNumberParticipants:  PROCEDURE/FRAMEWORK/SINGLE_OPERATOR = 1 or PROCEDURE/FRAMEWORK/NB_PARTICIPANTS
 - hasMaximumTotalValue: 
 - hasMaximumValueAllLots:</t>
   </si>
   <si>
-    <t>hasDynamicPurchaseSystem</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DPS or PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
-  </si>
-  <si>
-    <t>hasEAuction</t>
-  </si>
-  <si>
-    <t>hasSubmissionDeadline</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DATE_RECEIPT_TENDERS, TIME_RECEIPT_TENDERS</t>
-  </si>
-  <si>
-    <t>has mediation party</t>
-  </si>
-  <si>
-    <t>vcard:hasEmail</t>
-  </si>
-  <si>
-    <t>TED XML LEFTI</t>
-  </si>
-  <si>
-    <t>CRITERION TAXONOMY</t>
-  </si>
-  <si>
-    <t>ECONOMIC_CRITERIA_DOC OR {ECONOMIC_FINANCIAL_INFO and ECONOMIC_FINANCIAL_MIN_LEVEL}</t>
-  </si>
-  <si>
-    <t>TECHNICAL_CRITERIA_DOC OR {TECHNICAL_PROFESSIONAL_INFO AND TECHNICAL_PROFESSIONAL_MIN_LEVEL}</t>
-  </si>
-  <si>
-    <t>RESTRICTED_SHELTERED_WORKSHOP</t>
-  </si>
-  <si>
-    <t>RESTRICTED_SHELTERED_PROGRAM</t>
-  </si>
-  <si>
-    <t>RESERVED_ORGANISATIONS_SERVICE_MISSION</t>
-  </si>
-  <si>
-    <t>DEPOSIT_GUARANTEE_REQUIRED</t>
-  </si>
-  <si>
-    <t>MAIN_FINANCING_CONDITION</t>
-  </si>
-  <si>
-    <t>LEGAL_FORM</t>
-  </si>
-  <si>
-    <t>QUALIFICATION/CONDITIONS</t>
-  </si>
-  <si>
-    <t>QUALIFICATION/METHODS</t>
-  </si>
-  <si>
-    <t>CRITERIA_SELECTION</t>
-  </si>
-  <si>
-    <t>PARTICULAR_PROFESSION OR REFERENCE_TO_LAW</t>
-  </si>
-  <si>
-    <t>PERFORMANCE_CONDITIONS</t>
-  </si>
-  <si>
-    <t>PERFORMANCE_STAFF_QUALIFICATION</t>
-  </si>
-  <si>
-    <t>CRITERION.EXCLUSION.CONFLICT_OF_INTEREST.PROCEDURE_PARTICIPATION</t>
-  </si>
-  <si>
-    <t>Contract terms -&gt; Reserved Contract type</t>
-  </si>
-  <si>
-    <t>Procurement Procedure -&gt; deposit guarantee</t>
-  </si>
-  <si>
-    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.REFERENCES.WORKS_PERFORMANCE</t>
-  </si>
-  <si>
-    <t>CRITERION.SELECTION.TECHNICAL_PROFESSIONAL_ABILITY.TECHNICAL.PROFESSIONAL_QUALIFICATIONS</t>
-  </si>
-  <si>
-    <t>CRITERION.SELECTION.SUITABILITY.PROFESSIONAL_REGISTER_ENROLMENT</t>
-  </si>
-  <si>
-    <t>hasEvaluationResult</t>
-  </si>
-  <si>
-    <t>1 ProcurementProcedure has N Evaluation Results (1 evaluation result per AWARD_CONTRACT)</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
-  </si>
-  <si>
-    <t>hasAwardResult</t>
-  </si>
-  <si>
-    <t>PARTICULAR_PROFESSION/@CTYPE</t>
-  </si>
-  <si>
-    <t>ECONOMIC_CRITERIA_DOC boolean</t>
-  </si>
-  <si>
-    <t>TECHNICAL_CRITERIA_DOC boolean</t>
-  </si>
-  <si>
-    <t>PERFORMANCE_STAFF_QUALIFICATION boolean</t>
+    <t>PROCEDURE/INFO_ADD_EAUCTION</t>
+  </si>
+  <si>
+    <t>PROCEDURE/EAUCTION_USED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2334,8 +2345,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2358,6 +2375,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2403,7 +2426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2512,6 +2535,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3074,7 +3104,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>80</v>
@@ -3082,7 +3112,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>81</v>
@@ -3246,7 +3276,7 @@
         <v>72</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="75" x14ac:dyDescent="0.25">
@@ -3277,10 +3307,10 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
@@ -3319,10 +3349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H294"/>
+  <dimension ref="B2:H293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A250" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>32</v>
@@ -3560,7 +3590,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>163</v>
@@ -3569,7 +3599,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" s="22"/>
     </row>
@@ -3581,13 +3611,15 @@
         <v>36</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="22" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="26" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -3603,10 +3635,10 @@
         <v>168</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>169</v>
+        <v>169</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -3614,7 +3646,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>164</v>
@@ -3623,10 +3655,10 @@
         <v>165</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -3640,13 +3672,13 @@
         <v>167</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -3663,7 +3695,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>79</v>
@@ -3683,10 +3715,10 @@
         <v>132</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -3694,7 +3726,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>56</v>
@@ -3708,16 +3740,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="18"/>
     </row>
@@ -3726,16 +3758,16 @@
         <v>7</v>
       </c>
       <c r="C33" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>190</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="18"/>
     </row>
@@ -3744,16 +3776,16 @@
         <v>7</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="18"/>
     </row>
@@ -3762,13 +3794,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>203</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="18"/>
     </row>
@@ -3777,16 +3809,16 @@
         <v>7</v>
       </c>
       <c r="C36" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>205</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="18"/>
     </row>
@@ -3795,16 +3827,16 @@
         <v>7</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" s="18"/>
     </row>
@@ -3813,16 +3845,16 @@
         <v>7</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="18"/>
     </row>
@@ -3833,7 +3865,7 @@
       <c r="C39" s="18"/>
       <c r="D39" s="34"/>
       <c r="F39" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="18"/>
@@ -3843,16 +3875,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H40" s="18"/>
     </row>
@@ -3861,16 +3893,16 @@
         <v>7</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H41" s="18"/>
     </row>
@@ -3879,16 +3911,16 @@
         <v>7</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H42" s="18"/>
     </row>
@@ -3897,16 +3929,16 @@
         <v>7</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H43" s="18"/>
     </row>
@@ -3915,7 +3947,7 @@
     </row>
     <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>31</v>
@@ -3928,19 +3960,19 @@
     </row>
     <row r="46" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>223</v>
-      </c>
       <c r="F46" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -3971,7 +4003,7 @@
         <v>43</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>82</v>
@@ -3996,16 +4028,16 @@
         <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4013,16 +4045,16 @@
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -4067,120 +4099,120 @@
         <v>48</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="20"/>
@@ -4190,41 +4222,41 @@
     </row>
     <row r="63" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="D63" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="F63" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H64" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C66" s="32" t="s">
         <v>31</v>
@@ -4235,421 +4267,431 @@
       <c r="G66" s="20"/>
       <c r="H66" s="21"/>
     </row>
-    <row r="67" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H68" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="D77" s="34" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="21"/>
-    </row>
-    <row r="77" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="F78" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H78" s="18"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H79" s="18"/>
+        <v>262</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>311</v>
+      <c r="D81" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>273</v>
+      <c r="B82" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>274</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="20" t="s">
+      <c r="H83" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C86" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="35" t="s">
+      <c r="H86" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="C87" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D87" s="34" t="s">
         <v>295</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C88" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C89" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F89" s="2" t="s">
+    </row>
+    <row r="90" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C90" s="18" t="s">
+      <c r="D90" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H91" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C91" s="18" t="s">
+    <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="35"/>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="H97" s="35"/>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" s="21"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="35"/>
-    </row>
-    <row r="95" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="37" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="G98" s="20"/>
-      <c r="H98" s="35"/>
-    </row>
-    <row r="99" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>565</v>
+        <v>47</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C100" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -4657,41 +4699,41 @@
         <v>51</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C102" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="18" t="s">
-        <v>313</v>
+      <c r="C103" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H103" s="18" t="s">
-        <v>568</v>
+        <v>312</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -4699,81 +4741,81 @@
         <v>51</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>314</v>
+        <v>563</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>567</v>
+        <v>314</v>
       </c>
       <c r="D105" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H105" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C106" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D106" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H106" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="D107" s="34" t="s">
-        <v>70</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H107" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4781,27 +4823,27 @@
         <v>136</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>379</v>
+        <v>246</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -4809,30 +4851,31 @@
         <v>136</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H112" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>136</v>
       </c>
@@ -4840,446 +4883,445 @@
         <v>366</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="H113" s="18"/>
     </row>
-    <row r="114" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F114" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F114" s="36" t="s">
         <v>373</v>
       </c>
       <c r="H114" s="18"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>374</v>
+        <v>312</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F115" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="H115" s="18"/>
+        <v>246</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>567</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>311</v>
+        <v>330</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>570</v>
+        <v>312</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H118" s="18" t="s">
-        <v>569</v>
+        <v>330</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>335</v>
+        <v>312</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>337</v>
+        <v>313</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="H122" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C123" s="22" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C123" s="18" t="s">
+      <c r="D123" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H123" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F123" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C124" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="G124" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C125" s="22" t="s">
         <v>349</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="C127" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="G127" s="20"/>
+      <c r="H127" s="35"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C128" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C126" s="22" t="s">
+      <c r="D128" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H126" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="20" t="s">
+      <c r="D129" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C128" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D128" s="21"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="G128" s="20"/>
-      <c r="H128" s="35"/>
-    </row>
-    <row r="129" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C129" s="18" t="s">
+      <c r="D130" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>356</v>
-      </c>
       <c r="D131" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>170</v>
+        <v>222</v>
+      </c>
+      <c r="H131" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>357</v>
+        <v>350</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>691</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H132" s="18" t="s">
-        <v>83</v>
+        <v>313</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H132" s="22" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>696</v>
+        <v>356</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>695</v>
+        <v>357</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H133" s="22" t="s">
-        <v>362</v>
+        <v>169</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>363</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>378</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C137" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="H137" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="H138" s="18" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B140" s="37" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="20" t="s">
+    </row>
+    <row r="139" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C141" s="32" t="s">
+      <c r="C140" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="21"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="G141" s="20"/>
-      <c r="H141" s="35"/>
-    </row>
-    <row r="142" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="21"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="G140" s="20"/>
+      <c r="H140" s="35"/>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C143" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
@@ -5287,38 +5329,38 @@
         <v>51</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C145" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>311</v>
+      <c r="C145" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>313</v>
+      <c r="C146" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>136</v>
+        <v>312</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
@@ -5326,91 +5368,94 @@
         <v>51</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>314</v>
+        <v>563</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>567</v>
+        <v>314</v>
       </c>
       <c r="D148" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H148" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="D149" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>394</v>
+        <v>70</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H149" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H149" s="22"/>
+    </row>
+    <row r="150" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>370</v>
+        <v>657</v>
       </c>
       <c r="D150" s="34" t="s">
-        <v>70</v>
+        <v>658</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H150" s="22"/>
     </row>
-    <row r="151" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="D151" s="34" t="s">
-        <v>662</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="H151" s="22"/>
+        <v>317</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
@@ -5418,13 +5463,13 @@
         <v>136</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
@@ -5432,13 +5477,13 @@
         <v>136</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>395</v>
+        <v>246</v>
+      </c>
+      <c r="H154" s="18" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
@@ -5446,13 +5491,13 @@
         <v>136</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
@@ -5460,16 +5505,16 @@
         <v>136</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H156" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="H156" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>136</v>
       </c>
@@ -5477,517 +5522,514 @@
         <v>366</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H157" s="18"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H158" s="18"/>
+        <v>372</v>
+      </c>
+      <c r="F158" s="36"/>
+      <c r="H158" s="22" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>374</v>
+        <v>312</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F159" s="36"/>
-      <c r="H159" s="22" t="s">
-        <v>395</v>
+        <v>246</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H164" s="38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>337</v>
+        <v>313</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H165" s="38" t="s">
-        <v>572</v>
+        <v>222</v>
+      </c>
+      <c r="H165" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C167" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>333</v>
+      <c r="F167" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>400</v>
+        <v>572</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H168" s="18" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H169" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C169" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="D169" s="2" t="s">
+    </row>
+    <row r="171" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H170" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="20" t="s">
+      <c r="C171" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D171" s="21"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="G171" s="20"/>
+      <c r="H171" s="35"/>
+    </row>
+    <row r="172" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C172" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D172" s="21"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="G172" s="20"/>
-      <c r="H172" s="35"/>
-    </row>
-    <row r="173" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C173" s="18" t="s">
+      <c r="D174" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B174" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C174" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>356</v>
-      </c>
       <c r="D175" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>170</v>
+        <v>222</v>
+      </c>
+      <c r="H175" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>223</v>
+        <v>313</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>358</v>
+        <v>350</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>573</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H177" s="18" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>577</v>
+        <v>356</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>363</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>170</v>
+        <v>72</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>311</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C182" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H181" s="18"/>
+    </row>
+    <row r="183" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C183" s="32"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G183" s="20"/>
+      <c r="H183" s="35"/>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="C184" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="D184" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C185" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H182" s="18"/>
-    </row>
-    <row r="184" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C184" s="32"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="G184" s="20"/>
-      <c r="H184" s="35"/>
-    </row>
-    <row r="185" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>407</v>
-      </c>
       <c r="D185" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>417</v>
+        <v>254</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>255</v>
+        <v>413</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C187" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="C187" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>416</v>
+      <c r="D187" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C188" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D188" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D189" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="D188" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B189" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C189" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="D189" s="34" t="s">
-        <v>315</v>
-      </c>
       <c r="G189" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>406</v>
+        <v>70</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="D190" s="34" t="s">
-        <v>412</v>
+        <v>410</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C191" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C191" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D191" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H191" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D192" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="H192" s="18" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
@@ -5995,10 +6037,10 @@
         <v>70</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="D193" s="34" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
@@ -6006,32 +6048,32 @@
         <v>70</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D194" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D195" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D196" s="34" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
@@ -6039,38 +6081,44 @@
         <v>70</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D197" s="34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="D198" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
@@ -6078,16 +6126,16 @@
         <v>136</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
@@ -6095,16 +6143,13 @@
         <v>136</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
@@ -6112,47 +6157,50 @@
         <v>136</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>326</v>
+        <v>559</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>327</v>
+        <v>364</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>563</v>
+        <v>366</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
@@ -6160,1267 +6208,1258 @@
         <v>136</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>170</v>
+        <v>372</v>
+      </c>
+      <c r="F205" s="36"/>
+      <c r="H205" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>374</v>
+        <v>312</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F206" s="36"/>
-      <c r="H206" s="2" t="s">
-        <v>559</v>
+        <v>189</v>
+      </c>
+      <c r="H206" s="18" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H207" s="18" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>424</v>
+        <v>312</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>422</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C211" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C212" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C212" s="22" t="s">
+      <c r="D212" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C213" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>428</v>
-      </c>
       <c r="D213" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>5</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C216" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C218" s="32"/>
-      <c r="D218" s="21"/>
-      <c r="E218" s="20"/>
-      <c r="F218" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="G218" s="20"/>
-      <c r="H218" s="35"/>
-    </row>
-    <row r="219" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C217" s="32"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G217" s="20"/>
+      <c r="H217" s="35"/>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C218" s="19"/>
+      <c r="F218" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C219" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="F219" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G219" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C220" s="22" t="s">
         <v>437</v>
       </c>
       <c r="D220" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F220" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F220" s="2" t="s">
+      <c r="G220" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C221" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C221" s="22" t="s">
+      <c r="D221" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H221" s="18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C222" s="22" t="s">
         <v>440</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>442</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H222" s="18" t="s">
-        <v>578</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" ht="135" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C225" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C225" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F225" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H225" s="18" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>460</v>
+        <v>244</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H226" s="18" t="s">
-        <v>461</v>
+        <v>348</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="227" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>349</v>
+        <v>244</v>
+      </c>
+      <c r="C227" s="18" t="s">
+        <v>506</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>350</v>
+        <v>522</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C228" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>525</v>
+        <v>244</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D228" s="34" t="s">
+        <v>2</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H228" s="18"/>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C229" s="18" t="s">
-        <v>34</v>
+        <v>244</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>659</v>
       </c>
       <c r="D229" s="34" t="s">
-        <v>2</v>
+        <v>467</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G229" s="2"/>
+        <v>660</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H229" s="18"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C230" s="18" t="s">
-        <v>664</v>
+        <v>244</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>661</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="G230" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="F230" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H230" s="18"/>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>666</v>
+        <v>447</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="F231" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="G231" s="2"/>
-      <c r="H231" s="18"/>
+        <v>448</v>
+      </c>
+      <c r="F231" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="H231" s="18" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C232" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D232" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="D233" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D234" s="34" t="s">
         <v>450</v>
-      </c>
-      <c r="D232" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="F232" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="H232" s="18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B233" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C233" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="D233" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B234" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C234" s="22" t="s">
-        <v>693</v>
-      </c>
-      <c r="D234" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C235" s="18" t="s">
-        <v>452</v>
+        <v>244</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>451</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>453</v>
+        <v>306</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C236" s="22" t="s">
-        <v>454</v>
+        <v>244</v>
+      </c>
+      <c r="C236" s="18" t="s">
+        <v>452</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>170</v>
+        <v>6</v>
+      </c>
+      <c r="H236" s="18" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C237" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D237" s="34" t="s">
         <v>6</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C238" s="18" t="s">
-        <v>456</v>
+        <v>664</v>
       </c>
       <c r="D238" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H238" s="18" t="s">
+      <c r="F238" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="H238" s="18"/>
+    </row>
+    <row r="239" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C239" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H239" s="18" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C239" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="D239" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="H239" s="18"/>
-    </row>
-    <row r="240" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C240" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D240" s="34" t="s">
-        <v>458</v>
+        <v>244</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H240" s="18" t="s">
-        <v>474</v>
+        <v>483</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C242" s="22" t="s">
+      <c r="D242" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="F242" s="2" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H242" s="1"/>
+        <v>169</v>
+      </c>
     </row>
     <row r="243" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C244" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="D244" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F244" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B244" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C244" s="22" t="s">
+      <c r="G244" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C246" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F244" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="245" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B245" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C245" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F245" s="2" t="s">
+      <c r="F246" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G245" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B246" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C246" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="G246" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="247" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>245</v>
+        <v>541</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>497</v>
+        <v>16</v>
+      </c>
+      <c r="F247" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="248" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C249" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="C248" s="22" t="s">
+      <c r="D249" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C252" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F248" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C249" s="22" t="s">
-        <v>545</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B250" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C250" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="D250" s="2" t="s">
+      <c r="D252" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C254" s="32"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="35"/>
+    </row>
+    <row r="255" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C256" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H256" s="18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="F250" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B251" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C251" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B252" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C252" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H252" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C253" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H253" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="255" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C255" s="32"/>
-      <c r="D255" s="21"/>
-      <c r="E255" s="20"/>
-      <c r="F255" s="21"/>
-      <c r="G255" s="20"/>
-      <c r="H255" s="35"/>
-    </row>
-    <row r="256" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C257" s="18" t="s">
+      <c r="D257" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="H257" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D258" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H258" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="H258" s="18" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B259" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C259" s="18" t="s">
+    </row>
+    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C260" s="32"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="20"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="20"/>
+      <c r="H260" s="35"/>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C261" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H259" s="18" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C261" s="32"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="20"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="20"/>
-      <c r="H261" s="35"/>
-    </row>
-    <row r="262" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D261" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C262" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="C262" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F262" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>170</v>
+      <c r="H262" s="18" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C263" s="38" t="s">
-        <v>509</v>
+        <v>475</v>
+      </c>
+      <c r="C263" s="18" t="s">
+        <v>507</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F263" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H263" s="18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" s="32"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="35"/>
+    </row>
+    <row r="266" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H263" s="18" t="s">
+      <c r="F266" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C267" s="18" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B264" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C264" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H264" s="18" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="C266" s="32"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="20"/>
-      <c r="F266" s="21"/>
-      <c r="G266" s="20"/>
-      <c r="H266" s="35"/>
-    </row>
-    <row r="267" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C267" s="22" t="s">
+      <c r="D267" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F267" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="G267" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H267" s="18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C268" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F268" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H268" s="18"/>
+    </row>
+    <row r="270" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C270" s="32"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="35"/>
+    </row>
+    <row r="271" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C271" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="F267" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="268" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B268" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C268" s="18" t="s">
+      <c r="D271" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C272" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F268" s="2" t="s">
+      <c r="D272" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C273" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="G268" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H268" s="18" t="s">
+      <c r="D273" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C275" s="32"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="21"/>
+    </row>
+    <row r="276" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C277" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H277" s="18" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B269" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C269" s="42" t="s">
-        <v>667</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F269" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="G269" s="2"/>
-      <c r="H269" s="18"/>
-    </row>
-    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="C271" s="32"/>
-      <c r="D271" s="21"/>
-      <c r="E271" s="20"/>
-      <c r="F271" s="21"/>
-      <c r="G271" s="20"/>
-      <c r="H271" s="35"/>
-    </row>
-    <row r="272" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C272" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="273" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B273" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C273" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="276" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C276" s="32"/>
-      <c r="D276" s="21"/>
-      <c r="E276" s="20"/>
-      <c r="F276" s="21"/>
-      <c r="G276" s="20"/>
-      <c r="H276" s="21"/>
-    </row>
-    <row r="277" spans="2:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C277" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="278" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C278" s="18" t="s">
-        <v>521</v>
+        <v>283</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>523</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H278" s="18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>526</v>
+        <v>283</v>
+      </c>
+      <c r="C279" s="18" t="s">
+        <v>521</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D280" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C282" s="32"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="20"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="20"/>
+      <c r="H282" s="35"/>
+    </row>
+    <row r="283" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C283" s="22" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B281" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C281" s="18" t="s">
+      <c r="D283" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="283" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C283" s="32"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="20"/>
-      <c r="F283" s="21"/>
-      <c r="G283" s="20"/>
-      <c r="H283" s="35"/>
-    </row>
-    <row r="284" spans="2:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F283" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C284" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C286" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="285" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B285" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B286" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C286" s="22" t="s">
-        <v>530</v>
-      </c>
       <c r="D286" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>387</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="287" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>389</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="289" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C289" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D289" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C290" s="18"/>
+      <c r="D290" s="34"/>
+    </row>
+    <row r="291" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C291" s="32"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="20"/>
+      <c r="H291" s="35"/>
+    </row>
+    <row r="292" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C293" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F289" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B290" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="D290" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C291" s="18"/>
-      <c r="D291" s="34"/>
-    </row>
-    <row r="292" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="C292" s="32"/>
-      <c r="D292" s="21"/>
-      <c r="E292" s="20"/>
-      <c r="F292" s="21"/>
-      <c r="G292" s="20"/>
-      <c r="H292" s="35"/>
-    </row>
-    <row r="293" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C293" s="22" t="s">
-        <v>535</v>
-      </c>
       <c r="D293" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C294" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7444,39 +7483,39 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -8089,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8109,31 +8148,31 @@
         <v>47</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>193</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>195</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>197</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -8200,10 +8239,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T92"/>
+  <dimension ref="A2:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8277,39 +8316,39 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -8317,15 +8356,15 @@
         <v>93</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -8333,39 +8372,42 @@
         <v>93</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B12" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>652</v>
+        <v>648</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>696</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>131</v>
@@ -8373,10 +8415,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8384,23 +8426,23 @@
         <v>93</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8408,7 +8450,7 @@
         <v>93</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8416,12 +8458,12 @@
         <v>93</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="30" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8429,7 +8471,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8437,7 +8479,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8445,7 +8487,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8453,12 +8495,12 @@
         <v>93</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>135</v>
@@ -8469,7 +8511,7 @@
         <v>93</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8477,12 +8519,12 @@
         <v>93</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="30" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8490,7 +8532,7 @@
         <v>93</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8498,7 +8540,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8506,7 +8548,7 @@
         <v>93</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8514,15 +8556,18 @@
         <v>93</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>652</v>
+        <v>648</v>
+      </c>
+      <c r="B36" t="s">
+        <v>700</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8530,55 +8575,55 @@
         <v>93</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8594,7 +8639,7 @@
         <v>93</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8602,7 +8647,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8610,7 +8655,7 @@
         <v>93</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8618,7 +8663,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -8626,15 +8671,15 @@
         <v>93</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -8670,17 +8715,20 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
       <c r="C53" s="30" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D53" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
@@ -8690,21 +8738,24 @@
       <c r="Q53" s="30"/>
       <c r="R53" s="30"/>
       <c r="S53" s="30" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
       <c r="C54" s="30" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
@@ -8714,21 +8765,24 @@
       <c r="Q54" s="30"/>
       <c r="R54" s="30"/>
       <c r="S54" s="30" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
       <c r="C55" s="30" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
@@ -8738,94 +8792,100 @@
       <c r="Q55" s="30"/>
       <c r="R55" s="30"/>
       <c r="S55" s="30" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D56" s="30"/>
       <c r="F56" s="30" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
       <c r="L56" s="30"/>
       <c r="P56" s="30" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Q56" s="30" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="R56" s="30" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="S56" s="30"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
       <c r="C57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J57" s="30"/>
       <c r="K57" s="30"/>
       <c r="L57" s="30"/>
       <c r="P57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="Q57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="R57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="S57" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
       <c r="C58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J58" s="30"/>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="P58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Q58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="R58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="S58" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -8837,13 +8897,13 @@
       <c r="K59" s="30"/>
       <c r="L59" s="30"/>
       <c r="P59" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Q59" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="R59" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="S59" s="30"/>
     </row>
@@ -8851,7 +8911,7 @@
       <c r="D60" s="30"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
@@ -8866,7 +8926,7 @@
       <c r="D61" s="30"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
@@ -8881,7 +8941,7 @@
       <c r="D62" s="30"/>
       <c r="F62" s="30"/>
       <c r="G62" s="30" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I62" s="30"/>
       <c r="J62" s="30"/>
@@ -8897,14 +8957,14 @@
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
       <c r="I63" s="30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J63" s="30"/>
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
       <c r="P63" s="30"/>
       <c r="Q63" s="30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="R63" s="30"/>
       <c r="S63" s="30"/>
@@ -8914,14 +8974,14 @@
       <c r="F64" s="30"/>
       <c r="G64" s="30"/>
       <c r="I64" s="30" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J64" s="30"/>
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="P64" s="30"/>
       <c r="Q64" s="30" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="R64" s="30"/>
       <c r="S64" s="30"/>
@@ -8933,7 +8993,7 @@
       <c r="I65" s="30"/>
       <c r="J65" s="30"/>
       <c r="K65" s="30" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="L65" s="30"/>
       <c r="P65" s="30"/>
@@ -8942,101 +9002,110 @@
       <c r="S65" s="30"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>648</v>
+      </c>
       <c r="C66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J66" s="30"/>
       <c r="K66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L66" s="30"/>
       <c r="P66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Q66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="R66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="S66" s="30" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
       <c r="C67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J67" s="30"/>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
       <c r="P67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="Q67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="R67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="S67" s="30" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
       <c r="C68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J68" s="30"/>
       <c r="K68" s="30"/>
       <c r="L68" s="30"/>
       <c r="P68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="Q68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="R68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="S68" s="30" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -9049,161 +9118,169 @@
         <v>93</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="47" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="30" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="30" t="s">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="30" t="s">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="30" t="s">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="30" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>646</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>648</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>537</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>652</v>
+        <v>93</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>647</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>648</v>
       </c>
       <c r="C88" s="30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>652</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C92" s="30" t="s">
-        <v>651</v>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -9234,64 +9311,64 @@
   <sheetData>
     <row r="2" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D8" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
@@ -9299,15 +9376,15 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D10" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D11" t="s">
         <v>83</v>
@@ -9315,7 +9392,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -9323,67 +9400,67 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D16" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D17" t="s">
         <v>685</v>
-      </c>
-      <c r="D17" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D18" t="s">
         <v>686</v>
-      </c>
-      <c r="D18" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
+++ b/05_Implementation/PoC/Mapping TED XML to ePO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="TED to ePO" sheetId="4" r:id="rId5"/>
     <sheet name="TED elements" sheetId="6" r:id="rId6"/>
     <sheet name="Criterion" sheetId="7" r:id="rId7"/>
+    <sheet name="Test" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$B$2:$D$57</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="710">
   <si>
     <t>ePO TTL</t>
   </si>
@@ -2236,12 +2237,27 @@
   <si>
     <t>PROCEDURE/EAUCTION_USED</t>
   </si>
+  <si>
+    <t>Contract award notice - Concession award notice</t>
+  </si>
+  <si>
+    <t>TED Search</t>
+  </si>
+  <si>
+    <t>2 May 2018 - 625 results</t>
+  </si>
+  <si>
+    <t>12 are concession award result</t>
+  </si>
+  <si>
+    <t>613 are contract award notice</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2351,6 +2367,14 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2384,7 +2408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2421,12 +2445,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2542,6 +2575,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8241,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9467,4 +9501,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>